--- a/bdrmaiores.xlsx
+++ b/bdrmaiores.xlsx
@@ -472,67 +472,67 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5.577789075687178</v>
+        <v>9.509014459457831</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SPOTIFY TECH</t>
+          <t>MERCADOLIBRE</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S1PO34</t>
+          <t>MELI34</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SPOT</t>
+          <t>MELI</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.754504614436883</v>
+        <v>6.650443256545827</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SL GREEN REA</t>
+          <t>SONY GROUP</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S1LG34</t>
+          <t>SNEC34</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SLG</t>
+          <t>SONY</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.461674484102332</v>
+        <v>1.661325390472484</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ADVANCED MIC</t>
+          <t>BNY MELLON</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A1MD34</t>
+          <t>BONY34</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>BK</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.084906665149902</v>
+        <v>1.643268713683938</v>
       </c>
     </row>
     <row r="6">
@@ -552,107 +552,107 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.069878332351436</v>
+        <v>1.286556500854203</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>EXELON CORP</t>
+          <t>ARCHER DANIE</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>E1XC34</t>
+          <t>A1DM34</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EXC</t>
+          <t>ADM</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.9858214813993982</v>
+        <v>1.238826435470401</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FREEPORT</t>
+          <t>ZOETIS INC</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FCXO34</t>
+          <t>Z1TS34</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>FCX</t>
+          <t>ZTS</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.8505450550432414</v>
+        <v>1.030745226640647</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BOOKING</t>
+          <t>STAG INDUSTR</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BKNG34</t>
+          <t>S2TA34</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BKNG</t>
+          <t>STAG</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.7462640421107096</v>
+        <v>0.5040325448913805</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ARCHER DANIE</t>
+          <t>HONDA MO</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>A1DM34</t>
+          <t>HOND34</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ADM</t>
+          <t>HMC</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.7237061179730517</v>
+        <v>0.4882668213649595</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LILLY</t>
+          <t>CHARTER COMM</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LILY34</t>
+          <t>CHCM34</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>LLY</t>
+          <t>CHTR</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.6649469342498122</v>
+        <v>0.4244751595922835</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmaiores.xlsx
+++ b/bdrmaiores.xlsx
@@ -458,161 +458,161 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>SPOTIFY TECH</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GEOO34</t>
+          <t>S1PO34</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>SPOT</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>9.509014459457831</v>
+        <v>2.908055749016057</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MERCADOLIBRE</t>
+          <t>STARBUCKS</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MELI34</t>
+          <t>SBUB34</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MELI</t>
+          <t>SBUX</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6.650443256545827</v>
+        <v>1.28718410696456</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SONY GROUP</t>
+          <t>FREEPORT</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SNEC34</t>
+          <t>FCXO34</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SONY</t>
+          <t>FCX</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.661325390472484</v>
+        <v>1.012751590929284</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BNY MELLON</t>
+          <t>APARTMENT IN</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BONY34</t>
+          <t>A1IV34</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BK</t>
+          <t>AIV</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.643268713683938</v>
+        <v>0.9547421443558051</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UNILEVER</t>
+          <t>SONY GROUP</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ULEV34</t>
+          <t>SNEC34</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>UL</t>
+          <t>SONY</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.286556500854203</v>
+        <v>0.7650004064489622</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ARCHER DANIE</t>
+          <t>GE</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>A1DM34</t>
+          <t>GEOO34</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ADM</t>
+          <t>GE</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.238826435470401</v>
+        <v>0.6993881779635558</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ZOETIS INC</t>
+          <t>UNILEVER</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Z1TS34</t>
+          <t>ULEV34</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ZTS</t>
+          <t>UL</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.030745226640647</v>
+        <v>0.4859155092162837</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>STAG INDUSTR</t>
+          <t>HP COMPANY</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>S2TA34</t>
+          <t>HPQB34</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>STAG</t>
+          <t>HPQ</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.5040325448913805</v>
+        <v>0.4285275717011245</v>
       </c>
     </row>
     <row r="10">
@@ -632,27 +632,27 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.4882668213649595</v>
+        <v>0.3779203243102529</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHARTER COMM</t>
+          <t>CHEVRON</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CHCM34</t>
+          <t>CHVX34</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CHTR</t>
+          <t>CVX</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.4244751595922835</v>
+        <v>0.3641124073212296</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmaiores.xlsx
+++ b/bdrmaiores.xlsx
@@ -472,187 +472,187 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2.908055749016057</v>
+        <v>2.046170985513527</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>STARBUCKS</t>
+          <t>RIO TINTO</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SBUB34</t>
+          <t>RIOT34</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SBUX</t>
+          <t>RIO</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.28718410696456</v>
+        <v>1.450535052146734</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FREEPORT</t>
+          <t>FIRST SOLAR</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FCXO34</t>
+          <t>FSLR34</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>FCX</t>
+          <t>FSLR</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.012751590929284</v>
+        <v>1.186969562248123</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>APARTMENT IN</t>
+          <t>EXELON CORP</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A1IV34</t>
+          <t>E1XC34</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AIV</t>
+          <t>EXC</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.9547421443558051</v>
+        <v>1.143844873893613</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SONY GROUP</t>
+          <t>GE</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SNEC34</t>
+          <t>GEOO34</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SONY</t>
+          <t>GE</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.7650004064489622</v>
+        <v>0.9391384171976824</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>NEWMONT GOLD</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GEOO34</t>
+          <t>N1EM34</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>NEM</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.6993881779635558</v>
+        <v>0.6167948056945534</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>UNILEVER</t>
+          <t>ARCHER DANIE</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ULEV34</t>
+          <t>A1DM34</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>UL</t>
+          <t>ADM</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.4859155092162837</v>
+        <v>0.4512811027452699</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HP COMPANY</t>
+          <t>UBER TECH IN</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HPQB34</t>
+          <t>U1BE34</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>HPQ</t>
+          <t>UBER</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.4285275717011245</v>
+        <v>0.3462403886642278</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HONDA MO</t>
+          <t>SL GREEN REA</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HOND34</t>
+          <t>S1LG34</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>HMC</t>
+          <t>SLG</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.3779203243102529</v>
+        <v>0.3435522976951688</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHEVRON</t>
+          <t>BREAD FINAN</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CHVX34</t>
+          <t>A1LL34</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>BFH</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.3641124073212296</v>
+        <v>0.340380991607617</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmaiores.xlsx
+++ b/bdrmaiores.xlsx
@@ -458,201 +458,201 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SPOTIFY TECH</t>
+          <t>BNY MELLON</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S1PO34</t>
+          <t>BONY34</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SPOT</t>
+          <t>BK</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2.046170985513527</v>
+        <v>1.335909631920003</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RIO TINTO</t>
+          <t>GE</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>RIOT34</t>
+          <t>GEOO34</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>RIO</t>
+          <t>GE</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.450535052146734</v>
+        <v>0.7696608752812608</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FIRST SOLAR</t>
+          <t>EXELON CORP</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FSLR34</t>
+          <t>E1XC34</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>FSLR</t>
+          <t>EXC</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.186969562248123</v>
+        <v>0.6220194424058718</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>EXELON CORP</t>
+          <t>HP COMPANY</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>E1XC34</t>
+          <t>HPQB34</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EXC</t>
+          <t>HPQ</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.143844873893613</v>
+        <v>0.5328022864532613</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>WALT DISNEY</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GEOO34</t>
+          <t>DISB34</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>DIS</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.9391384171976824</v>
+        <v>0.4682535706001758</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NEWMONT GOLD</t>
+          <t>BLACKROCK</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>N1EM34</t>
+          <t>BLAK34</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NEM</t>
+          <t>BLK</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.6167948056945534</v>
+        <v>0.380302165481929</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ARCHER DANIE</t>
+          <t>COINBASEGLOB</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>A1DM34</t>
+          <t>C2OI34</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ADM</t>
+          <t>COIN</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.4512811027452699</v>
+        <v>0.3740749246551474</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>UBER TECH IN</t>
+          <t>MONSTER BEVE</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>U1BE34</t>
+          <t>M1NS34</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>UBER</t>
+          <t>MNST</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.3462403886642278</v>
+        <v>0.3123337748575068</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SL GREEN REA</t>
+          <t>GENERAL MOT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>S1LG34</t>
+          <t>GMCO34</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SLG</t>
+          <t>GM</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.3435522976951688</v>
+        <v>0.3070059987830973</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BREAD FINAN</t>
+          <t>AMERICAN AIR</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>A1LL34</t>
+          <t>AALL34</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BFH</t>
+          <t>AAL</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.340380991607617</v>
+        <v>0.2665853811836314</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmaiores.xlsx
+++ b/bdrmaiores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Nome</t>
   </si>
@@ -28,91 +28,88 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>SPOTIFY TECH</t>
-  </si>
-  <si>
-    <t>SONY GROUP</t>
-  </si>
-  <si>
-    <t>RIO TINTO</t>
-  </si>
-  <si>
-    <t>TAKE-TWO INT</t>
-  </si>
-  <si>
-    <t>REALTY INCOM</t>
-  </si>
-  <si>
-    <t>UNILEVER</t>
-  </si>
-  <si>
-    <t>ADVANCED MIC</t>
-  </si>
-  <si>
-    <t>SIMON PROP</t>
-  </si>
-  <si>
-    <t>LILLY</t>
+    <t>FIRST SOLAR</t>
+  </si>
+  <si>
+    <t>STARBUCKS</t>
+  </si>
+  <si>
+    <t>BNY MELLON</t>
+  </si>
+  <si>
+    <t>ARCHER DANIE</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>HP COMPANY</t>
+  </si>
+  <si>
+    <t>BREAD FINAN</t>
+  </si>
+  <si>
+    <t>MICRON TECHN</t>
+  </si>
+  <si>
+    <t>BANCO SANTAN</t>
   </si>
   <si>
     <t>HONDA MO</t>
   </si>
   <si>
-    <t>S1PO34</t>
-  </si>
-  <si>
-    <t>SNEC34</t>
-  </si>
-  <si>
-    <t>RIOT34</t>
-  </si>
-  <si>
-    <t>T1TW34</t>
-  </si>
-  <si>
-    <t>R1IN34</t>
-  </si>
-  <si>
-    <t>ULEV34</t>
-  </si>
-  <si>
-    <t>A1MD34</t>
-  </si>
-  <si>
-    <t>SIMN34</t>
-  </si>
-  <si>
-    <t>LILY34</t>
+    <t>FSLR34</t>
+  </si>
+  <si>
+    <t>SBUB34</t>
+  </si>
+  <si>
+    <t>BONY34</t>
+  </si>
+  <si>
+    <t>A1DM34</t>
+  </si>
+  <si>
+    <t>GEOO34</t>
+  </si>
+  <si>
+    <t>HPQB34</t>
+  </si>
+  <si>
+    <t>A1LL34</t>
+  </si>
+  <si>
+    <t>MUTC34</t>
+  </si>
+  <si>
+    <t>B1SA34</t>
   </si>
   <si>
     <t>HOND34</t>
   </si>
   <si>
-    <t>SPOT</t>
-  </si>
-  <si>
-    <t>SONY</t>
-  </si>
-  <si>
-    <t>RIO</t>
-  </si>
-  <si>
-    <t>TTWO</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>UL</t>
-  </si>
-  <si>
-    <t>AMD</t>
-  </si>
-  <si>
-    <t>SPG</t>
-  </si>
-  <si>
-    <t>LLY</t>
+    <t>FSLR</t>
+  </si>
+  <si>
+    <t>SBUX</t>
+  </si>
+  <si>
+    <t>BK</t>
+  </si>
+  <si>
+    <t>ADM</t>
+  </si>
+  <si>
+    <t>HPQ</t>
+  </si>
+  <si>
+    <t>BFH</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>BSAC</t>
   </si>
   <si>
     <t>HMC</t>
@@ -504,7 +501,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>1.727302968502045</v>
+        <v>2.919769651020033</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -518,7 +515,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>1.390118551818887</v>
+        <v>2.604840664444055</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -532,7 +529,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>0.8845343707580469</v>
+        <v>2.217033234077462</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -546,7 +543,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>0.8074730374755745</v>
+        <v>1.18169664080051</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -557,10 +554,10 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>0.6034570902938867</v>
+        <v>1.094305289436306</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -571,10 +568,10 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>0.5563406188812223</v>
+        <v>1.045426146766658</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -585,10 +582,10 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>0.5038249799308687</v>
+        <v>0.6282102528457472</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -599,10 +596,10 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>0.4724343200759904</v>
+        <v>0.5495987264161073</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -613,10 +610,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>0.440996181895585</v>
+        <v>0.5462524604758983</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -627,10 +624,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>0.428030345672596</v>
+        <v>0.5392528442916955</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmaiores.xlsx
+++ b/bdrmaiores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Nome</t>
   </si>
@@ -31,88 +31,91 @@
     <t>FIRST SOLAR</t>
   </si>
   <si>
+    <t>SPOTIFY TECH</t>
+  </si>
+  <si>
+    <t>SIMON PROP</t>
+  </si>
+  <si>
+    <t>APARTMENT IN</t>
+  </si>
+  <si>
+    <t>AMERICAN AIR</t>
+  </si>
+  <si>
     <t>STARBUCKS</t>
   </si>
   <si>
-    <t>BNY MELLON</t>
-  </si>
-  <si>
-    <t>ARCHER DANIE</t>
-  </si>
-  <si>
-    <t>GE</t>
-  </si>
-  <si>
-    <t>HP COMPANY</t>
+    <t>LILLY</t>
+  </si>
+  <si>
+    <t>HONDA MO</t>
   </si>
   <si>
     <t>BREAD FINAN</t>
   </si>
   <si>
-    <t>MICRON TECHN</t>
-  </si>
-  <si>
-    <t>BANCO SANTAN</t>
-  </si>
-  <si>
-    <t>HONDA MO</t>
+    <t>EXELON CORP</t>
   </si>
   <si>
     <t>FSLR34</t>
   </si>
   <si>
+    <t>S1PO34</t>
+  </si>
+  <si>
+    <t>SIMN34</t>
+  </si>
+  <si>
+    <t>A1IV34</t>
+  </si>
+  <si>
+    <t>AALL34</t>
+  </si>
+  <si>
     <t>SBUB34</t>
   </si>
   <si>
-    <t>BONY34</t>
-  </si>
-  <si>
-    <t>A1DM34</t>
-  </si>
-  <si>
-    <t>GEOO34</t>
-  </si>
-  <si>
-    <t>HPQB34</t>
+    <t>LILY34</t>
+  </si>
+  <si>
+    <t>HOND34</t>
   </si>
   <si>
     <t>A1LL34</t>
   </si>
   <si>
-    <t>MUTC34</t>
-  </si>
-  <si>
-    <t>B1SA34</t>
-  </si>
-  <si>
-    <t>HOND34</t>
+    <t>E1XC34</t>
   </si>
   <si>
     <t>FSLR</t>
   </si>
   <si>
+    <t>SPOT</t>
+  </si>
+  <si>
+    <t>SPG</t>
+  </si>
+  <si>
+    <t>AIV</t>
+  </si>
+  <si>
+    <t>AAL</t>
+  </si>
+  <si>
     <t>SBUX</t>
   </si>
   <si>
-    <t>BK</t>
-  </si>
-  <si>
-    <t>ADM</t>
-  </si>
-  <si>
-    <t>HPQ</t>
+    <t>LLY</t>
+  </si>
+  <si>
+    <t>HMC</t>
   </si>
   <si>
     <t>BFH</t>
   </si>
   <si>
-    <t>MU</t>
-  </si>
-  <si>
-    <t>BSAC</t>
-  </si>
-  <si>
-    <t>HMC</t>
+    <t>EXC</t>
   </si>
 </sst>
 </file>
@@ -501,7 +504,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>2.919769651020033</v>
+        <v>3.077757062015735</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -515,7 +518,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>2.604840664444055</v>
+        <v>2.180966466665268</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -529,7 +532,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>2.217033234077462</v>
+        <v>1.643716312049946</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -543,7 +546,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>1.18169664080051</v>
+        <v>1.330244269855484</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -554,10 +557,10 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>1.094305289436306</v>
+        <v>1.101203954071025</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -568,10 +571,10 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>1.045426146766658</v>
+        <v>0.8939815556950634</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -582,10 +585,10 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>0.6282102528457472</v>
+        <v>0.6454062942711687</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -596,10 +599,10 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>0.5495987264161073</v>
+        <v>0.5043878075484827</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -610,10 +613,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>0.5462524604758983</v>
+        <v>0.4607359883193567</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -624,10 +627,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>0.5392528442916955</v>
+        <v>0.4510268823778461</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmaiores.xlsx
+++ b/bdrmaiores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Nome</t>
   </si>
@@ -28,94 +28,91 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>FIRST SOLAR</t>
-  </si>
-  <si>
-    <t>SPOTIFY TECH</t>
-  </si>
-  <si>
-    <t>SIMON PROP</t>
+    <t>COINBASEGLOB</t>
+  </si>
+  <si>
+    <t>EXELON CORP</t>
+  </si>
+  <si>
+    <t>ADVANCED MIC</t>
   </si>
   <si>
     <t>APARTMENT IN</t>
   </si>
   <si>
-    <t>AMERICAN AIR</t>
-  </si>
-  <si>
-    <t>STARBUCKS</t>
-  </si>
-  <si>
-    <t>LILLY</t>
-  </si>
-  <si>
-    <t>HONDA MO</t>
-  </si>
-  <si>
-    <t>BREAD FINAN</t>
-  </si>
-  <si>
-    <t>EXELON CORP</t>
-  </si>
-  <si>
-    <t>FSLR34</t>
-  </si>
-  <si>
-    <t>S1PO34</t>
-  </si>
-  <si>
-    <t>SIMN34</t>
+    <t>FORD MOTORS</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>EQUINIX INC</t>
+  </si>
+  <si>
+    <t>ASML HOLD</t>
+  </si>
+  <si>
+    <t>FREEPORT</t>
+  </si>
+  <si>
+    <t>TEXAS INC</t>
+  </si>
+  <si>
+    <t>C2OI34</t>
+  </si>
+  <si>
+    <t>E1XC34</t>
+  </si>
+  <si>
+    <t>A1MD34</t>
   </si>
   <si>
     <t>A1IV34</t>
   </si>
   <si>
-    <t>AALL34</t>
-  </si>
-  <si>
-    <t>SBUB34</t>
-  </si>
-  <si>
-    <t>LILY34</t>
-  </si>
-  <si>
-    <t>HOND34</t>
-  </si>
-  <si>
-    <t>A1LL34</t>
-  </si>
-  <si>
-    <t>E1XC34</t>
-  </si>
-  <si>
-    <t>FSLR</t>
-  </si>
-  <si>
-    <t>SPOT</t>
-  </si>
-  <si>
-    <t>SPG</t>
+    <t>FDMO34</t>
+  </si>
+  <si>
+    <t>GEOO34</t>
+  </si>
+  <si>
+    <t>EQIX34</t>
+  </si>
+  <si>
+    <t>ASML34</t>
+  </si>
+  <si>
+    <t>FCXO34</t>
+  </si>
+  <si>
+    <t>TEXA34</t>
+  </si>
+  <si>
+    <t>COIN</t>
+  </si>
+  <si>
+    <t>EXC</t>
+  </si>
+  <si>
+    <t>AMD</t>
   </si>
   <si>
     <t>AIV</t>
   </si>
   <si>
-    <t>AAL</t>
-  </si>
-  <si>
-    <t>SBUX</t>
-  </si>
-  <si>
-    <t>LLY</t>
-  </si>
-  <si>
-    <t>HMC</t>
-  </si>
-  <si>
-    <t>BFH</t>
-  </si>
-  <si>
-    <t>EXC</t>
+    <t>F</t>
+  </si>
+  <si>
+    <t>EQIX</t>
+  </si>
+  <si>
+    <t>ASML</t>
+  </si>
+  <si>
+    <t>FCX</t>
+  </si>
+  <si>
+    <t>TXN</t>
   </si>
 </sst>
 </file>
@@ -504,7 +501,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>3.077757062015735</v>
+        <v>4.075870366172751</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -518,7 +515,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>2.180966466665268</v>
+        <v>3.639014869690072</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -532,7 +529,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>1.643716312049946</v>
+        <v>1.698156920051588</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -546,7 +543,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>1.330244269855484</v>
+        <v>1.656502209663358</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -560,7 +557,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>1.101203954071025</v>
+        <v>1.499301055145224</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -571,10 +568,10 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D7">
-        <v>0.8939815556950634</v>
+        <v>1.454460241126071</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -585,10 +582,10 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>0.6454062942711687</v>
+        <v>0.765609966025302</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -599,10 +596,10 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>0.5043878075484827</v>
+        <v>0.7227783612653411</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -613,10 +610,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>0.4607359883193567</v>
+        <v>0.5640733847337742</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -627,10 +624,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>0.4510268823778461</v>
+        <v>0.4877505917792959</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmaiores.xlsx
+++ b/bdrmaiores.xlsx
@@ -28,91 +28,91 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>COINBASEGLOB</t>
-  </si>
-  <si>
-    <t>EXELON CORP</t>
-  </si>
-  <si>
-    <t>ADVANCED MIC</t>
-  </si>
-  <si>
-    <t>APARTMENT IN</t>
-  </si>
-  <si>
-    <t>FORD MOTORS</t>
+    <t>FIRST SOLAR</t>
   </si>
   <si>
     <t>GE</t>
   </si>
   <si>
-    <t>EQUINIX INC</t>
-  </si>
-  <si>
-    <t>ASML HOLD</t>
-  </si>
-  <si>
-    <t>FREEPORT</t>
-  </si>
-  <si>
-    <t>TEXAS INC</t>
-  </si>
-  <si>
-    <t>C2OI34</t>
-  </si>
-  <si>
-    <t>E1XC34</t>
-  </si>
-  <si>
-    <t>A1MD34</t>
-  </si>
-  <si>
-    <t>A1IV34</t>
-  </si>
-  <si>
-    <t>FDMO34</t>
+    <t>ARCHER DANIE</t>
+  </si>
+  <si>
+    <t>SPOTIFY TECH</t>
+  </si>
+  <si>
+    <t>SL GREEN REA</t>
+  </si>
+  <si>
+    <t>APPLIED MATE</t>
+  </si>
+  <si>
+    <t>LILLY</t>
+  </si>
+  <si>
+    <t>AMERICAN AIR</t>
+  </si>
+  <si>
+    <t>TAKE-TWO INT</t>
+  </si>
+  <si>
+    <t>AMERICAN EXP</t>
+  </si>
+  <si>
+    <t>FSLR34</t>
   </si>
   <si>
     <t>GEOO34</t>
   </si>
   <si>
-    <t>EQIX34</t>
-  </si>
-  <si>
-    <t>ASML34</t>
-  </si>
-  <si>
-    <t>FCXO34</t>
-  </si>
-  <si>
-    <t>TEXA34</t>
-  </si>
-  <si>
-    <t>COIN</t>
-  </si>
-  <si>
-    <t>EXC</t>
-  </si>
-  <si>
-    <t>AMD</t>
-  </si>
-  <si>
-    <t>AIV</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>EQIX</t>
-  </si>
-  <si>
-    <t>ASML</t>
-  </si>
-  <si>
-    <t>FCX</t>
-  </si>
-  <si>
-    <t>TXN</t>
+    <t>A1DM34</t>
+  </si>
+  <si>
+    <t>S1PO34</t>
+  </si>
+  <si>
+    <t>S1LG34</t>
+  </si>
+  <si>
+    <t>A1MT34</t>
+  </si>
+  <si>
+    <t>LILY34</t>
+  </si>
+  <si>
+    <t>AALL34</t>
+  </si>
+  <si>
+    <t>T1TW34</t>
+  </si>
+  <si>
+    <t>AXPB34</t>
+  </si>
+  <si>
+    <t>FSLR</t>
+  </si>
+  <si>
+    <t>ADM</t>
+  </si>
+  <si>
+    <t>SPOT</t>
+  </si>
+  <si>
+    <t>SLG</t>
+  </si>
+  <si>
+    <t>AMAT</t>
+  </si>
+  <si>
+    <t>LLY</t>
+  </si>
+  <si>
+    <t>AAL</t>
+  </si>
+  <si>
+    <t>TTWO</t>
+  </si>
+  <si>
+    <t>AXP</t>
   </si>
 </sst>
 </file>
@@ -501,7 +501,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>4.075870366172751</v>
+        <v>7.437669504768564</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -512,10 +512,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>3.639014869690072</v>
+        <v>3.605627005752467</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -526,10 +526,10 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>1.698156920051588</v>
+        <v>1.680008135055687</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -540,10 +540,10 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>1.656502209663358</v>
+        <v>0.9531644582748413</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -554,10 +554,10 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>1.499301055145224</v>
+        <v>0.8869247477150566</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -568,10 +568,10 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>1.454460241126071</v>
+        <v>0.8660332376304751</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -585,7 +585,7 @@
         <v>29</v>
       </c>
       <c r="D8">
-        <v>0.765609966025302</v>
+        <v>0.5910163530082002</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -599,7 +599,7 @@
         <v>30</v>
       </c>
       <c r="D9">
-        <v>0.7227783612653411</v>
+        <v>0.585323535583484</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -613,7 +613,7 @@
         <v>31</v>
       </c>
       <c r="D10">
-        <v>0.5640733847337742</v>
+        <v>0.577229505237483</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -627,7 +627,7 @@
         <v>32</v>
       </c>
       <c r="D11">
-        <v>0.4877505917792959</v>
+        <v>0.549927667053268</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmaiores.xlsx
+++ b/bdrmaiores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Nome</t>
   </si>
@@ -28,91 +28,94 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>FIRST SOLAR</t>
-  </si>
-  <si>
-    <t>GE</t>
+    <t>FREEPORT</t>
+  </si>
+  <si>
+    <t>HONDA MO</t>
   </si>
   <si>
     <t>ARCHER DANIE</t>
   </si>
   <si>
-    <t>SPOTIFY TECH</t>
-  </si>
-  <si>
-    <t>SL GREEN REA</t>
-  </si>
-  <si>
-    <t>APPLIED MATE</t>
-  </si>
-  <si>
-    <t>LILLY</t>
-  </si>
-  <si>
     <t>AMERICAN AIR</t>
   </si>
   <si>
-    <t>TAKE-TWO INT</t>
-  </si>
-  <si>
-    <t>AMERICAN EXP</t>
-  </si>
-  <si>
-    <t>FSLR34</t>
-  </si>
-  <si>
-    <t>GEOO34</t>
+    <t>TRANSOCEAN</t>
+  </si>
+  <si>
+    <t>EXELON CORP</t>
+  </si>
+  <si>
+    <t>MODERNA INC</t>
+  </si>
+  <si>
+    <t>ADVANCED MIC</t>
+  </si>
+  <si>
+    <t>REALTY INCOM</t>
+  </si>
+  <si>
+    <t>BOOKING</t>
+  </si>
+  <si>
+    <t>FCXO34</t>
+  </si>
+  <si>
+    <t>HOND34</t>
   </si>
   <si>
     <t>A1DM34</t>
   </si>
   <si>
-    <t>S1PO34</t>
-  </si>
-  <si>
-    <t>S1LG34</t>
-  </si>
-  <si>
-    <t>A1MT34</t>
-  </si>
-  <si>
-    <t>LILY34</t>
-  </si>
-  <si>
     <t>AALL34</t>
   </si>
   <si>
-    <t>T1TW34</t>
-  </si>
-  <si>
-    <t>AXPB34</t>
-  </si>
-  <si>
-    <t>FSLR</t>
+    <t>RIGG34</t>
+  </si>
+  <si>
+    <t>E1XC34</t>
+  </si>
+  <si>
+    <t>M1RN34</t>
+  </si>
+  <si>
+    <t>A1MD34</t>
+  </si>
+  <si>
+    <t>R1IN34</t>
+  </si>
+  <si>
+    <t>BKNG34</t>
+  </si>
+  <si>
+    <t>FCX</t>
+  </si>
+  <si>
+    <t>HMC</t>
   </si>
   <si>
     <t>ADM</t>
   </si>
   <si>
-    <t>SPOT</t>
-  </si>
-  <si>
-    <t>SLG</t>
-  </si>
-  <si>
-    <t>AMAT</t>
-  </si>
-  <si>
-    <t>LLY</t>
-  </si>
-  <si>
     <t>AAL</t>
   </si>
   <si>
-    <t>TTWO</t>
-  </si>
-  <si>
-    <t>AXP</t>
+    <t>RIG</t>
+  </si>
+  <si>
+    <t>EXC</t>
+  </si>
+  <si>
+    <t>MRNA</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>BKNG</t>
   </si>
 </sst>
 </file>
@@ -501,7 +504,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>7.437669504768564</v>
+        <v>2.012286996080597</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -512,10 +515,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>3.605627005752467</v>
+        <v>1.722314894195733</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -526,10 +529,10 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>1.680008135055687</v>
+        <v>1.260113011703652</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -540,10 +543,10 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>0.9531644582748413</v>
+        <v>0.7756470807571532</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -554,10 +557,10 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>0.8869247477150566</v>
+        <v>0.7152431180534222</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -568,10 +571,10 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>0.8660332376304751</v>
+        <v>0.5684768069913844</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -582,10 +585,10 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>0.5910163530082002</v>
+        <v>0.553262376243584</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -596,10 +599,10 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>0.585323535583484</v>
+        <v>0.5351491434994387</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -610,10 +613,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>0.577229505237483</v>
+        <v>0.5151679272003094</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -624,10 +627,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>0.549927667053268</v>
+        <v>0.4485698033872723</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmaiores.xlsx
+++ b/bdrmaiores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Nome</t>
   </si>
@@ -28,94 +28,91 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>FREEPORT</t>
-  </si>
-  <si>
-    <t>HONDA MO</t>
-  </si>
-  <si>
-    <t>ARCHER DANIE</t>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>NASDAQ INC</t>
+  </si>
+  <si>
+    <t>ADVANCED MIC</t>
+  </si>
+  <si>
+    <t>HP COMPANY</t>
+  </si>
+  <si>
+    <t>SIMON PROP</t>
   </si>
   <si>
     <t>AMERICAN AIR</t>
   </si>
   <si>
-    <t>TRANSOCEAN</t>
-  </si>
-  <si>
-    <t>EXELON CORP</t>
-  </si>
-  <si>
-    <t>MODERNA INC</t>
-  </si>
-  <si>
-    <t>ADVANCED MIC</t>
-  </si>
-  <si>
-    <t>REALTY INCOM</t>
-  </si>
-  <si>
-    <t>BOOKING</t>
-  </si>
-  <si>
-    <t>FCXO34</t>
-  </si>
-  <si>
-    <t>HOND34</t>
-  </si>
-  <si>
-    <t>A1DM34</t>
+    <t>TAKE-TWO INT</t>
+  </si>
+  <si>
+    <t>BERKSHIRE</t>
+  </si>
+  <si>
+    <t>MICROSOFT</t>
+  </si>
+  <si>
+    <t>MICRON TECHN</t>
+  </si>
+  <si>
+    <t>GEOO34</t>
+  </si>
+  <si>
+    <t>N1DA34</t>
+  </si>
+  <si>
+    <t>A1MD34</t>
+  </si>
+  <si>
+    <t>HPQB34</t>
+  </si>
+  <si>
+    <t>SIMN34</t>
   </si>
   <si>
     <t>AALL34</t>
   </si>
   <si>
-    <t>RIGG34</t>
-  </si>
-  <si>
-    <t>E1XC34</t>
-  </si>
-  <si>
-    <t>M1RN34</t>
-  </si>
-  <si>
-    <t>A1MD34</t>
-  </si>
-  <si>
-    <t>R1IN34</t>
-  </si>
-  <si>
-    <t>BKNG34</t>
-  </si>
-  <si>
-    <t>FCX</t>
-  </si>
-  <si>
-    <t>HMC</t>
-  </si>
-  <si>
-    <t>ADM</t>
+    <t>T1TW34</t>
+  </si>
+  <si>
+    <t>BERK34</t>
+  </si>
+  <si>
+    <t>MSFT34</t>
+  </si>
+  <si>
+    <t>MUTC34</t>
+  </si>
+  <si>
+    <t>NDAQ</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>HPQ</t>
+  </si>
+  <si>
+    <t>SPG</t>
   </si>
   <si>
     <t>AAL</t>
   </si>
   <si>
-    <t>RIG</t>
-  </si>
-  <si>
-    <t>EXC</t>
-  </si>
-  <si>
-    <t>MRNA</t>
-  </si>
-  <si>
-    <t>AMD</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>BKNG</t>
+    <t>TTWO</t>
+  </si>
+  <si>
+    <t>BRK-B</t>
+  </si>
+  <si>
+    <t>MSFT</t>
+  </si>
+  <si>
+    <t>MU</t>
   </si>
 </sst>
 </file>
@@ -501,10 +498,10 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>2.012286996080597</v>
+        <v>4.487537384033203</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -515,10 +512,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>1.722314894195733</v>
+        <v>1.284407885963446</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -529,10 +526,10 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>1.260113011703652</v>
+        <v>0.8771195776062086</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -543,10 +540,10 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>0.7756470807571532</v>
+        <v>0.8044297376327449</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -557,10 +554,10 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>0.7152431180534222</v>
+        <v>0.7811502954864409</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -571,10 +568,10 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>0.5684768069913844</v>
+        <v>0.7270252476882888</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -585,10 +582,10 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>0.553262376243584</v>
+        <v>0.6952084675140213</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -599,10 +596,10 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>0.5351491434994387</v>
+        <v>0.6636977632995809</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -613,10 +610,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>0.5151679272003094</v>
+        <v>0.5343724315517733</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -627,10 +624,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>0.4485698033872723</v>
+        <v>0.526269521075335</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmaiores.xlsx
+++ b/bdrmaiores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Nome</t>
   </si>
@@ -28,91 +28,94 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>GE</t>
-  </si>
-  <si>
-    <t>NASDAQ INC</t>
-  </si>
-  <si>
     <t>ADVANCED MIC</t>
   </si>
   <si>
-    <t>HP COMPANY</t>
-  </si>
-  <si>
-    <t>SIMON PROP</t>
-  </si>
-  <si>
-    <t>AMERICAN AIR</t>
-  </si>
-  <si>
-    <t>TAKE-TWO INT</t>
+    <t>BREAD FINAN</t>
+  </si>
+  <si>
+    <t>FIRST SOLAR</t>
+  </si>
+  <si>
+    <t>UNILEVER</t>
+  </si>
+  <si>
+    <t>TRANSOCEAN</t>
+  </si>
+  <si>
+    <t>BNY MELLON</t>
+  </si>
+  <si>
+    <t>EQUINOR ASA</t>
   </si>
   <si>
     <t>BERKSHIRE</t>
   </si>
   <si>
-    <t>MICROSOFT</t>
-  </si>
-  <si>
-    <t>MICRON TECHN</t>
-  </si>
-  <si>
-    <t>GEOO34</t>
-  </si>
-  <si>
-    <t>N1DA34</t>
+    <t>PAYPAL HOLD</t>
+  </si>
+  <si>
+    <t>MODERNA INC</t>
   </si>
   <si>
     <t>A1MD34</t>
   </si>
   <si>
-    <t>HPQB34</t>
-  </si>
-  <si>
-    <t>SIMN34</t>
-  </si>
-  <si>
-    <t>AALL34</t>
-  </si>
-  <si>
-    <t>T1TW34</t>
+    <t>A1LL34</t>
+  </si>
+  <si>
+    <t>FSLR34</t>
+  </si>
+  <si>
+    <t>ULEV34</t>
+  </si>
+  <si>
+    <t>RIGG34</t>
+  </si>
+  <si>
+    <t>BONY34</t>
+  </si>
+  <si>
+    <t>E1QN34</t>
   </si>
   <si>
     <t>BERK34</t>
   </si>
   <si>
-    <t>MSFT34</t>
-  </si>
-  <si>
-    <t>MUTC34</t>
-  </si>
-  <si>
-    <t>NDAQ</t>
+    <t>PYPL34</t>
+  </si>
+  <si>
+    <t>M1RN34</t>
   </si>
   <si>
     <t>AMD</t>
   </si>
   <si>
-    <t>HPQ</t>
-  </si>
-  <si>
-    <t>SPG</t>
-  </si>
-  <si>
-    <t>AAL</t>
-  </si>
-  <si>
-    <t>TTWO</t>
+    <t>BFH</t>
+  </si>
+  <si>
+    <t>FSLR</t>
+  </si>
+  <si>
+    <t>UL</t>
+  </si>
+  <si>
+    <t>RIG</t>
+  </si>
+  <si>
+    <t>BK</t>
+  </si>
+  <si>
+    <t>EQNR</t>
   </si>
   <si>
     <t>BRK-B</t>
   </si>
   <si>
-    <t>MSFT</t>
-  </si>
-  <si>
-    <t>MU</t>
+    <t>PYPL</t>
+  </si>
+  <si>
+    <t>MRNA</t>
   </si>
 </sst>
 </file>
@@ -498,10 +501,10 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D2">
-        <v>4.487537384033203</v>
+        <v>3.14508932962417</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -512,10 +515,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>1.284407885963446</v>
+        <v>2.029722698593105</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -526,10 +529,10 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>0.8771195776062086</v>
+        <v>1.163221067428822</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -540,10 +543,10 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>0.8044297376327449</v>
+        <v>0.7193479484558338</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -554,10 +557,10 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>0.7811502954864409</v>
+        <v>0.6581254005432129</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -568,10 +571,10 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>0.7270252476882888</v>
+        <v>0.5792975212098099</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -582,10 +585,10 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>0.6952084675140213</v>
+        <v>0.3553125858306885</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -596,10 +599,10 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>0.6636977632995809</v>
+        <v>0.2947443777084118</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -610,10 +613,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>0.5343724315517733</v>
+        <v>0.1808655991935666</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -624,10 +627,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>0.526269521075335</v>
+        <v>0.1673488389205886</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmaiores.xlsx
+++ b/bdrmaiores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Nome</t>
   </si>
@@ -28,94 +28,91 @@
     <t>Spread</t>
   </si>
   <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>SPOTIFY TECH</t>
+  </si>
+  <si>
+    <t>SONY GROUP</t>
+  </si>
+  <si>
+    <t>STARBUCKS</t>
+  </si>
+  <si>
+    <t>TRANSOCEAN</t>
+  </si>
+  <si>
+    <t>RIO TINTO</t>
+  </si>
+  <si>
+    <t>MERCK</t>
+  </si>
+  <si>
     <t>ADVANCED MIC</t>
   </si>
   <si>
-    <t>BREAD FINAN</t>
-  </si>
-  <si>
-    <t>FIRST SOLAR</t>
-  </si>
-  <si>
-    <t>UNILEVER</t>
-  </si>
-  <si>
-    <t>TRANSOCEAN</t>
-  </si>
-  <si>
-    <t>BNY MELLON</t>
-  </si>
-  <si>
-    <t>EQUINOR ASA</t>
-  </si>
-  <si>
-    <t>BERKSHIRE</t>
-  </si>
-  <si>
-    <t>PAYPAL HOLD</t>
-  </si>
-  <si>
-    <t>MODERNA INC</t>
+    <t>OCCIDENT PTR</t>
+  </si>
+  <si>
+    <t>NEXTERA ENER</t>
+  </si>
+  <si>
+    <t>GEOO34</t>
+  </si>
+  <si>
+    <t>S1PO34</t>
+  </si>
+  <si>
+    <t>SNEC34</t>
+  </si>
+  <si>
+    <t>SBUB34</t>
+  </si>
+  <si>
+    <t>RIGG34</t>
+  </si>
+  <si>
+    <t>RIOT34</t>
+  </si>
+  <si>
+    <t>MRCK34</t>
   </si>
   <si>
     <t>A1MD34</t>
   </si>
   <si>
-    <t>A1LL34</t>
-  </si>
-  <si>
-    <t>FSLR34</t>
-  </si>
-  <si>
-    <t>ULEV34</t>
-  </si>
-  <si>
-    <t>RIGG34</t>
-  </si>
-  <si>
-    <t>BONY34</t>
-  </si>
-  <si>
-    <t>E1QN34</t>
-  </si>
-  <si>
-    <t>BERK34</t>
-  </si>
-  <si>
-    <t>PYPL34</t>
-  </si>
-  <si>
-    <t>M1RN34</t>
+    <t>OXYP34</t>
+  </si>
+  <si>
+    <t>NEXT34</t>
+  </si>
+  <si>
+    <t>SPOT</t>
+  </si>
+  <si>
+    <t>SONY</t>
+  </si>
+  <si>
+    <t>SBUX</t>
+  </si>
+  <si>
+    <t>RIG</t>
+  </si>
+  <si>
+    <t>RIO</t>
+  </si>
+  <si>
+    <t>MRK</t>
   </si>
   <si>
     <t>AMD</t>
   </si>
   <si>
-    <t>BFH</t>
-  </si>
-  <si>
-    <t>FSLR</t>
-  </si>
-  <si>
-    <t>UL</t>
-  </si>
-  <si>
-    <t>RIG</t>
-  </si>
-  <si>
-    <t>BK</t>
-  </si>
-  <si>
-    <t>EQNR</t>
-  </si>
-  <si>
-    <t>BRK-B</t>
-  </si>
-  <si>
-    <t>PYPL</t>
-  </si>
-  <si>
-    <t>MRNA</t>
+    <t>OXY</t>
+  </si>
+  <si>
+    <t>NEE</t>
   </si>
 </sst>
 </file>
@@ -501,10 +498,10 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>3.14508932962417</v>
+        <v>2.265668693115003</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -515,10 +512,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>2.029722698593105</v>
+        <v>1.372113411292958</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -529,10 +526,10 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>1.163221067428822</v>
+        <v>1.057341491119587</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -543,10 +540,10 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>0.7193479484558338</v>
+        <v>0.7020942944946</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -557,10 +554,10 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>0.6581254005432129</v>
+        <v>0.5221684302387075</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -571,10 +568,10 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>0.5792975212098099</v>
+        <v>0.4146156311035156</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -585,10 +582,10 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>0.3553125858306885</v>
+        <v>0.3882336016158661</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -599,10 +596,10 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>0.2947443777084118</v>
+        <v>0.375617260204308</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -613,10 +610,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>0.1808655991935666</v>
+        <v>0.3441801290535693</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -627,10 +624,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>0.1673488389205886</v>
+        <v>0.3435549841651664</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmaiores.xlsx
+++ b/bdrmaiores.xlsx
@@ -31,88 +31,88 @@
     <t>GE</t>
   </si>
   <si>
-    <t>SPOTIFY TECH</t>
-  </si>
-  <si>
-    <t>SONY GROUP</t>
-  </si>
-  <si>
-    <t>STARBUCKS</t>
-  </si>
-  <si>
-    <t>TRANSOCEAN</t>
-  </si>
-  <si>
-    <t>RIO TINTO</t>
-  </si>
-  <si>
-    <t>MERCK</t>
-  </si>
-  <si>
-    <t>ADVANCED MIC</t>
-  </si>
-  <si>
-    <t>OCCIDENT PTR</t>
-  </si>
-  <si>
-    <t>NEXTERA ENER</t>
+    <t>ASTRAZENECA</t>
+  </si>
+  <si>
+    <t>SL GREEN REA</t>
+  </si>
+  <si>
+    <t>APPLIED MATE</t>
+  </si>
+  <si>
+    <t>BROADCOM INC</t>
+  </si>
+  <si>
+    <t>BANCO SANTAN</t>
+  </si>
+  <si>
+    <t>FIRST SOLAR</t>
+  </si>
+  <si>
+    <t>ARCHER DANIE</t>
+  </si>
+  <si>
+    <t>ASML HOLD</t>
+  </si>
+  <si>
+    <t>UBER TECH IN</t>
   </si>
   <si>
     <t>GEOO34</t>
   </si>
   <si>
-    <t>S1PO34</t>
-  </si>
-  <si>
-    <t>SNEC34</t>
-  </si>
-  <si>
-    <t>SBUB34</t>
-  </si>
-  <si>
-    <t>RIGG34</t>
-  </si>
-  <si>
-    <t>RIOT34</t>
-  </si>
-  <si>
-    <t>MRCK34</t>
-  </si>
-  <si>
-    <t>A1MD34</t>
-  </si>
-  <si>
-    <t>OXYP34</t>
-  </si>
-  <si>
-    <t>NEXT34</t>
-  </si>
-  <si>
-    <t>SPOT</t>
-  </si>
-  <si>
-    <t>SONY</t>
-  </si>
-  <si>
-    <t>SBUX</t>
-  </si>
-  <si>
-    <t>RIG</t>
-  </si>
-  <si>
-    <t>RIO</t>
-  </si>
-  <si>
-    <t>MRK</t>
-  </si>
-  <si>
-    <t>AMD</t>
-  </si>
-  <si>
-    <t>OXY</t>
-  </si>
-  <si>
-    <t>NEE</t>
+    <t>A1ZN34</t>
+  </si>
+  <si>
+    <t>S1LG34</t>
+  </si>
+  <si>
+    <t>A1MT34</t>
+  </si>
+  <si>
+    <t>AVGO34</t>
+  </si>
+  <si>
+    <t>B1SA34</t>
+  </si>
+  <si>
+    <t>FSLR34</t>
+  </si>
+  <si>
+    <t>A1DM34</t>
+  </si>
+  <si>
+    <t>ASML34</t>
+  </si>
+  <si>
+    <t>U1BE34</t>
+  </si>
+  <si>
+    <t>AZN</t>
+  </si>
+  <si>
+    <t>SLG</t>
+  </si>
+  <si>
+    <t>AMAT</t>
+  </si>
+  <si>
+    <t>AVGO</t>
+  </si>
+  <si>
+    <t>BSAC</t>
+  </si>
+  <si>
+    <t>FSLR</t>
+  </si>
+  <si>
+    <t>ADM</t>
+  </si>
+  <si>
+    <t>ASML</t>
+  </si>
+  <si>
+    <t>UBER</t>
   </si>
 </sst>
 </file>
@@ -501,7 +501,7 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>2.265668693115003</v>
+        <v>3.662484927444893</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -515,7 +515,7 @@
         <v>24</v>
       </c>
       <c r="D3">
-        <v>1.372113411292958</v>
+        <v>1.264061783808629</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -529,7 +529,7 @@
         <v>25</v>
       </c>
       <c r="D4">
-        <v>1.057341491119587</v>
+        <v>0.9679816813659272</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -543,7 +543,7 @@
         <v>26</v>
       </c>
       <c r="D5">
-        <v>0.7020942944946</v>
+        <v>0.8449355422897611</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -557,7 +557,7 @@
         <v>27</v>
       </c>
       <c r="D6">
-        <v>0.5221684302387075</v>
+        <v>0.4941608942339855</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -571,7 +571,7 @@
         <v>28</v>
       </c>
       <c r="D7">
-        <v>0.4146156311035156</v>
+        <v>0.4428656623458664</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -585,7 +585,7 @@
         <v>29</v>
       </c>
       <c r="D8">
-        <v>0.3882336016158661</v>
+        <v>0.4194661969377194</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -599,7 +599,7 @@
         <v>30</v>
       </c>
       <c r="D9">
-        <v>0.375617260204308</v>
+        <v>0.3793561980819504</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -613,7 +613,7 @@
         <v>31</v>
       </c>
       <c r="D10">
-        <v>0.3441801290535693</v>
+        <v>0.3749882270214613</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -627,7 +627,7 @@
         <v>32</v>
       </c>
       <c r="D11">
-        <v>0.3435549841651664</v>
+        <v>0.3528139423751782</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmaiores.xlsx
+++ b/bdrmaiores.xlsx
@@ -31,88 +31,88 @@
     <t>GE</t>
   </si>
   <si>
-    <t>ASTRAZENECA</t>
-  </si>
-  <si>
-    <t>SL GREEN REA</t>
-  </si>
-  <si>
-    <t>APPLIED MATE</t>
-  </si>
-  <si>
-    <t>BROADCOM INC</t>
-  </si>
-  <si>
-    <t>BANCO SANTAN</t>
+    <t>SONY GROUP</t>
   </si>
   <si>
     <t>FIRST SOLAR</t>
   </si>
   <si>
-    <t>ARCHER DANIE</t>
-  </si>
-  <si>
-    <t>ASML HOLD</t>
-  </si>
-  <si>
-    <t>UBER TECH IN</t>
+    <t>BREAD FINAN</t>
+  </si>
+  <si>
+    <t>SPOTIFY TECH</t>
+  </si>
+  <si>
+    <t>HP COMPANY</t>
+  </si>
+  <si>
+    <t>HONDA MO</t>
+  </si>
+  <si>
+    <t>BANK AMERICA</t>
+  </si>
+  <si>
+    <t>LILLY</t>
+  </si>
+  <si>
+    <t>MERCK</t>
   </si>
   <si>
     <t>GEOO34</t>
   </si>
   <si>
-    <t>A1ZN34</t>
-  </si>
-  <si>
-    <t>S1LG34</t>
-  </si>
-  <si>
-    <t>A1MT34</t>
-  </si>
-  <si>
-    <t>AVGO34</t>
-  </si>
-  <si>
-    <t>B1SA34</t>
+    <t>SNEC34</t>
   </si>
   <si>
     <t>FSLR34</t>
   </si>
   <si>
-    <t>A1DM34</t>
-  </si>
-  <si>
-    <t>ASML34</t>
-  </si>
-  <si>
-    <t>U1BE34</t>
-  </si>
-  <si>
-    <t>AZN</t>
-  </si>
-  <si>
-    <t>SLG</t>
-  </si>
-  <si>
-    <t>AMAT</t>
-  </si>
-  <si>
-    <t>AVGO</t>
-  </si>
-  <si>
-    <t>BSAC</t>
+    <t>A1LL34</t>
+  </si>
+  <si>
+    <t>S1PO34</t>
+  </si>
+  <si>
+    <t>HPQB34</t>
+  </si>
+  <si>
+    <t>HOND34</t>
+  </si>
+  <si>
+    <t>BOAC34</t>
+  </si>
+  <si>
+    <t>LILY34</t>
+  </si>
+  <si>
+    <t>MRCK34</t>
+  </si>
+  <si>
+    <t>SONY</t>
   </si>
   <si>
     <t>FSLR</t>
   </si>
   <si>
-    <t>ADM</t>
-  </si>
-  <si>
-    <t>ASML</t>
-  </si>
-  <si>
-    <t>UBER</t>
+    <t>BFH</t>
+  </si>
+  <si>
+    <t>SPOT</t>
+  </si>
+  <si>
+    <t>HPQ</t>
+  </si>
+  <si>
+    <t>HMC</t>
+  </si>
+  <si>
+    <t>BAC</t>
+  </si>
+  <si>
+    <t>LLY</t>
+  </si>
+  <si>
+    <t>MRK</t>
   </si>
 </sst>
 </file>
@@ -501,7 +501,7 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>3.662484927444893</v>
+        <v>4.780296904296847</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -515,7 +515,7 @@
         <v>24</v>
       </c>
       <c r="D3">
-        <v>1.264061783808629</v>
+        <v>3.308713334350614</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -529,7 +529,7 @@
         <v>25</v>
       </c>
       <c r="D4">
-        <v>0.9679816813659272</v>
+        <v>2.598879283752467</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -543,7 +543,7 @@
         <v>26</v>
       </c>
       <c r="D5">
-        <v>0.8449355422897611</v>
+        <v>1.291649388465885</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -557,7 +557,7 @@
         <v>27</v>
       </c>
       <c r="D6">
-        <v>0.4941608942339855</v>
+        <v>1.267715482215863</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -571,7 +571,7 @@
         <v>28</v>
       </c>
       <c r="D7">
-        <v>0.4428656623458664</v>
+        <v>1.092874765396118</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -585,7 +585,7 @@
         <v>29</v>
       </c>
       <c r="D8">
-        <v>0.4194661969377194</v>
+        <v>0.9027783629608166</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -599,7 +599,7 @@
         <v>30</v>
       </c>
       <c r="D9">
-        <v>0.3793561980819504</v>
+        <v>0.8839114435577358</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -613,7 +613,7 @@
         <v>31</v>
       </c>
       <c r="D10">
-        <v>0.3749882270214613</v>
+        <v>0.7402062806681187</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -627,7 +627,7 @@
         <v>32</v>
       </c>
       <c r="D11">
-        <v>0.3528139423751782</v>
+        <v>0.7295389898681606</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmaiores.xlsx
+++ b/bdrmaiores.xlsx
@@ -28,91 +28,91 @@
     <t>Spread</t>
   </si>
   <si>
+    <t>STARBUCKS</t>
+  </si>
+  <si>
+    <t>SPOTIFY TECH</t>
+  </si>
+  <si>
     <t>GE</t>
   </si>
   <si>
-    <t>SONY GROUP</t>
-  </si>
-  <si>
-    <t>FIRST SOLAR</t>
-  </si>
-  <si>
-    <t>BREAD FINAN</t>
-  </si>
-  <si>
-    <t>SPOTIFY TECH</t>
-  </si>
-  <si>
-    <t>HP COMPANY</t>
-  </si>
-  <si>
-    <t>HONDA MO</t>
-  </si>
-  <si>
-    <t>BANK AMERICA</t>
-  </si>
-  <si>
-    <t>LILLY</t>
-  </si>
-  <si>
-    <t>MERCK</t>
+    <t>ARCHER DANIE</t>
+  </si>
+  <si>
+    <t>TRANSOCEAN</t>
+  </si>
+  <si>
+    <t>UBER TECH IN</t>
+  </si>
+  <si>
+    <t>ASML HOLD</t>
+  </si>
+  <si>
+    <t>SL GREEN REA</t>
+  </si>
+  <si>
+    <t>MORGAN STAN</t>
+  </si>
+  <si>
+    <t>MICRON TECHN</t>
+  </si>
+  <si>
+    <t>SBUB34</t>
+  </si>
+  <si>
+    <t>S1PO34</t>
   </si>
   <si>
     <t>GEOO34</t>
   </si>
   <si>
-    <t>SNEC34</t>
-  </si>
-  <si>
-    <t>FSLR34</t>
-  </si>
-  <si>
-    <t>A1LL34</t>
-  </si>
-  <si>
-    <t>S1PO34</t>
-  </si>
-  <si>
-    <t>HPQB34</t>
-  </si>
-  <si>
-    <t>HOND34</t>
-  </si>
-  <si>
-    <t>BOAC34</t>
-  </si>
-  <si>
-    <t>LILY34</t>
-  </si>
-  <si>
-    <t>MRCK34</t>
-  </si>
-  <si>
-    <t>SONY</t>
-  </si>
-  <si>
-    <t>FSLR</t>
-  </si>
-  <si>
-    <t>BFH</t>
+    <t>A1DM34</t>
+  </si>
+  <si>
+    <t>RIGG34</t>
+  </si>
+  <si>
+    <t>U1BE34</t>
+  </si>
+  <si>
+    <t>ASML34</t>
+  </si>
+  <si>
+    <t>S1LG34</t>
+  </si>
+  <si>
+    <t>MSBR34</t>
+  </si>
+  <si>
+    <t>MUTC34</t>
+  </si>
+  <si>
+    <t>SBUX</t>
   </si>
   <si>
     <t>SPOT</t>
   </si>
   <si>
-    <t>HPQ</t>
-  </si>
-  <si>
-    <t>HMC</t>
-  </si>
-  <si>
-    <t>BAC</t>
-  </si>
-  <si>
-    <t>LLY</t>
-  </si>
-  <si>
-    <t>MRK</t>
+    <t>ADM</t>
+  </si>
+  <si>
+    <t>RIG</t>
+  </si>
+  <si>
+    <t>UBER</t>
+  </si>
+  <si>
+    <t>ASML</t>
+  </si>
+  <si>
+    <t>SLG</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>MU</t>
   </si>
 </sst>
 </file>
@@ -498,10 +498,10 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D2">
-        <v>4.780296904296847</v>
+        <v>5.588418662766344</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -512,10 +512,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>3.308713334350614</v>
+        <v>1.999673813654226</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -526,10 +526,10 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>2.598879283752467</v>
+        <v>1.962880969047546</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -543,7 +543,7 @@
         <v>26</v>
       </c>
       <c r="D5">
-        <v>1.291649388465885</v>
+        <v>1.712390795295505</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -557,7 +557,7 @@
         <v>27</v>
       </c>
       <c r="D6">
-        <v>1.267715482215863</v>
+        <v>0.6771723851470597</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -571,7 +571,7 @@
         <v>28</v>
       </c>
       <c r="D7">
-        <v>1.092874765396118</v>
+        <v>0.6699150838185233</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -585,7 +585,7 @@
         <v>29</v>
       </c>
       <c r="D8">
-        <v>0.9027783629608166</v>
+        <v>0.661435761490111</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -599,7 +599,7 @@
         <v>30</v>
       </c>
       <c r="D9">
-        <v>0.8839114435577358</v>
+        <v>0.6468625813904509</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -613,7 +613,7 @@
         <v>31</v>
       </c>
       <c r="D10">
-        <v>0.7402062806681187</v>
+        <v>0.5966450422820344</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -627,7 +627,7 @@
         <v>32</v>
       </c>
       <c r="D11">
-        <v>0.7295389898681606</v>
+        <v>0.583443650264897</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmaiores.xlsx
+++ b/bdrmaiores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Nome</t>
   </si>
@@ -28,91 +28,94 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>STARBUCKS</t>
-  </si>
-  <si>
     <t>SPOTIFY TECH</t>
   </si>
   <si>
-    <t>GE</t>
-  </si>
-  <si>
-    <t>ARCHER DANIE</t>
-  </si>
-  <si>
-    <t>TRANSOCEAN</t>
+    <t>SIMON PROP</t>
+  </si>
+  <si>
+    <t>NEWMONT GOLD</t>
+  </si>
+  <si>
+    <t>NEXTERA ENER</t>
+  </si>
+  <si>
+    <t>SL GREEN REA</t>
+  </si>
+  <si>
+    <t>ADVANCED MIC</t>
+  </si>
+  <si>
+    <t>HONDA MO</t>
+  </si>
+  <si>
+    <t>MOSAIC CO</t>
   </si>
   <si>
     <t>UBER TECH IN</t>
   </si>
   <si>
-    <t>ASML HOLD</t>
-  </si>
-  <si>
-    <t>SL GREEN REA</t>
-  </si>
-  <si>
-    <t>MORGAN STAN</t>
-  </si>
-  <si>
-    <t>MICRON TECHN</t>
-  </si>
-  <si>
-    <t>SBUB34</t>
+    <t>COINBASEGLOB</t>
   </si>
   <si>
     <t>S1PO34</t>
   </si>
   <si>
-    <t>GEOO34</t>
-  </si>
-  <si>
-    <t>A1DM34</t>
-  </si>
-  <si>
-    <t>RIGG34</t>
+    <t>SIMN34</t>
+  </si>
+  <si>
+    <t>N1EM34</t>
+  </si>
+  <si>
+    <t>NEXT34</t>
+  </si>
+  <si>
+    <t>S1LG34</t>
+  </si>
+  <si>
+    <t>A1MD34</t>
+  </si>
+  <si>
+    <t>HOND34</t>
+  </si>
+  <si>
+    <t>MOSC34</t>
   </si>
   <si>
     <t>U1BE34</t>
   </si>
   <si>
-    <t>ASML34</t>
-  </si>
-  <si>
-    <t>S1LG34</t>
-  </si>
-  <si>
-    <t>MSBR34</t>
-  </si>
-  <si>
-    <t>MUTC34</t>
-  </si>
-  <si>
-    <t>SBUX</t>
+    <t>C2OI34</t>
   </si>
   <si>
     <t>SPOT</t>
   </si>
   <si>
-    <t>ADM</t>
-  </si>
-  <si>
-    <t>RIG</t>
+    <t>SPG</t>
+  </si>
+  <si>
+    <t>NEM</t>
+  </si>
+  <si>
+    <t>NEE</t>
+  </si>
+  <si>
+    <t>SLG</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>HMC</t>
+  </si>
+  <si>
+    <t>MOS</t>
   </si>
   <si>
     <t>UBER</t>
   </si>
   <si>
-    <t>ASML</t>
-  </si>
-  <si>
-    <t>SLG</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>MU</t>
+    <t>COIN</t>
   </si>
 </sst>
 </file>
@@ -501,7 +504,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>5.588418662766344</v>
+        <v>2.019384881959922</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -515,7 +518,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>1.999673813654226</v>
+        <v>1.329111310098597</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -526,10 +529,10 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>1.962880969047546</v>
+        <v>1.244155707214304</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -540,10 +543,10 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>1.712390795295505</v>
+        <v>1.150912311355569</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -554,10 +557,10 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>0.6771723851470597</v>
+        <v>1.143803013702382</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -568,10 +571,10 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>0.6699150838185233</v>
+        <v>1.002634775850311</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -582,10 +585,10 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>0.661435761490111</v>
+        <v>0.8541303476104076</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -596,10 +599,10 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>0.6468625813904509</v>
+        <v>0.8154420758201901</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -610,10 +613,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>0.5966450422820344</v>
+        <v>0.7800169840984381</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -624,10 +627,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>0.583443650264897</v>
+        <v>0.5974035849401886</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmaiores.xlsx
+++ b/bdrmaiores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Nome</t>
   </si>
@@ -28,94 +28,91 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>SPOTIFY TECH</t>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>BNY MELLON</t>
+  </si>
+  <si>
+    <t>STARBUCKS</t>
+  </si>
+  <si>
+    <t>FIRST SOLAR</t>
+  </si>
+  <si>
+    <t>UNILEVER</t>
+  </si>
+  <si>
+    <t>RIO TINTO</t>
+  </si>
+  <si>
+    <t>SL GREEN REA</t>
   </si>
   <si>
     <t>SIMON PROP</t>
   </si>
   <si>
-    <t>NEWMONT GOLD</t>
-  </si>
-  <si>
-    <t>NEXTERA ENER</t>
-  </si>
-  <si>
-    <t>SL GREEN REA</t>
-  </si>
-  <si>
-    <t>ADVANCED MIC</t>
-  </si>
-  <si>
-    <t>HONDA MO</t>
-  </si>
-  <si>
-    <t>MOSAIC CO</t>
-  </si>
-  <si>
-    <t>UBER TECH IN</t>
-  </si>
-  <si>
-    <t>COINBASEGLOB</t>
-  </si>
-  <si>
-    <t>S1PO34</t>
+    <t>SONY GROUP</t>
+  </si>
+  <si>
+    <t>ARCHER DANIE</t>
+  </si>
+  <si>
+    <t>GEOO34</t>
+  </si>
+  <si>
+    <t>BONY34</t>
+  </si>
+  <si>
+    <t>SBUB34</t>
+  </si>
+  <si>
+    <t>FSLR34</t>
+  </si>
+  <si>
+    <t>ULEV34</t>
+  </si>
+  <si>
+    <t>RIOT34</t>
+  </si>
+  <si>
+    <t>S1LG34</t>
   </si>
   <si>
     <t>SIMN34</t>
   </si>
   <si>
-    <t>N1EM34</t>
-  </si>
-  <si>
-    <t>NEXT34</t>
-  </si>
-  <si>
-    <t>S1LG34</t>
-  </si>
-  <si>
-    <t>A1MD34</t>
-  </si>
-  <si>
-    <t>HOND34</t>
-  </si>
-  <si>
-    <t>MOSC34</t>
-  </si>
-  <si>
-    <t>U1BE34</t>
-  </si>
-  <si>
-    <t>C2OI34</t>
-  </si>
-  <si>
-    <t>SPOT</t>
+    <t>SNEC34</t>
+  </si>
+  <si>
+    <t>A1DM34</t>
+  </si>
+  <si>
+    <t>BK</t>
+  </si>
+  <si>
+    <t>SBUX</t>
+  </si>
+  <si>
+    <t>FSLR</t>
+  </si>
+  <si>
+    <t>UL</t>
+  </si>
+  <si>
+    <t>RIO</t>
+  </si>
+  <si>
+    <t>SLG</t>
   </si>
   <si>
     <t>SPG</t>
   </si>
   <si>
-    <t>NEM</t>
-  </si>
-  <si>
-    <t>NEE</t>
-  </si>
-  <si>
-    <t>SLG</t>
-  </si>
-  <si>
-    <t>AMD</t>
-  </si>
-  <si>
-    <t>HMC</t>
-  </si>
-  <si>
-    <t>MOS</t>
-  </si>
-  <si>
-    <t>UBER</t>
-  </si>
-  <si>
-    <t>COIN</t>
+    <t>SONY</t>
+  </si>
+  <si>
+    <t>ADM</t>
   </si>
 </sst>
 </file>
@@ -501,10 +498,10 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>2.019384881959922</v>
+        <v>3.775245887503843</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -515,10 +512,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>1.329111310098597</v>
+        <v>1.970164171432771</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -529,10 +526,10 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>1.244155707214304</v>
+        <v>1.886703808875609</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -543,10 +540,10 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>1.150912311355569</v>
+        <v>1.642083684830141</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -557,10 +554,10 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>1.143803013702382</v>
+        <v>1.56500606021109</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -571,10 +568,10 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>1.002634775850311</v>
+        <v>1.452989263145355</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -585,10 +582,10 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>0.8541303476104076</v>
+        <v>1.435802740661529</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -599,10 +596,10 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>0.8154420758201901</v>
+        <v>1.402306098394547</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -613,10 +610,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>0.7800169840984381</v>
+        <v>1.376477008903748</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -627,10 +624,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>0.5974035849401886</v>
+        <v>1.046454773078949</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmaiores.xlsx
+++ b/bdrmaiores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Nome</t>
   </si>
@@ -28,91 +28,94 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>GE</t>
+    <t>RIO TINTO</t>
   </si>
   <si>
     <t>BNY MELLON</t>
   </si>
   <si>
-    <t>STARBUCKS</t>
-  </si>
-  <si>
-    <t>FIRST SOLAR</t>
+    <t>SPOTIFY TECH</t>
+  </si>
+  <si>
+    <t>BREAD FINAN</t>
+  </si>
+  <si>
+    <t>ARCHER DANIE</t>
+  </si>
+  <si>
+    <t>SIMON PROP</t>
+  </si>
+  <si>
+    <t>HP COMPANY</t>
   </si>
   <si>
     <t>UNILEVER</t>
   </si>
   <si>
-    <t>RIO TINTO</t>
-  </si>
-  <si>
-    <t>SL GREEN REA</t>
-  </si>
-  <si>
-    <t>SIMON PROP</t>
-  </si>
-  <si>
-    <t>SONY GROUP</t>
-  </si>
-  <si>
-    <t>ARCHER DANIE</t>
-  </si>
-  <si>
-    <t>GEOO34</t>
+    <t>APARTMENT IN</t>
+  </si>
+  <si>
+    <t>TRANSOCEAN</t>
+  </si>
+  <si>
+    <t>RIOT34</t>
   </si>
   <si>
     <t>BONY34</t>
   </si>
   <si>
-    <t>SBUB34</t>
-  </si>
-  <si>
-    <t>FSLR34</t>
+    <t>S1PO34</t>
+  </si>
+  <si>
+    <t>A1LL34</t>
+  </si>
+  <si>
+    <t>A1DM34</t>
+  </si>
+  <si>
+    <t>SIMN34</t>
+  </si>
+  <si>
+    <t>HPQB34</t>
   </si>
   <si>
     <t>ULEV34</t>
   </si>
   <si>
-    <t>RIOT34</t>
-  </si>
-  <si>
-    <t>S1LG34</t>
-  </si>
-  <si>
-    <t>SIMN34</t>
-  </si>
-  <si>
-    <t>SNEC34</t>
-  </si>
-  <si>
-    <t>A1DM34</t>
+    <t>A1IV34</t>
+  </si>
+  <si>
+    <t>RIGG34</t>
+  </si>
+  <si>
+    <t>RIO</t>
   </si>
   <si>
     <t>BK</t>
   </si>
   <si>
-    <t>SBUX</t>
-  </si>
-  <si>
-    <t>FSLR</t>
+    <t>SPOT</t>
+  </si>
+  <si>
+    <t>BFH</t>
+  </si>
+  <si>
+    <t>ADM</t>
+  </si>
+  <si>
+    <t>SPG</t>
+  </si>
+  <si>
+    <t>HPQ</t>
   </si>
   <si>
     <t>UL</t>
   </si>
   <si>
-    <t>RIO</t>
-  </si>
-  <si>
-    <t>SLG</t>
-  </si>
-  <si>
-    <t>SPG</t>
-  </si>
-  <si>
-    <t>SONY</t>
-  </si>
-  <si>
-    <t>ADM</t>
+    <t>AIV</t>
+  </si>
+  <si>
+    <t>RIG</t>
   </si>
 </sst>
 </file>
@@ -498,10 +501,10 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D2">
-        <v>3.775245887503843</v>
+        <v>6.300833563323977</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -512,10 +515,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>1.970164171432771</v>
+        <v>2.666934294113162</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -526,10 +529,10 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>1.886703808875609</v>
+        <v>1.412573953155515</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -540,10 +543,10 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>1.642083684830141</v>
+        <v>1.284780303146363</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -554,10 +557,10 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>1.56500606021109</v>
+        <v>1.035820951889036</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -568,10 +571,10 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>1.452989263145355</v>
+        <v>0.9654241318130516</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -582,10 +585,10 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>1.435802740661529</v>
+        <v>0.7714365101928706</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -596,10 +599,10 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>1.402306098394547</v>
+        <v>0.7606753156433115</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -610,10 +613,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>1.376477008903748</v>
+        <v>0.7226782196025852</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -624,10 +627,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>1.046454773078949</v>
+        <v>0.6866350543632507</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmaiores.xlsx
+++ b/bdrmaiores.xlsx
@@ -28,94 +28,94 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>RIO TINTO</t>
+    <t>CARNIVAL COR</t>
+  </si>
+  <si>
+    <t>MORGAN STAN</t>
+  </si>
+  <si>
+    <t>FREEPORT</t>
+  </si>
+  <si>
+    <t>TRANSOCEAN</t>
+  </si>
+  <si>
+    <t>BREAD FINAN</t>
+  </si>
+  <si>
+    <t>FORD MOTORS</t>
   </si>
   <si>
     <t>BNY MELLON</t>
   </si>
   <si>
-    <t>SPOTIFY TECH</t>
-  </si>
-  <si>
-    <t>BREAD FINAN</t>
-  </si>
-  <si>
-    <t>ARCHER DANIE</t>
-  </si>
-  <si>
-    <t>SIMON PROP</t>
-  </si>
-  <si>
-    <t>HP COMPANY</t>
-  </si>
-  <si>
-    <t>UNILEVER</t>
-  </si>
-  <si>
-    <t>APARTMENT IN</t>
-  </si>
-  <si>
-    <t>TRANSOCEAN</t>
-  </si>
-  <si>
-    <t>RIOT34</t>
+    <t>ARCELOR</t>
+  </si>
+  <si>
+    <t>BANCO SANTAN</t>
+  </si>
+  <si>
+    <t>BIONTECH SE</t>
+  </si>
+  <si>
+    <t>C1CL34</t>
+  </si>
+  <si>
+    <t>MSBR34</t>
+  </si>
+  <si>
+    <t>FCXO34</t>
+  </si>
+  <si>
+    <t>RIGG34</t>
+  </si>
+  <si>
+    <t>A1LL34</t>
+  </si>
+  <si>
+    <t>FDMO34</t>
   </si>
   <si>
     <t>BONY34</t>
   </si>
   <si>
-    <t>S1PO34</t>
-  </si>
-  <si>
-    <t>A1LL34</t>
-  </si>
-  <si>
-    <t>A1DM34</t>
-  </si>
-  <si>
-    <t>SIMN34</t>
-  </si>
-  <si>
-    <t>HPQB34</t>
-  </si>
-  <si>
-    <t>ULEV34</t>
-  </si>
-  <si>
-    <t>A1IV34</t>
-  </si>
-  <si>
-    <t>RIGG34</t>
-  </si>
-  <si>
-    <t>RIO</t>
+    <t>ARMT34</t>
+  </si>
+  <si>
+    <t>B1SA34</t>
+  </si>
+  <si>
+    <t>B1NT34</t>
+  </si>
+  <si>
+    <t>CCL</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>FCX</t>
+  </si>
+  <si>
+    <t>RIG</t>
+  </si>
+  <si>
+    <t>BFH</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
   <si>
     <t>BK</t>
   </si>
   <si>
-    <t>SPOT</t>
-  </si>
-  <si>
-    <t>BFH</t>
-  </si>
-  <si>
-    <t>ADM</t>
-  </si>
-  <si>
-    <t>SPG</t>
-  </si>
-  <si>
-    <t>HPQ</t>
-  </si>
-  <si>
-    <t>UL</t>
-  </si>
-  <si>
-    <t>AIV</t>
-  </si>
-  <si>
-    <t>RIG</t>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>BSAC</t>
+  </si>
+  <si>
+    <t>BNTX</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>6.300833563323977</v>
+        <v>1.369849521141077</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -518,7 +518,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>2.666934294113162</v>
+        <v>1.314096245590193</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -532,7 +532,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>1.412573953155515</v>
+        <v>1.073166402285025</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -546,7 +546,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>1.284780303146363</v>
+        <v>1.047569851522439</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -560,7 +560,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>1.035820951889036</v>
+        <v>0.9851484697837805</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -574,7 +574,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>0.9654241318130516</v>
+        <v>0.8127288041305292</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -588,7 +588,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>0.7714365101928706</v>
+        <v>0.6702552565766382</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -602,7 +602,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>0.7606753156433115</v>
+        <v>0.634488104713455</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -616,7 +616,7 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>0.7226782196025852</v>
+        <v>0.3205648282737457</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -630,7 +630,7 @@
         <v>33</v>
       </c>
       <c r="D11">
-        <v>0.6866350543632507</v>
+        <v>0.2345637083053589</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmaiores.xlsx
+++ b/bdrmaiores.xlsx
@@ -28,94 +28,94 @@
     <t>Spread</t>
   </si>
   <si>
+    <t>SL GREEN REA</t>
+  </si>
+  <si>
+    <t>TRANSOCEAN</t>
+  </si>
+  <si>
+    <t>COINBASEGLOB</t>
+  </si>
+  <si>
+    <t>APARTMENT IN</t>
+  </si>
+  <si>
+    <t>HONDA MO</t>
+  </si>
+  <si>
     <t>CARNIVAL COR</t>
   </si>
   <si>
-    <t>MORGAN STAN</t>
-  </si>
-  <si>
-    <t>FREEPORT</t>
-  </si>
-  <si>
-    <t>TRANSOCEAN</t>
+    <t>EXELON CORP</t>
+  </si>
+  <si>
+    <t>HOME DEPOT</t>
   </si>
   <si>
     <t>BREAD FINAN</t>
   </si>
   <si>
-    <t>FORD MOTORS</t>
-  </si>
-  <si>
-    <t>BNY MELLON</t>
-  </si>
-  <si>
-    <t>ARCELOR</t>
-  </si>
-  <si>
-    <t>BANCO SANTAN</t>
-  </si>
-  <si>
-    <t>BIONTECH SE</t>
+    <t>NVIDIA CORP</t>
+  </si>
+  <si>
+    <t>S1LG34</t>
+  </si>
+  <si>
+    <t>RIGG34</t>
+  </si>
+  <si>
+    <t>C2OI34</t>
+  </si>
+  <si>
+    <t>A1IV34</t>
+  </si>
+  <si>
+    <t>HOND34</t>
   </si>
   <si>
     <t>C1CL34</t>
   </si>
   <si>
-    <t>MSBR34</t>
-  </si>
-  <si>
-    <t>FCXO34</t>
-  </si>
-  <si>
-    <t>RIGG34</t>
+    <t>E1XC34</t>
+  </si>
+  <si>
+    <t>HOME34</t>
   </si>
   <si>
     <t>A1LL34</t>
   </si>
   <si>
-    <t>FDMO34</t>
-  </si>
-  <si>
-    <t>BONY34</t>
-  </si>
-  <si>
-    <t>ARMT34</t>
-  </si>
-  <si>
-    <t>B1SA34</t>
-  </si>
-  <si>
-    <t>B1NT34</t>
+    <t>NVDC34</t>
+  </si>
+  <si>
+    <t>SLG</t>
+  </si>
+  <si>
+    <t>RIG</t>
+  </si>
+  <si>
+    <t>COIN</t>
+  </si>
+  <si>
+    <t>AIV</t>
+  </si>
+  <si>
+    <t>HMC</t>
   </si>
   <si>
     <t>CCL</t>
   </si>
   <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>FCX</t>
-  </si>
-  <si>
-    <t>RIG</t>
+    <t>EXC</t>
+  </si>
+  <si>
+    <t>HD</t>
   </si>
   <si>
     <t>BFH</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>BK</t>
-  </si>
-  <si>
-    <t>MT</t>
-  </si>
-  <si>
-    <t>BSAC</t>
-  </si>
-  <si>
-    <t>BNTX</t>
+    <t>NVDA</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>1.369849521141077</v>
+        <v>1.242027980007151</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -518,7 +518,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>1.314096245590193</v>
+        <v>1.140015174468999</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -532,7 +532,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>1.073166402285025</v>
+        <v>0.6233270645141573</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -546,7 +546,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>1.047569851522439</v>
+        <v>0.4838144079055837</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -560,7 +560,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>0.9851484697837805</v>
+        <v>0.4515793209229741</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -574,7 +574,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>0.8127288041305292</v>
+        <v>0.370673978164632</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -588,7 +588,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>0.6702552565766382</v>
+        <v>0.3423967922135489</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -602,7 +602,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>0.634488104713455</v>
+        <v>0.2688401113416461</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -616,7 +616,7 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>0.3205648282737457</v>
+        <v>0.2584687539424522</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -630,7 +630,7 @@
         <v>33</v>
       </c>
       <c r="D11">
-        <v>0.2345637083053589</v>
+        <v>0.211744570249536</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmaiores.xlsx
+++ b/bdrmaiores.xlsx
@@ -28,94 +28,94 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>SL GREEN REA</t>
+    <t>COINBASEGLOB</t>
+  </si>
+  <si>
+    <t>EQUINOR ASA</t>
+  </si>
+  <si>
+    <t>TELEFONIC</t>
+  </si>
+  <si>
+    <t>STAG INDUSTR</t>
+  </si>
+  <si>
+    <t>MODERNA INC</t>
   </si>
   <si>
     <t>TRANSOCEAN</t>
   </si>
   <si>
-    <t>COINBASEGLOB</t>
-  </si>
-  <si>
-    <t>APARTMENT IN</t>
-  </si>
-  <si>
-    <t>HONDA MO</t>
-  </si>
-  <si>
-    <t>CARNIVAL COR</t>
-  </si>
-  <si>
-    <t>EXELON CORP</t>
-  </si>
-  <si>
-    <t>HOME DEPOT</t>
-  </si>
-  <si>
-    <t>BREAD FINAN</t>
-  </si>
-  <si>
-    <t>NVIDIA CORP</t>
-  </si>
-  <si>
-    <t>S1LG34</t>
+    <t>BIONTECH SE</t>
+  </si>
+  <si>
+    <t>TAL EDUCATIO</t>
+  </si>
+  <si>
+    <t>PALANTIRTECH</t>
+  </si>
+  <si>
+    <t>MEDICAL P TR</t>
+  </si>
+  <si>
+    <t>C2OI34</t>
+  </si>
+  <si>
+    <t>E1QN34</t>
+  </si>
+  <si>
+    <t>TLNC34</t>
+  </si>
+  <si>
+    <t>S2TA34</t>
+  </si>
+  <si>
+    <t>M1RN34</t>
   </si>
   <si>
     <t>RIGG34</t>
   </si>
   <si>
-    <t>C2OI34</t>
-  </si>
-  <si>
-    <t>A1IV34</t>
-  </si>
-  <si>
-    <t>HOND34</t>
-  </si>
-  <si>
-    <t>C1CL34</t>
-  </si>
-  <si>
-    <t>E1XC34</t>
-  </si>
-  <si>
-    <t>HOME34</t>
-  </si>
-  <si>
-    <t>A1LL34</t>
-  </si>
-  <si>
-    <t>NVDC34</t>
-  </si>
-  <si>
-    <t>SLG</t>
+    <t>B1NT34</t>
+  </si>
+  <si>
+    <t>T1AL34</t>
+  </si>
+  <si>
+    <t>P2LT34</t>
+  </si>
+  <si>
+    <t>M2PW34</t>
+  </si>
+  <si>
+    <t>COIN</t>
+  </si>
+  <si>
+    <t>EQNR</t>
+  </si>
+  <si>
+    <t>TEF</t>
+  </si>
+  <si>
+    <t>STAG</t>
+  </si>
+  <si>
+    <t>MRNA</t>
   </si>
   <si>
     <t>RIG</t>
   </si>
   <si>
-    <t>COIN</t>
-  </si>
-  <si>
-    <t>AIV</t>
-  </si>
-  <si>
-    <t>HMC</t>
-  </si>
-  <si>
-    <t>CCL</t>
-  </si>
-  <si>
-    <t>EXC</t>
-  </si>
-  <si>
-    <t>HD</t>
-  </si>
-  <si>
-    <t>BFH</t>
-  </si>
-  <si>
-    <t>NVDA</t>
+    <t>BNTX</t>
+  </si>
+  <si>
+    <t>TAL</t>
+  </si>
+  <si>
+    <t>PLTR</t>
+  </si>
+  <si>
+    <t>MPW</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>1.242027980007151</v>
+        <v>0.3571513249099354</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -518,7 +518,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>1.140015174468999</v>
+        <v>0.1600911747550526</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -532,7 +532,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>0.6233270645141573</v>
+        <v>0.07561982715606064</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -546,7 +546,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>0.4838144079055837</v>
+        <v>0.05183446919254919</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -560,7 +560,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>0.4515793209229741</v>
+        <v>0.04152717771339809</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -574,7 +574,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>0.370673978164632</v>
+        <v>0.01865917190548316</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -588,7 +588,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>0.3423967922135489</v>
+        <v>0.01061079518558472</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -602,7 +602,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>0.2688401113416461</v>
+        <v>0.003907928268427341</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -616,7 +616,7 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>0.2584687539424522</v>
+        <v>0.002642773919546926</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -630,7 +630,7 @@
         <v>33</v>
       </c>
       <c r="D11">
-        <v>0.211744570249536</v>
+        <v>-0.005099939250953867</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmaiores.xlsx
+++ b/bdrmaiores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Nome</t>
   </si>
@@ -28,94 +28,91 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>COINBASEGLOB</t>
-  </si>
-  <si>
-    <t>EQUINOR ASA</t>
-  </si>
-  <si>
-    <t>TELEFONIC</t>
-  </si>
-  <si>
-    <t>STAG INDUSTR</t>
-  </si>
-  <si>
-    <t>MODERNA INC</t>
-  </si>
-  <si>
-    <t>TRANSOCEAN</t>
-  </si>
-  <si>
-    <t>BIONTECH SE</t>
-  </si>
-  <si>
-    <t>TAL EDUCATIO</t>
-  </si>
-  <si>
-    <t>PALANTIRTECH</t>
-  </si>
-  <si>
-    <t>MEDICAL P TR</t>
-  </si>
-  <si>
-    <t>C2OI34</t>
-  </si>
-  <si>
-    <t>E1QN34</t>
-  </si>
-  <si>
-    <t>TLNC34</t>
-  </si>
-  <si>
-    <t>S2TA34</t>
-  </si>
-  <si>
-    <t>M1RN34</t>
-  </si>
-  <si>
-    <t>RIGG34</t>
-  </si>
-  <si>
-    <t>B1NT34</t>
-  </si>
-  <si>
-    <t>T1AL34</t>
-  </si>
-  <si>
-    <t>P2LT34</t>
-  </si>
-  <si>
-    <t>M2PW34</t>
-  </si>
-  <si>
-    <t>COIN</t>
-  </si>
-  <si>
-    <t>EQNR</t>
-  </si>
-  <si>
-    <t>TEF</t>
-  </si>
-  <si>
-    <t>STAG</t>
-  </si>
-  <si>
-    <t>MRNA</t>
-  </si>
-  <si>
-    <t>RIG</t>
-  </si>
-  <si>
-    <t>BNTX</t>
-  </si>
-  <si>
-    <t>TAL</t>
-  </si>
-  <si>
-    <t>PLTR</t>
-  </si>
-  <si>
-    <t>MPW</t>
+    <t>FIRST SOLAR</t>
+  </si>
+  <si>
+    <t>TAKE-TWO INT</t>
+  </si>
+  <si>
+    <t>SPOTIFY TECH</t>
+  </si>
+  <si>
+    <t>PEPSICO INC</t>
+  </si>
+  <si>
+    <t>AMERICAN AIR</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>SANTANDER</t>
+  </si>
+  <si>
+    <t>BAIDU INC</t>
+  </si>
+  <si>
+    <t>TOYOTAMO</t>
+  </si>
+  <si>
+    <t>ARCHER DANIE</t>
+  </si>
+  <si>
+    <t>FSLR34</t>
+  </si>
+  <si>
+    <t>T1TW34</t>
+  </si>
+  <si>
+    <t>S1PO34</t>
+  </si>
+  <si>
+    <t>PEPB34</t>
+  </si>
+  <si>
+    <t>AALL34</t>
+  </si>
+  <si>
+    <t>GEOO34</t>
+  </si>
+  <si>
+    <t>BCSA34</t>
+  </si>
+  <si>
+    <t>BIDU34</t>
+  </si>
+  <si>
+    <t>TMCO34</t>
+  </si>
+  <si>
+    <t>A1DM34</t>
+  </si>
+  <si>
+    <t>FSLR</t>
+  </si>
+  <si>
+    <t>TTWO</t>
+  </si>
+  <si>
+    <t>SPOT</t>
+  </si>
+  <si>
+    <t>PEP</t>
+  </si>
+  <si>
+    <t>AAL</t>
+  </si>
+  <si>
+    <t>SAN</t>
+  </si>
+  <si>
+    <t>BIDU</t>
+  </si>
+  <si>
+    <t>TM</t>
+  </si>
+  <si>
+    <t>ADM</t>
   </si>
 </sst>
 </file>
@@ -504,7 +501,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>0.3571513249099354</v>
+        <v>2.858829589073139</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -518,7 +515,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>0.1600911747550526</v>
+        <v>1.579518899223331</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -532,7 +529,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>0.07561982715606064</v>
+        <v>0.8517116031798651</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -546,7 +543,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>0.05183446919254919</v>
+        <v>0.7361340633098976</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -560,7 +557,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>0.04152717771339809</v>
+        <v>0.5616366938247666</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -571,10 +568,10 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D7">
-        <v>0.01865917190548316</v>
+        <v>0.4078677331999643</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -585,10 +582,10 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>0.01061079518558472</v>
+        <v>0.3929083572311356</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -599,10 +596,10 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>0.003907928268427341</v>
+        <v>0.384220210436041</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -613,10 +610,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>0.002642773919546926</v>
+        <v>0.2969129757566407</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -627,10 +624,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>-0.005099939250953867</v>
+        <v>0.2609782953186368</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmaiores.xlsx
+++ b/bdrmaiores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Nome</t>
   </si>
@@ -28,91 +28,94 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>FIRST SOLAR</t>
+    <t>WELLS FARGO</t>
+  </si>
+  <si>
+    <t>BREAD FINAN</t>
+  </si>
+  <si>
+    <t>ARCHER DANIE</t>
   </si>
   <si>
     <t>TAKE-TWO INT</t>
   </si>
   <si>
-    <t>SPOTIFY TECH</t>
-  </si>
-  <si>
-    <t>PEPSICO INC</t>
-  </si>
-  <si>
-    <t>AMERICAN AIR</t>
-  </si>
-  <si>
-    <t>GE</t>
-  </si>
-  <si>
-    <t>SANTANDER</t>
-  </si>
-  <si>
-    <t>BAIDU INC</t>
-  </si>
-  <si>
-    <t>TOYOTAMO</t>
-  </si>
-  <si>
-    <t>ARCHER DANIE</t>
-  </si>
-  <si>
-    <t>FSLR34</t>
+    <t>TRANSOCEAN</t>
+  </si>
+  <si>
+    <t>CARNIVAL COR</t>
+  </si>
+  <si>
+    <t>BOOKING</t>
+  </si>
+  <si>
+    <t>REALTY INCOM</t>
+  </si>
+  <si>
+    <t>ADVANCED MIC</t>
+  </si>
+  <si>
+    <t>MODERNA INC</t>
+  </si>
+  <si>
+    <t>WFCO34</t>
+  </si>
+  <si>
+    <t>A1LL34</t>
+  </si>
+  <si>
+    <t>A1DM34</t>
   </si>
   <si>
     <t>T1TW34</t>
   </si>
   <si>
-    <t>S1PO34</t>
-  </si>
-  <si>
-    <t>PEPB34</t>
-  </si>
-  <si>
-    <t>AALL34</t>
-  </si>
-  <si>
-    <t>GEOO34</t>
-  </si>
-  <si>
-    <t>BCSA34</t>
-  </si>
-  <si>
-    <t>BIDU34</t>
-  </si>
-  <si>
-    <t>TMCO34</t>
-  </si>
-  <si>
-    <t>A1DM34</t>
-  </si>
-  <si>
-    <t>FSLR</t>
+    <t>RIGG34</t>
+  </si>
+  <si>
+    <t>C1CL34</t>
+  </si>
+  <si>
+    <t>BKNG34</t>
+  </si>
+  <si>
+    <t>R1IN34</t>
+  </si>
+  <si>
+    <t>A1MD34</t>
+  </si>
+  <si>
+    <t>M1RN34</t>
+  </si>
+  <si>
+    <t>WFC</t>
+  </si>
+  <si>
+    <t>BFH</t>
+  </si>
+  <si>
+    <t>ADM</t>
   </si>
   <si>
     <t>TTWO</t>
   </si>
   <si>
-    <t>SPOT</t>
-  </si>
-  <si>
-    <t>PEP</t>
-  </si>
-  <si>
-    <t>AAL</t>
-  </si>
-  <si>
-    <t>SAN</t>
-  </si>
-  <si>
-    <t>BIDU</t>
-  </si>
-  <si>
-    <t>TM</t>
-  </si>
-  <si>
-    <t>ADM</t>
+    <t>RIG</t>
+  </si>
+  <si>
+    <t>CCL</t>
+  </si>
+  <si>
+    <t>BKNG</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>MRNA</t>
   </si>
 </sst>
 </file>
@@ -501,7 +504,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>2.858829589073139</v>
+        <v>0.9635291753311321</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -515,7 +518,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>1.579518899223331</v>
+        <v>0.8352151743965806</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -529,7 +532,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>0.8517116031798651</v>
+        <v>0.7710783250731765</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -543,7 +546,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>0.7361340633098976</v>
+        <v>0.6238208066824882</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -557,7 +560,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>0.5616366938247666</v>
+        <v>0.5492282125205747</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -568,10 +571,10 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>0.4078677331999643</v>
+        <v>0.5117622537309217</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -582,10 +585,10 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>0.3929083572311356</v>
+        <v>0.4037106379763884</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -596,10 +599,10 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>0.384220210436041</v>
+        <v>0.2839663643644599</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -610,10 +613,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>0.2969129757566407</v>
+        <v>0.2663208678568481</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -624,10 +627,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>0.2609782953186368</v>
+        <v>0.2552960176704815</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmaiores.xlsx
+++ b/bdrmaiores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Nome</t>
   </si>
@@ -28,94 +28,91 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>WELLS FARGO</t>
-  </si>
-  <si>
-    <t>BREAD FINAN</t>
-  </si>
-  <si>
-    <t>ARCHER DANIE</t>
-  </si>
-  <si>
-    <t>TAKE-TWO INT</t>
-  </si>
-  <si>
-    <t>TRANSOCEAN</t>
+    <t>GE</t>
   </si>
   <si>
     <t>CARNIVAL COR</t>
   </si>
   <si>
-    <t>BOOKING</t>
-  </si>
-  <si>
-    <t>REALTY INCOM</t>
-  </si>
-  <si>
-    <t>ADVANCED MIC</t>
-  </si>
-  <si>
-    <t>MODERNA INC</t>
-  </si>
-  <si>
-    <t>WFCO34</t>
-  </si>
-  <si>
-    <t>A1LL34</t>
-  </si>
-  <si>
-    <t>A1DM34</t>
-  </si>
-  <si>
-    <t>T1TW34</t>
-  </si>
-  <si>
-    <t>RIGG34</t>
+    <t>SL GREEN REA</t>
+  </si>
+  <si>
+    <t>SPOTIFY TECH</t>
+  </si>
+  <si>
+    <t>FREEPORT</t>
+  </si>
+  <si>
+    <t>FIRST SOLAR</t>
+  </si>
+  <si>
+    <t>HP COMPANY</t>
+  </si>
+  <si>
+    <t>STARBUCKS</t>
+  </si>
+  <si>
+    <t>GENERAL MOT</t>
+  </si>
+  <si>
+    <t>UNILEVER</t>
+  </si>
+  <si>
+    <t>GEOO34</t>
   </si>
   <si>
     <t>C1CL34</t>
   </si>
   <si>
-    <t>BKNG34</t>
-  </si>
-  <si>
-    <t>R1IN34</t>
-  </si>
-  <si>
-    <t>A1MD34</t>
-  </si>
-  <si>
-    <t>M1RN34</t>
-  </si>
-  <si>
-    <t>WFC</t>
-  </si>
-  <si>
-    <t>BFH</t>
-  </si>
-  <si>
-    <t>ADM</t>
-  </si>
-  <si>
-    <t>TTWO</t>
-  </si>
-  <si>
-    <t>RIG</t>
+    <t>S1LG34</t>
+  </si>
+  <si>
+    <t>S1PO34</t>
+  </si>
+  <si>
+    <t>FCXO34</t>
+  </si>
+  <si>
+    <t>FSLR34</t>
+  </si>
+  <si>
+    <t>HPQB34</t>
+  </si>
+  <si>
+    <t>SBUB34</t>
+  </si>
+  <si>
+    <t>GMCO34</t>
+  </si>
+  <si>
+    <t>ULEV34</t>
   </si>
   <si>
     <t>CCL</t>
   </si>
   <si>
-    <t>BKNG</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>AMD</t>
-  </si>
-  <si>
-    <t>MRNA</t>
+    <t>SLG</t>
+  </si>
+  <si>
+    <t>SPOT</t>
+  </si>
+  <si>
+    <t>FCX</t>
+  </si>
+  <si>
+    <t>FSLR</t>
+  </si>
+  <si>
+    <t>HPQ</t>
+  </si>
+  <si>
+    <t>SBUX</t>
+  </si>
+  <si>
+    <t>GM</t>
+  </si>
+  <si>
+    <t>UL</t>
   </si>
 </sst>
 </file>
@@ -501,10 +498,10 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>0.9635291753311321</v>
+        <v>8.757045939331874</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -515,10 +512,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>0.8352151743965806</v>
+        <v>3.017443129119783</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -529,10 +526,10 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>0.7710783250731765</v>
+        <v>1.985118445281842</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -543,10 +540,10 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>0.6238208066824882</v>
+        <v>1.888816474151099</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -557,10 +554,10 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>0.5492282125205747</v>
+        <v>1.619546414819055</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -571,10 +568,10 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>0.5117622537309217</v>
+        <v>1.615578354263562</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -585,10 +582,10 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>0.4037106379763884</v>
+        <v>1.377119120483258</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -599,10 +596,10 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>0.2839663643644599</v>
+        <v>1.253996849060059</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -613,10 +610,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>0.2663208678568481</v>
+        <v>1.029959692039483</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -627,10 +624,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>0.2552960176704815</v>
+        <v>0.9966285470582079</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmaiores.xlsx
+++ b/bdrmaiores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Nome</t>
   </si>
@@ -28,91 +28,94 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>GE</t>
-  </si>
-  <si>
-    <t>CARNIVAL COR</t>
+    <t>FIRST SOLAR</t>
+  </si>
+  <si>
+    <t>BNY MELLON</t>
+  </si>
+  <si>
+    <t>FREEPORT</t>
+  </si>
+  <si>
+    <t>3M</t>
+  </si>
+  <si>
+    <t>SPOTIFY TECH</t>
   </si>
   <si>
     <t>SL GREEN REA</t>
   </si>
   <si>
-    <t>SPOTIFY TECH</t>
-  </si>
-  <si>
-    <t>FREEPORT</t>
-  </si>
-  <si>
-    <t>FIRST SOLAR</t>
-  </si>
-  <si>
-    <t>HP COMPANY</t>
-  </si>
-  <si>
-    <t>STARBUCKS</t>
-  </si>
-  <si>
-    <t>GENERAL MOT</t>
-  </si>
-  <si>
-    <t>UNILEVER</t>
-  </si>
-  <si>
-    <t>GEOO34</t>
-  </si>
-  <si>
-    <t>C1CL34</t>
+    <t>STAG INDUSTR</t>
+  </si>
+  <si>
+    <t>SIMON PROP</t>
+  </si>
+  <si>
+    <t>NASDAQ INC</t>
+  </si>
+  <si>
+    <t>REALTY INCOM</t>
+  </si>
+  <si>
+    <t>FSLR34</t>
+  </si>
+  <si>
+    <t>BONY34</t>
+  </si>
+  <si>
+    <t>FCXO34</t>
+  </si>
+  <si>
+    <t>MMMC34</t>
+  </si>
+  <si>
+    <t>S1PO34</t>
   </si>
   <si>
     <t>S1LG34</t>
   </si>
   <si>
-    <t>S1PO34</t>
-  </si>
-  <si>
-    <t>FCXO34</t>
-  </si>
-  <si>
-    <t>FSLR34</t>
-  </si>
-  <si>
-    <t>HPQB34</t>
-  </si>
-  <si>
-    <t>SBUB34</t>
-  </si>
-  <si>
-    <t>GMCO34</t>
-  </si>
-  <si>
-    <t>ULEV34</t>
-  </si>
-  <si>
-    <t>CCL</t>
+    <t>S2TA34</t>
+  </si>
+  <si>
+    <t>SIMN34</t>
+  </si>
+  <si>
+    <t>N1DA34</t>
+  </si>
+  <si>
+    <t>R1IN34</t>
+  </si>
+  <si>
+    <t>FSLR</t>
+  </si>
+  <si>
+    <t>BK</t>
+  </si>
+  <si>
+    <t>FCX</t>
+  </si>
+  <si>
+    <t>MMM</t>
+  </si>
+  <si>
+    <t>SPOT</t>
   </si>
   <si>
     <t>SLG</t>
   </si>
   <si>
-    <t>SPOT</t>
-  </si>
-  <si>
-    <t>FCX</t>
-  </si>
-  <si>
-    <t>FSLR</t>
-  </si>
-  <si>
-    <t>HPQ</t>
-  </si>
-  <si>
-    <t>SBUX</t>
-  </si>
-  <si>
-    <t>GM</t>
-  </si>
-  <si>
-    <t>UL</t>
+    <t>STAG</t>
+  </si>
+  <si>
+    <t>SPG</t>
+  </si>
+  <si>
+    <t>NDAQ</t>
+  </si>
+  <si>
+    <t>O</t>
   </si>
 </sst>
 </file>
@@ -498,10 +501,10 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D2">
-        <v>8.757045939331874</v>
+        <v>4.915613745117298</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -512,10 +515,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>3.017443129119783</v>
+        <v>3.002370291824263</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -526,10 +529,10 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>1.985118445281842</v>
+        <v>0.9509153552374841</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -540,10 +543,10 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>1.888816474151099</v>
+        <v>0.9109901440906469</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -554,10 +557,10 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>1.619546414819055</v>
+        <v>0.809022153949627</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -568,10 +571,10 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>1.615578354263562</v>
+        <v>0.7774353951836019</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -582,10 +585,10 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>1.377119120483258</v>
+        <v>0.6523124049072067</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -596,10 +599,10 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>1.253996849060059</v>
+        <v>0.6333847592450184</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -610,10 +613,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>1.029959692039483</v>
+        <v>0.5984533555983944</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -624,10 +627,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>0.9966285470582079</v>
+        <v>0.4229450948714657</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmaiores.xlsx
+++ b/bdrmaiores.xlsx
@@ -28,94 +28,94 @@
     <t>Spread</t>
   </si>
   <si>
+    <t>SPOTIFY TECH</t>
+  </si>
+  <si>
+    <t>3M</t>
+  </si>
+  <si>
+    <t>STARBUCKS</t>
+  </si>
+  <si>
+    <t>BNY MELLON</t>
+  </si>
+  <si>
+    <t>GENERAL MOT</t>
+  </si>
+  <si>
     <t>FIRST SOLAR</t>
   </si>
   <si>
-    <t>BNY MELLON</t>
-  </si>
-  <si>
-    <t>FREEPORT</t>
-  </si>
-  <si>
-    <t>3M</t>
-  </si>
-  <si>
-    <t>SPOTIFY TECH</t>
-  </si>
-  <si>
-    <t>SL GREEN REA</t>
-  </si>
-  <si>
-    <t>STAG INDUSTR</t>
-  </si>
-  <si>
     <t>SIMON PROP</t>
   </si>
   <si>
-    <t>NASDAQ INC</t>
-  </si>
-  <si>
-    <t>REALTY INCOM</t>
+    <t>EQUINOR ASA</t>
+  </si>
+  <si>
+    <t>COLGATE</t>
+  </si>
+  <si>
+    <t>TAIWANSMFAC</t>
+  </si>
+  <si>
+    <t>S1PO34</t>
+  </si>
+  <si>
+    <t>MMMC34</t>
+  </si>
+  <si>
+    <t>SBUB34</t>
+  </si>
+  <si>
+    <t>BONY34</t>
+  </si>
+  <si>
+    <t>GMCO34</t>
   </si>
   <si>
     <t>FSLR34</t>
   </si>
   <si>
-    <t>BONY34</t>
-  </si>
-  <si>
-    <t>FCXO34</t>
-  </si>
-  <si>
-    <t>MMMC34</t>
-  </si>
-  <si>
-    <t>S1PO34</t>
-  </si>
-  <si>
-    <t>S1LG34</t>
-  </si>
-  <si>
-    <t>S2TA34</t>
-  </si>
-  <si>
     <t>SIMN34</t>
   </si>
   <si>
-    <t>N1DA34</t>
-  </si>
-  <si>
-    <t>R1IN34</t>
+    <t>E1QN34</t>
+  </si>
+  <si>
+    <t>COLG34</t>
+  </si>
+  <si>
+    <t>TSMC34</t>
+  </si>
+  <si>
+    <t>SPOT</t>
+  </si>
+  <si>
+    <t>MMM</t>
+  </si>
+  <si>
+    <t>SBUX</t>
+  </si>
+  <si>
+    <t>BK</t>
+  </si>
+  <si>
+    <t>GM</t>
   </si>
   <si>
     <t>FSLR</t>
   </si>
   <si>
-    <t>BK</t>
-  </si>
-  <si>
-    <t>FCX</t>
-  </si>
-  <si>
-    <t>MMM</t>
-  </si>
-  <si>
-    <t>SPOT</t>
-  </si>
-  <si>
-    <t>SLG</t>
-  </si>
-  <si>
-    <t>STAG</t>
-  </si>
-  <si>
     <t>SPG</t>
   </si>
   <si>
-    <t>NDAQ</t>
-  </si>
-  <si>
-    <t>O</t>
+    <t>EQNR</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>TSM</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>4.915613745117298</v>
+        <v>1.334248051804025</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -518,7 +518,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>3.002370291824263</v>
+        <v>0.8083631629488082</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -532,7 +532,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>0.9509153552374841</v>
+        <v>0.8075137044070289</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -546,7 +546,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>0.9109901440906469</v>
+        <v>0.5199831653444562</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -560,7 +560,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>0.809022153949627</v>
+        <v>0.5197107523345039</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -574,7 +574,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>0.7774353951836019</v>
+        <v>0.5070328523870558</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -588,7 +588,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>0.6523124049072067</v>
+        <v>0.3449813641054789</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -602,7 +602,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>0.6333847592450184</v>
+        <v>0.3036472639541898</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -616,7 +616,7 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>0.5984533555983944</v>
+        <v>0.2889522765872385</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -630,7 +630,7 @@
         <v>33</v>
       </c>
       <c r="D11">
-        <v>0.4229450948714657</v>
+        <v>0.1969215624922072</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmaiores.xlsx
+++ b/bdrmaiores.xlsx
@@ -31,91 +31,91 @@
     <t>SPOTIFY TECH</t>
   </si>
   <si>
+    <t>SL GREEN REA</t>
+  </si>
+  <si>
+    <t>MEDICAL P TR</t>
+  </si>
+  <si>
+    <t>BANCO SANTAN</t>
+  </si>
+  <si>
+    <t>ARCHER DANIE</t>
+  </si>
+  <si>
+    <t>ECOPETROL SA</t>
+  </si>
+  <si>
+    <t>TAKE-TWO INT</t>
+  </si>
+  <si>
+    <t>COINBASEGLOB</t>
+  </si>
+  <si>
+    <t>BIONTECH SE</t>
+  </si>
+  <si>
     <t>3M</t>
   </si>
   <si>
-    <t>STARBUCKS</t>
-  </si>
-  <si>
-    <t>BNY MELLON</t>
-  </si>
-  <si>
-    <t>GENERAL MOT</t>
-  </si>
-  <si>
-    <t>FIRST SOLAR</t>
-  </si>
-  <si>
-    <t>SIMON PROP</t>
-  </si>
-  <si>
-    <t>EQUINOR ASA</t>
-  </si>
-  <si>
-    <t>COLGATE</t>
-  </si>
-  <si>
-    <t>TAIWANSMFAC</t>
-  </si>
-  <si>
     <t>S1PO34</t>
   </si>
   <si>
+    <t>S1LG34</t>
+  </si>
+  <si>
+    <t>M2PW34</t>
+  </si>
+  <si>
+    <t>B34</t>
+  </si>
+  <si>
+    <t>A1DM34</t>
+  </si>
+  <si>
+    <t>E1CO34</t>
+  </si>
+  <si>
+    <t>T1TW34</t>
+  </si>
+  <si>
+    <t>C2OI34</t>
+  </si>
+  <si>
+    <t>B1NT34</t>
+  </si>
+  <si>
     <t>MMMC34</t>
   </si>
   <si>
-    <t>SBUB34</t>
-  </si>
-  <si>
-    <t>BONY34</t>
-  </si>
-  <si>
-    <t>GMCO34</t>
-  </si>
-  <si>
-    <t>FSLR34</t>
-  </si>
-  <si>
-    <t>SIMN34</t>
-  </si>
-  <si>
-    <t>E1QN34</t>
-  </si>
-  <si>
-    <t>COLG34</t>
-  </si>
-  <si>
-    <t>TSMC34</t>
-  </si>
-  <si>
     <t>SPOT</t>
   </si>
   <si>
+    <t>SLG</t>
+  </si>
+  <si>
+    <t>MPW</t>
+  </si>
+  <si>
+    <t>BSAC</t>
+  </si>
+  <si>
+    <t>ADM</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>TTWO</t>
+  </si>
+  <si>
+    <t>COIN</t>
+  </si>
+  <si>
+    <t>BNTX</t>
+  </si>
+  <si>
     <t>MMM</t>
-  </si>
-  <si>
-    <t>SBUX</t>
-  </si>
-  <si>
-    <t>BK</t>
-  </si>
-  <si>
-    <t>GM</t>
-  </si>
-  <si>
-    <t>FSLR</t>
-  </si>
-  <si>
-    <t>SPG</t>
-  </si>
-  <si>
-    <t>EQNR</t>
-  </si>
-  <si>
-    <t>CL</t>
-  </si>
-  <si>
-    <t>TSM</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>1.334248051804025</v>
+        <v>1.580153465256444</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -518,7 +518,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>0.8083631629488082</v>
+        <v>0.9365438710556191</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -532,7 +532,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>0.8075137044070289</v>
+        <v>0.4790862832555831</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -546,7 +546,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>0.5199831653444562</v>
+        <v>0.3907235644073808</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -560,7 +560,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>0.5197107523345039</v>
+        <v>0.3683969866178813</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -574,7 +574,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>0.5070328523870558</v>
+        <v>0.3467040969562731</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -588,7 +588,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>0.3449813641054789</v>
+        <v>0.2885633923870046</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -602,7 +602,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>0.3036472639541898</v>
+        <v>0.2429585439502304</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -616,7 +616,7 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>0.2889522765872385</v>
+        <v>0.1794288348064583</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -630,7 +630,7 @@
         <v>33</v>
       </c>
       <c r="D11">
-        <v>0.1969215624922072</v>
+        <v>0.1710334907838842</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmaiores.xlsx
+++ b/bdrmaiores.xlsx
@@ -28,94 +28,94 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>SPOTIFY TECH</t>
-  </si>
-  <si>
-    <t>SL GREEN REA</t>
-  </si>
-  <si>
-    <t>MEDICAL P TR</t>
-  </si>
-  <si>
-    <t>BANCO SANTAN</t>
-  </si>
-  <si>
     <t>ARCHER DANIE</t>
   </si>
   <si>
-    <t>ECOPETROL SA</t>
-  </si>
-  <si>
-    <t>TAKE-TWO INT</t>
-  </si>
-  <si>
-    <t>COINBASEGLOB</t>
-  </si>
-  <si>
-    <t>BIONTECH SE</t>
-  </si>
-  <si>
-    <t>3M</t>
-  </si>
-  <si>
-    <t>S1PO34</t>
-  </si>
-  <si>
-    <t>S1LG34</t>
-  </si>
-  <si>
-    <t>M2PW34</t>
-  </si>
-  <si>
-    <t>B34</t>
+    <t>FIRST SOLAR</t>
+  </si>
+  <si>
+    <t>ORACLE</t>
+  </si>
+  <si>
+    <t>TRANSOCEAN</t>
+  </si>
+  <si>
+    <t>MICRON TECHN</t>
+  </si>
+  <si>
+    <t>TAIWANSMFAC</t>
+  </si>
+  <si>
+    <t>MOSAIC CO</t>
+  </si>
+  <si>
+    <t>WALT DISNEY</t>
+  </si>
+  <si>
+    <t>AMERICAN AIR</t>
+  </si>
+  <si>
+    <t>BAIDU INC</t>
   </si>
   <si>
     <t>A1DM34</t>
   </si>
   <si>
-    <t>E1CO34</t>
-  </si>
-  <si>
-    <t>T1TW34</t>
-  </si>
-  <si>
-    <t>C2OI34</t>
-  </si>
-  <si>
-    <t>B1NT34</t>
-  </si>
-  <si>
-    <t>MMMC34</t>
-  </si>
-  <si>
-    <t>SPOT</t>
-  </si>
-  <si>
-    <t>SLG</t>
-  </si>
-  <si>
-    <t>MPW</t>
-  </si>
-  <si>
-    <t>BSAC</t>
+    <t>FSLR34</t>
+  </si>
+  <si>
+    <t>ORCL34</t>
+  </si>
+  <si>
+    <t>RIGG34</t>
+  </si>
+  <si>
+    <t>MUTC34</t>
+  </si>
+  <si>
+    <t>TSMC34</t>
+  </si>
+  <si>
+    <t>MOSC34</t>
+  </si>
+  <si>
+    <t>DISB34</t>
+  </si>
+  <si>
+    <t>AALL34</t>
+  </si>
+  <si>
+    <t>BIDU34</t>
   </si>
   <si>
     <t>ADM</t>
   </si>
   <si>
-    <t>EC</t>
-  </si>
-  <si>
-    <t>TTWO</t>
-  </si>
-  <si>
-    <t>COIN</t>
-  </si>
-  <si>
-    <t>BNTX</t>
-  </si>
-  <si>
-    <t>MMM</t>
+    <t>FSLR</t>
+  </si>
+  <si>
+    <t>ORCL</t>
+  </si>
+  <si>
+    <t>RIG</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>TSM</t>
+  </si>
+  <si>
+    <t>MOS</t>
+  </si>
+  <si>
+    <t>DIS</t>
+  </si>
+  <si>
+    <t>AAL</t>
+  </si>
+  <si>
+    <t>BIDU</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>1.580153465256444</v>
+        <v>1.931434790534695</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -518,7 +518,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>0.9365438710556191</v>
+        <v>1.529126075565728</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -532,7 +532,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>0.4790862832555831</v>
+        <v>0.4512604724836393</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -546,7 +546,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>0.3907235644073808</v>
+        <v>0.2750146820869759</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -560,7 +560,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>0.3683969866178813</v>
+        <v>0.2341829760357967</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -574,7 +574,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>0.3467040969562731</v>
+        <v>0.1950501203536987</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -588,7 +588,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>0.2885633923870046</v>
+        <v>0.1571872955926032</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -602,7 +602,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>0.2429585439502304</v>
+        <v>0.1278363339425681</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -616,7 +616,7 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>0.1794288348064583</v>
+        <v>0.1109910924988071</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -630,7 +630,7 @@
         <v>33</v>
       </c>
       <c r="D11">
-        <v>0.1710334907838842</v>
+        <v>0.08844222650858313</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmaiores.xlsx
+++ b/bdrmaiores.xlsx
@@ -31,91 +31,91 @@
     <t>ARCHER DANIE</t>
   </si>
   <si>
-    <t>FIRST SOLAR</t>
-  </si>
-  <si>
-    <t>ORACLE</t>
-  </si>
-  <si>
-    <t>TRANSOCEAN</t>
-  </si>
-  <si>
-    <t>MICRON TECHN</t>
-  </si>
-  <si>
-    <t>TAIWANSMFAC</t>
+    <t>EXELON CORP</t>
+  </si>
+  <si>
+    <t>ZOETIS INC</t>
+  </si>
+  <si>
+    <t>UNILEVER</t>
+  </si>
+  <si>
+    <t>BNY MELLON</t>
+  </si>
+  <si>
+    <t>BAIDU INC</t>
+  </si>
+  <si>
+    <t>SPOTIFY TECH</t>
   </si>
   <si>
     <t>MOSAIC CO</t>
   </si>
   <si>
-    <t>WALT DISNEY</t>
-  </si>
-  <si>
-    <t>AMERICAN AIR</t>
-  </si>
-  <si>
-    <t>BAIDU INC</t>
+    <t>REALTY INCOM</t>
+  </si>
+  <si>
+    <t>MORGAN STAN</t>
   </si>
   <si>
     <t>A1DM34</t>
   </si>
   <si>
-    <t>FSLR34</t>
-  </si>
-  <si>
-    <t>ORCL34</t>
-  </si>
-  <si>
-    <t>RIGG34</t>
-  </si>
-  <si>
-    <t>MUTC34</t>
-  </si>
-  <si>
-    <t>TSMC34</t>
+    <t>E1XC34</t>
+  </si>
+  <si>
+    <t>Z1TS34</t>
+  </si>
+  <si>
+    <t>ULEV34</t>
+  </si>
+  <si>
+    <t>BONY34</t>
+  </si>
+  <si>
+    <t>BIDU34</t>
+  </si>
+  <si>
+    <t>S1PO34</t>
   </si>
   <si>
     <t>MOSC34</t>
   </si>
   <si>
-    <t>DISB34</t>
-  </si>
-  <si>
-    <t>AALL34</t>
-  </si>
-  <si>
-    <t>BIDU34</t>
+    <t>R1IN34</t>
+  </si>
+  <si>
+    <t>MSBR34</t>
   </si>
   <si>
     <t>ADM</t>
   </si>
   <si>
-    <t>FSLR</t>
-  </si>
-  <si>
-    <t>ORCL</t>
-  </si>
-  <si>
-    <t>RIG</t>
-  </si>
-  <si>
-    <t>MU</t>
-  </si>
-  <si>
-    <t>TSM</t>
+    <t>EXC</t>
+  </si>
+  <si>
+    <t>ZTS</t>
+  </si>
+  <si>
+    <t>UL</t>
+  </si>
+  <si>
+    <t>BK</t>
+  </si>
+  <si>
+    <t>BIDU</t>
+  </si>
+  <si>
+    <t>SPOT</t>
   </si>
   <si>
     <t>MOS</t>
   </si>
   <si>
-    <t>DIS</t>
-  </si>
-  <si>
-    <t>AAL</t>
-  </si>
-  <si>
-    <t>BIDU</t>
+    <t>O</t>
+  </si>
+  <si>
+    <t>MS</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>1.931434790534695</v>
+        <v>1.787947465973048</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -518,7 +518,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>1.529126075565728</v>
+        <v>1.488765167465317</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -532,7 +532,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>0.4512604724836393</v>
+        <v>1.265010884990716</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -546,7 +546,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>0.2750146820869759</v>
+        <v>1.175770448913681</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -560,7 +560,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>0.2341829760357967</v>
+        <v>0.9126563099289342</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -574,7 +574,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>0.1950501203536987</v>
+        <v>0.6886782248408281</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -588,7 +588,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>0.1571872955926032</v>
+        <v>0.5414034796522174</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -602,7 +602,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>0.1278363339425681</v>
+        <v>0.5235941070167307</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -616,7 +616,7 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>0.1109910924988071</v>
+        <v>0.4759735036086568</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -630,7 +630,7 @@
         <v>33</v>
       </c>
       <c r="D11">
-        <v>0.08844222650858313</v>
+        <v>0.4604489947814727</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmaiores.xlsx
+++ b/bdrmaiores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Nome</t>
   </si>
@@ -28,94 +28,91 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>ARCHER DANIE</t>
-  </si>
-  <si>
-    <t>EXELON CORP</t>
-  </si>
-  <si>
-    <t>ZOETIS INC</t>
-  </si>
-  <si>
-    <t>UNILEVER</t>
-  </si>
-  <si>
-    <t>BNY MELLON</t>
-  </si>
-  <si>
-    <t>BAIDU INC</t>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>HONDA MO</t>
+  </si>
+  <si>
+    <t>FIRST SOLAR</t>
   </si>
   <si>
     <t>SPOTIFY TECH</t>
   </si>
   <si>
-    <t>MOSAIC CO</t>
-  </si>
-  <si>
-    <t>REALTY INCOM</t>
-  </si>
-  <si>
-    <t>MORGAN STAN</t>
-  </si>
-  <si>
-    <t>A1DM34</t>
-  </si>
-  <si>
-    <t>E1XC34</t>
-  </si>
-  <si>
-    <t>Z1TS34</t>
-  </si>
-  <si>
-    <t>ULEV34</t>
-  </si>
-  <si>
-    <t>BONY34</t>
-  </si>
-  <si>
-    <t>BIDU34</t>
+    <t>BOOKING</t>
+  </si>
+  <si>
+    <t>BROADCOM INC</t>
+  </si>
+  <si>
+    <t>CARNIVAL COR</t>
+  </si>
+  <si>
+    <t>ASML HOLD</t>
+  </si>
+  <si>
+    <t>WALT DISNEY</t>
+  </si>
+  <si>
+    <t>ARCELOR</t>
+  </si>
+  <si>
+    <t>GEOO34</t>
+  </si>
+  <si>
+    <t>HOND34</t>
+  </si>
+  <si>
+    <t>FSLR34</t>
   </si>
   <si>
     <t>S1PO34</t>
   </si>
   <si>
-    <t>MOSC34</t>
-  </si>
-  <si>
-    <t>R1IN34</t>
-  </si>
-  <si>
-    <t>MSBR34</t>
-  </si>
-  <si>
-    <t>ADM</t>
-  </si>
-  <si>
-    <t>EXC</t>
-  </si>
-  <si>
-    <t>ZTS</t>
-  </si>
-  <si>
-    <t>UL</t>
-  </si>
-  <si>
-    <t>BK</t>
-  </si>
-  <si>
-    <t>BIDU</t>
+    <t>BKNG34</t>
+  </si>
+  <si>
+    <t>AVGO34</t>
+  </si>
+  <si>
+    <t>C1CL34</t>
+  </si>
+  <si>
+    <t>ASML34</t>
+  </si>
+  <si>
+    <t>DISB34</t>
+  </si>
+  <si>
+    <t>ARMT34</t>
+  </si>
+  <si>
+    <t>HMC</t>
+  </si>
+  <si>
+    <t>FSLR</t>
   </si>
   <si>
     <t>SPOT</t>
   </si>
   <si>
-    <t>MOS</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>MS</t>
+    <t>BKNG</t>
+  </si>
+  <si>
+    <t>AVGO</t>
+  </si>
+  <si>
+    <t>CCL</t>
+  </si>
+  <si>
+    <t>ASML</t>
+  </si>
+  <si>
+    <t>DIS</t>
+  </si>
+  <si>
+    <t>MT</t>
   </si>
 </sst>
 </file>
@@ -501,10 +498,10 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>1.787947465973048</v>
+        <v>5.109775481490942</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -515,10 +512,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>1.488765167465317</v>
+        <v>2.204933925933801</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -529,10 +526,10 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>1.265010884990716</v>
+        <v>1.554681239394995</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -543,10 +540,10 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>1.175770448913681</v>
+        <v>1.299243861860305</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -557,10 +554,10 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>0.9126563099289342</v>
+        <v>1.073218400562979</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -571,10 +568,10 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>0.6886782248408281</v>
+        <v>0.9513757343937641</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -585,10 +582,10 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>0.5414034796522174</v>
+        <v>0.6554469995994623</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -599,10 +596,10 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>0.5235941070167307</v>
+        <v>0.3511035832476637</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -613,10 +610,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>0.4759735036086568</v>
+        <v>0.2769660633647248</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -627,10 +624,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>0.4604489947814727</v>
+        <v>0.2244691385230908</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmaiores.xlsx
+++ b/bdrmaiores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Nome</t>
   </si>
@@ -28,91 +28,94 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>GE</t>
-  </si>
-  <si>
-    <t>HONDA MO</t>
-  </si>
-  <si>
     <t>FIRST SOLAR</t>
   </si>
   <si>
-    <t>SPOTIFY TECH</t>
-  </si>
-  <si>
-    <t>BOOKING</t>
-  </si>
-  <si>
-    <t>BROADCOM INC</t>
+    <t>SL GREEN REA</t>
+  </si>
+  <si>
+    <t>EXELON CORP</t>
   </si>
   <si>
     <t>CARNIVAL COR</t>
   </si>
   <si>
-    <t>ASML HOLD</t>
-  </si>
-  <si>
-    <t>WALT DISNEY</t>
-  </si>
-  <si>
-    <t>ARCELOR</t>
-  </si>
-  <si>
-    <t>GEOO34</t>
-  </si>
-  <si>
-    <t>HOND34</t>
+    <t>BAIDU INC</t>
+  </si>
+  <si>
+    <t>NIKE</t>
+  </si>
+  <si>
+    <t>BILL HOLD</t>
+  </si>
+  <si>
+    <t>COINBASEGLOB</t>
+  </si>
+  <si>
+    <t>ALPHABET</t>
+  </si>
+  <si>
+    <t>TELADOCHEALT</t>
   </si>
   <si>
     <t>FSLR34</t>
   </si>
   <si>
-    <t>S1PO34</t>
-  </si>
-  <si>
-    <t>BKNG34</t>
-  </si>
-  <si>
-    <t>AVGO34</t>
+    <t>S1LG34</t>
+  </si>
+  <si>
+    <t>E1XC34</t>
   </si>
   <si>
     <t>C1CL34</t>
   </si>
   <si>
-    <t>ASML34</t>
-  </si>
-  <si>
-    <t>DISB34</t>
-  </si>
-  <si>
-    <t>ARMT34</t>
-  </si>
-  <si>
-    <t>HMC</t>
+    <t>BIDU34</t>
+  </si>
+  <si>
+    <t>NIKE34</t>
+  </si>
+  <si>
+    <t>B2HI34</t>
+  </si>
+  <si>
+    <t>C2OI34</t>
+  </si>
+  <si>
+    <t>GOGL34</t>
+  </si>
+  <si>
+    <t>T2DH34</t>
   </si>
   <si>
     <t>FSLR</t>
   </si>
   <si>
-    <t>SPOT</t>
-  </si>
-  <si>
-    <t>BKNG</t>
-  </si>
-  <si>
-    <t>AVGO</t>
+    <t>SLG</t>
+  </si>
+  <si>
+    <t>EXC</t>
   </si>
   <si>
     <t>CCL</t>
   </si>
   <si>
-    <t>ASML</t>
-  </si>
-  <si>
-    <t>DIS</t>
-  </si>
-  <si>
-    <t>MT</t>
+    <t>BIDU</t>
+  </si>
+  <si>
+    <t>NKE</t>
+  </si>
+  <si>
+    <t>BILL</t>
+  </si>
+  <si>
+    <t>COIN</t>
+  </si>
+  <si>
+    <t>GOOGL</t>
+  </si>
+  <si>
+    <t>TDOC</t>
   </si>
 </sst>
 </file>
@@ -498,10 +501,10 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D2">
-        <v>5.109775481490942</v>
+        <v>9.510664110595826</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -512,10 +515,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>2.204933925933801</v>
+        <v>0.7540426357954857</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -526,10 +529,10 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>1.554681239394995</v>
+        <v>0.4458081618649885</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -540,10 +543,10 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>1.299243861860305</v>
+        <v>0.2452628301543882</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -554,10 +557,10 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>1.073218400562979</v>
+        <v>0.04356734876720481</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -568,10 +571,10 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>0.9513757343937641</v>
+        <v>0.03670120239258523</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -582,10 +585,10 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>0.6554469995994623</v>
+        <v>0.005817237766157168</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -596,10 +599,10 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>0.3511035832476637</v>
+        <v>0.005556217692792131</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -610,10 +613,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>0.2769660633647248</v>
+        <v>0.000914118888857729</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -624,10 +627,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>0.2244691385230908</v>
+        <v>-0.005414214765434355</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmaiores.xlsx
+++ b/bdrmaiores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Nome</t>
   </si>
@@ -28,94 +28,91 @@
     <t>Spread</t>
   </si>
   <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>STARBUCKS</t>
+  </si>
+  <si>
+    <t>BNY MELLON</t>
+  </si>
+  <si>
+    <t>SL GREEN REA</t>
+  </si>
+  <si>
+    <t>ARCELOR</t>
+  </si>
+  <si>
     <t>FIRST SOLAR</t>
   </si>
   <si>
-    <t>SL GREEN REA</t>
-  </si>
-  <si>
-    <t>EXELON CORP</t>
-  </si>
-  <si>
-    <t>CARNIVAL COR</t>
-  </si>
-  <si>
-    <t>BAIDU INC</t>
-  </si>
-  <si>
-    <t>NIKE</t>
-  </si>
-  <si>
-    <t>BILL HOLD</t>
-  </si>
-  <si>
-    <t>COINBASEGLOB</t>
-  </si>
-  <si>
-    <t>ALPHABET</t>
-  </si>
-  <si>
-    <t>TELADOCHEALT</t>
+    <t>ARCHER DANIE</t>
+  </si>
+  <si>
+    <t>HP COMPANY</t>
+  </si>
+  <si>
+    <t>TAKE-TWO INT</t>
+  </si>
+  <si>
+    <t>SIMON PROP</t>
+  </si>
+  <si>
+    <t>GEOO34</t>
+  </si>
+  <si>
+    <t>SBUB34</t>
+  </si>
+  <si>
+    <t>BONY34</t>
+  </si>
+  <si>
+    <t>S1LG34</t>
+  </si>
+  <si>
+    <t>ARMT34</t>
   </si>
   <si>
     <t>FSLR34</t>
   </si>
   <si>
-    <t>S1LG34</t>
-  </si>
-  <si>
-    <t>E1XC34</t>
-  </si>
-  <si>
-    <t>C1CL34</t>
-  </si>
-  <si>
-    <t>BIDU34</t>
-  </si>
-  <si>
-    <t>NIKE34</t>
-  </si>
-  <si>
-    <t>B2HI34</t>
-  </si>
-  <si>
-    <t>C2OI34</t>
-  </si>
-  <si>
-    <t>GOGL34</t>
-  </si>
-  <si>
-    <t>T2DH34</t>
+    <t>A1DM34</t>
+  </si>
+  <si>
+    <t>HPQB34</t>
+  </si>
+  <si>
+    <t>T1TW34</t>
+  </si>
+  <si>
+    <t>SIMN34</t>
+  </si>
+  <si>
+    <t>SBUX</t>
+  </si>
+  <si>
+    <t>BK</t>
+  </si>
+  <si>
+    <t>SLG</t>
+  </si>
+  <si>
+    <t>MT</t>
   </si>
   <si>
     <t>FSLR</t>
   </si>
   <si>
-    <t>SLG</t>
-  </si>
-  <si>
-    <t>EXC</t>
-  </si>
-  <si>
-    <t>CCL</t>
-  </si>
-  <si>
-    <t>BIDU</t>
-  </si>
-  <si>
-    <t>NKE</t>
-  </si>
-  <si>
-    <t>BILL</t>
-  </si>
-  <si>
-    <t>COIN</t>
-  </si>
-  <si>
-    <t>GOOGL</t>
-  </si>
-  <si>
-    <t>TDOC</t>
+    <t>ADM</t>
+  </si>
+  <si>
+    <t>HPQ</t>
+  </si>
+  <si>
+    <t>TTWO</t>
+  </si>
+  <si>
+    <t>SPG</t>
   </si>
 </sst>
 </file>
@@ -501,10 +498,10 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>9.510664110595826</v>
+        <v>4.809544110954448</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -515,10 +512,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>0.7540426357954857</v>
+        <v>3.896743821769633</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -529,10 +526,10 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>0.4458081618649885</v>
+        <v>3.463356978454613</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -543,10 +540,10 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>0.2452628301543882</v>
+        <v>3.457129151218396</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -557,10 +554,10 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>0.04356734876720481</v>
+        <v>2.393110964668267</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -571,10 +568,10 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>0.03670120239258523</v>
+        <v>2.212669001502945</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -585,10 +582,10 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>0.005817237766157168</v>
+        <v>1.662335647659347</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -599,10 +596,10 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>0.005556217692792131</v>
+        <v>1.463739555992106</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -613,10 +610,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>0.000914118888857729</v>
+        <v>1.24533610864637</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -627,10 +624,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>-0.005414214765434355</v>
+        <v>1.107915460474032</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmaiores.xlsx
+++ b/bdrmaiores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Nome</t>
   </si>
@@ -28,49 +28,34 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>GE</t>
-  </si>
-  <si>
-    <t>STARBUCKS</t>
-  </si>
-  <si>
-    <t>BNY MELLON</t>
-  </si>
-  <si>
-    <t>SL GREEN REA</t>
-  </si>
-  <si>
-    <t>ARCELOR</t>
-  </si>
-  <si>
     <t>FIRST SOLAR</t>
   </si>
   <si>
     <t>ARCHER DANIE</t>
   </si>
   <si>
-    <t>HP COMPANY</t>
-  </si>
-  <si>
-    <t>TAKE-TWO INT</t>
+    <t>SONY GROUP</t>
+  </si>
+  <si>
+    <t>EXELON CORP</t>
+  </si>
+  <si>
+    <t>EQUINOR ASA</t>
   </si>
   <si>
     <t>SIMON PROP</t>
   </si>
   <si>
-    <t>GEOO34</t>
-  </si>
-  <si>
-    <t>SBUB34</t>
-  </si>
-  <si>
-    <t>BONY34</t>
-  </si>
-  <si>
-    <t>S1LG34</t>
-  </si>
-  <si>
-    <t>ARMT34</t>
+    <t>BOOKING</t>
+  </si>
+  <si>
+    <t>UBER TECH IN</t>
+  </si>
+  <si>
+    <t>CARNIVAL COR</t>
+  </si>
+  <si>
+    <t>CHARTER COMM</t>
   </si>
   <si>
     <t>FSLR34</t>
@@ -79,25 +64,28 @@
     <t>A1DM34</t>
   </si>
   <si>
-    <t>HPQB34</t>
-  </si>
-  <si>
-    <t>T1TW34</t>
+    <t>SNEC34</t>
+  </si>
+  <si>
+    <t>E1XC34</t>
+  </si>
+  <si>
+    <t>E1QN34</t>
   </si>
   <si>
     <t>SIMN34</t>
   </si>
   <si>
-    <t>SBUX</t>
-  </si>
-  <si>
-    <t>BK</t>
-  </si>
-  <si>
-    <t>SLG</t>
-  </si>
-  <si>
-    <t>MT</t>
+    <t>BKNG34</t>
+  </si>
+  <si>
+    <t>U1BE34</t>
+  </si>
+  <si>
+    <t>C1CL34</t>
+  </si>
+  <si>
+    <t>CHCM34</t>
   </si>
   <si>
     <t>FSLR</t>
@@ -106,13 +94,28 @@
     <t>ADM</t>
   </si>
   <si>
-    <t>HPQ</t>
-  </si>
-  <si>
-    <t>TTWO</t>
+    <t>SONY</t>
+  </si>
+  <si>
+    <t>EXC</t>
+  </si>
+  <si>
+    <t>EQNR</t>
   </si>
   <si>
     <t>SPG</t>
+  </si>
+  <si>
+    <t>BKNG</t>
+  </si>
+  <si>
+    <t>UBER</t>
+  </si>
+  <si>
+    <t>CCL</t>
+  </si>
+  <si>
+    <t>CHTR</t>
   </si>
 </sst>
 </file>
@@ -498,10 +501,10 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D2">
-        <v>4.809544110954448</v>
+        <v>9.063673772681796</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -512,10 +515,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>3.896743821769633</v>
+        <v>1.797842986343312</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -526,10 +529,10 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>3.463356978454613</v>
+        <v>0.8098885131985298</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -540,10 +543,10 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>3.457129151218396</v>
+        <v>0.6155976670379459</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -554,10 +557,10 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>2.393110964668267</v>
+        <v>0.5078762028961137</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -568,10 +571,10 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>2.212669001502945</v>
+        <v>0.4281906995202007</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -582,10 +585,10 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>1.662335647659347</v>
+        <v>0.4198074192097891</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -596,10 +599,10 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>1.463739555992106</v>
+        <v>0.389144335536912</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -610,10 +613,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>1.24533610864637</v>
+        <v>0.3286626211547627</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -624,10 +627,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>1.107915460474032</v>
+        <v>0.2268084940523778</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmaiores.xlsx
+++ b/bdrmaiores.xlsx
@@ -28,94 +28,94 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>FIRST SOLAR</t>
-  </si>
-  <si>
-    <t>ARCHER DANIE</t>
-  </si>
-  <si>
-    <t>SONY GROUP</t>
-  </si>
-  <si>
-    <t>EXELON CORP</t>
-  </si>
-  <si>
-    <t>EQUINOR ASA</t>
-  </si>
-  <si>
-    <t>SIMON PROP</t>
-  </si>
-  <si>
-    <t>BOOKING</t>
-  </si>
-  <si>
-    <t>UBER TECH IN</t>
-  </si>
-  <si>
-    <t>CARNIVAL COR</t>
-  </si>
-  <si>
-    <t>CHARTER COMM</t>
-  </si>
-  <si>
-    <t>FSLR34</t>
-  </si>
-  <si>
-    <t>A1DM34</t>
-  </si>
-  <si>
-    <t>SNEC34</t>
-  </si>
-  <si>
-    <t>E1XC34</t>
-  </si>
-  <si>
-    <t>E1QN34</t>
-  </si>
-  <si>
-    <t>SIMN34</t>
-  </si>
-  <si>
-    <t>BKNG34</t>
-  </si>
-  <si>
-    <t>U1BE34</t>
-  </si>
-  <si>
-    <t>C1CL34</t>
-  </si>
-  <si>
-    <t>CHCM34</t>
-  </si>
-  <si>
-    <t>FSLR</t>
-  </si>
-  <si>
-    <t>ADM</t>
-  </si>
-  <si>
-    <t>SONY</t>
-  </si>
-  <si>
-    <t>EXC</t>
-  </si>
-  <si>
-    <t>EQNR</t>
-  </si>
-  <si>
-    <t>SPG</t>
-  </si>
-  <si>
-    <t>BKNG</t>
-  </si>
-  <si>
-    <t>UBER</t>
-  </si>
-  <si>
-    <t>CCL</t>
-  </si>
-  <si>
-    <t>CHTR</t>
+    <t>NASDAQ INC</t>
+  </si>
+  <si>
+    <t>MORGAN STAN</t>
+  </si>
+  <si>
+    <t>ARCELOR</t>
+  </si>
+  <si>
+    <t>AIRBNB</t>
+  </si>
+  <si>
+    <t>HP COMPANY</t>
+  </si>
+  <si>
+    <t>LUMEN TECH</t>
+  </si>
+  <si>
+    <t>COCA COLA</t>
+  </si>
+  <si>
+    <t>ALBEMARLE CO</t>
+  </si>
+  <si>
+    <t>CISCO</t>
+  </si>
+  <si>
+    <t>KRAFT HEINZ</t>
+  </si>
+  <si>
+    <t>N1DA34</t>
+  </si>
+  <si>
+    <t>MSBR34</t>
+  </si>
+  <si>
+    <t>ARMT34</t>
+  </si>
+  <si>
+    <t>AIRB34</t>
+  </si>
+  <si>
+    <t>HPQB34</t>
+  </si>
+  <si>
+    <t>L1MN34</t>
+  </si>
+  <si>
+    <t>COCA34</t>
+  </si>
+  <si>
+    <t>A1LB34</t>
+  </si>
+  <si>
+    <t>CSCO34</t>
+  </si>
+  <si>
+    <t>KHCB34</t>
+  </si>
+  <si>
+    <t>NDAQ</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>ABNB</t>
+  </si>
+  <si>
+    <t>HPQ</t>
+  </si>
+  <si>
+    <t>LUMN</t>
+  </si>
+  <si>
+    <t>KO</t>
+  </si>
+  <si>
+    <t>ALB</t>
+  </si>
+  <si>
+    <t>CSCO</t>
+  </si>
+  <si>
+    <t>KHC</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>9.063673772681796</v>
+        <v>1.047903532096825</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -518,7 +518,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>1.797842986343312</v>
+        <v>0.5543357909424316</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -532,7 +532,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>0.8098885131985298</v>
+        <v>0.4187500448570063</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -546,7 +546,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>0.6155976670379459</v>
+        <v>0.1761519439605834</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -560,7 +560,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>0.5078762028961137</v>
+        <v>0.145172122909571</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -574,7 +574,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>0.4281906995202007</v>
+        <v>0.108144402032849</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -588,7 +588,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>0.4198074192097891</v>
+        <v>0.1074511509491458</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -602,7 +602,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>0.389144335536912</v>
+        <v>0.07570006278393748</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -616,7 +616,7 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>0.3286626211547627</v>
+        <v>0.07393805386964658</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -630,7 +630,7 @@
         <v>33</v>
       </c>
       <c r="D11">
-        <v>0.2268084940523778</v>
+        <v>0.06179284672543872</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmaiores.xlsx
+++ b/bdrmaiores.xlsx
@@ -28,94 +28,94 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>NASDAQ INC</t>
-  </si>
-  <si>
-    <t>MORGAN STAN</t>
-  </si>
-  <si>
-    <t>ARCELOR</t>
-  </si>
-  <si>
-    <t>AIRBNB</t>
-  </si>
-  <si>
-    <t>HP COMPANY</t>
-  </si>
-  <si>
-    <t>LUMEN TECH</t>
-  </si>
-  <si>
-    <t>COCA COLA</t>
-  </si>
-  <si>
-    <t>ALBEMARLE CO</t>
-  </si>
-  <si>
-    <t>CISCO</t>
-  </si>
-  <si>
-    <t>KRAFT HEINZ</t>
-  </si>
-  <si>
-    <t>N1DA34</t>
-  </si>
-  <si>
-    <t>MSBR34</t>
-  </si>
-  <si>
-    <t>ARMT34</t>
-  </si>
-  <si>
-    <t>AIRB34</t>
-  </si>
-  <si>
-    <t>HPQB34</t>
-  </si>
-  <si>
-    <t>L1MN34</t>
-  </si>
-  <si>
-    <t>COCA34</t>
-  </si>
-  <si>
-    <t>A1LB34</t>
-  </si>
-  <si>
-    <t>CSCO34</t>
-  </si>
-  <si>
-    <t>KHCB34</t>
-  </si>
-  <si>
-    <t>NDAQ</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>MT</t>
-  </si>
-  <si>
-    <t>ABNB</t>
-  </si>
-  <si>
-    <t>HPQ</t>
-  </si>
-  <si>
-    <t>LUMN</t>
-  </si>
-  <si>
-    <t>KO</t>
-  </si>
-  <si>
-    <t>ALB</t>
-  </si>
-  <si>
-    <t>CSCO</t>
-  </si>
-  <si>
-    <t>KHC</t>
+    <t>BNY MELLON</t>
+  </si>
+  <si>
+    <t>SPOTIFY TECH</t>
+  </si>
+  <si>
+    <t>FIRST SOLAR</t>
+  </si>
+  <si>
+    <t>STARBUCKS</t>
+  </si>
+  <si>
+    <t>SIMON PROP</t>
+  </si>
+  <si>
+    <t>CATERPILLAR</t>
+  </si>
+  <si>
+    <t>UBER TECH IN</t>
+  </si>
+  <si>
+    <t>EXXON MOBIL</t>
+  </si>
+  <si>
+    <t>FORD MOTORS</t>
+  </si>
+  <si>
+    <t>EXELON CORP</t>
+  </si>
+  <si>
+    <t>BONY34</t>
+  </si>
+  <si>
+    <t>S1PO34</t>
+  </si>
+  <si>
+    <t>FSLR34</t>
+  </si>
+  <si>
+    <t>SBUB34</t>
+  </si>
+  <si>
+    <t>SIMN34</t>
+  </si>
+  <si>
+    <t>CATP34</t>
+  </si>
+  <si>
+    <t>U1BE34</t>
+  </si>
+  <si>
+    <t>EXXO34</t>
+  </si>
+  <si>
+    <t>FDMO34</t>
+  </si>
+  <si>
+    <t>E1XC34</t>
+  </si>
+  <si>
+    <t>BK</t>
+  </si>
+  <si>
+    <t>SPOT</t>
+  </si>
+  <si>
+    <t>FSLR</t>
+  </si>
+  <si>
+    <t>SBUX</t>
+  </si>
+  <si>
+    <t>SPG</t>
+  </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>UBER</t>
+  </si>
+  <si>
+    <t>XOM</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>EXC</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>1.047903532096825</v>
+        <v>3.80421255420697</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -518,7 +518,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>0.5543357909424316</v>
+        <v>2.177907381810655</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -532,7 +532,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>0.4187500448570063</v>
+        <v>1.495189097473485</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -546,7 +546,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>0.1761519439605834</v>
+        <v>1.330291328216845</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -560,7 +560,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>0.145172122909571</v>
+        <v>0.6749123624249478</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -574,7 +574,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>0.108144402032849</v>
+        <v>0.430486031309556</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -588,7 +588,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>0.1074511509491458</v>
+        <v>0.4086509640656004</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -602,7 +602,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>0.07570006278393748</v>
+        <v>0.4070511800450731</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -616,7 +616,7 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>0.07393805386964658</v>
+        <v>0.3763604867058348</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -630,7 +630,7 @@
         <v>33</v>
       </c>
       <c r="D11">
-        <v>0.06179284672543872</v>
+        <v>0.3142435693207517</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmaiores.xlsx
+++ b/bdrmaiores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Nome</t>
   </si>
@@ -28,94 +28,91 @@
     <t>Spread</t>
   </si>
   <si>
+    <t>GE</t>
+  </si>
+  <si>
     <t>BNY MELLON</t>
   </si>
   <si>
-    <t>SPOTIFY TECH</t>
-  </si>
-  <si>
-    <t>FIRST SOLAR</t>
-  </si>
-  <si>
-    <t>STARBUCKS</t>
+    <t>RIO TINTO</t>
+  </si>
+  <si>
+    <t>3M</t>
+  </si>
+  <si>
+    <t>HONDA MO</t>
+  </si>
+  <si>
+    <t>EXELON CORP</t>
   </si>
   <si>
     <t>SIMON PROP</t>
   </si>
   <si>
-    <t>CATERPILLAR</t>
-  </si>
-  <si>
-    <t>UBER TECH IN</t>
-  </si>
-  <si>
-    <t>EXXON MOBIL</t>
-  </si>
-  <si>
-    <t>FORD MOTORS</t>
-  </si>
-  <si>
-    <t>EXELON CORP</t>
+    <t>REALTY INCOM</t>
+  </si>
+  <si>
+    <t>MERCADOLIBRE</t>
+  </si>
+  <si>
+    <t>BANCO SANTAN</t>
+  </si>
+  <si>
+    <t>GEOO34</t>
   </si>
   <si>
     <t>BONY34</t>
   </si>
   <si>
-    <t>S1PO34</t>
-  </si>
-  <si>
-    <t>FSLR34</t>
-  </si>
-  <si>
-    <t>SBUB34</t>
+    <t>RIOT34</t>
+  </si>
+  <si>
+    <t>MMMC34</t>
+  </si>
+  <si>
+    <t>HOND34</t>
+  </si>
+  <si>
+    <t>E1XC34</t>
   </si>
   <si>
     <t>SIMN34</t>
   </si>
   <si>
-    <t>CATP34</t>
-  </si>
-  <si>
-    <t>U1BE34</t>
-  </si>
-  <si>
-    <t>EXXO34</t>
-  </si>
-  <si>
-    <t>FDMO34</t>
-  </si>
-  <si>
-    <t>E1XC34</t>
+    <t>R1IN34</t>
+  </si>
+  <si>
+    <t>MELI34</t>
+  </si>
+  <si>
+    <t>B34</t>
   </si>
   <si>
     <t>BK</t>
   </si>
   <si>
-    <t>SPOT</t>
-  </si>
-  <si>
-    <t>FSLR</t>
-  </si>
-  <si>
-    <t>SBUX</t>
+    <t>RIO</t>
+  </si>
+  <si>
+    <t>MMM</t>
+  </si>
+  <si>
+    <t>HMC</t>
+  </si>
+  <si>
+    <t>EXC</t>
   </si>
   <si>
     <t>SPG</t>
   </si>
   <si>
-    <t>CAT</t>
-  </si>
-  <si>
-    <t>UBER</t>
-  </si>
-  <si>
-    <t>XOM</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>EXC</t>
+    <t>O</t>
+  </si>
+  <si>
+    <t>MELI</t>
+  </si>
+  <si>
+    <t>BSAC</t>
   </si>
 </sst>
 </file>
@@ -501,10 +498,10 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>3.80421255420697</v>
+        <v>3.021375535659899</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -515,10 +512,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>2.177907381810655</v>
+        <v>2.571720022026057</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -529,10 +526,10 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>1.495189097473485</v>
+        <v>1.045270644233824</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -543,10 +540,10 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>1.330291328216845</v>
+        <v>0.6357871595191682</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -557,10 +554,10 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>0.6749123624249478</v>
+        <v>0.5283921482696314</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -571,10 +568,10 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>0.430486031309556</v>
+        <v>0.5122329534988239</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -585,10 +582,10 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>0.4086509640656004</v>
+        <v>0.4786095141735132</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -599,10 +596,10 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>0.4070511800450731</v>
+        <v>0.4760824743079866</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -613,10 +610,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>0.3763604867058348</v>
+        <v>0.4397549025139114</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -627,10 +624,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>0.3142435693207517</v>
+        <v>0.342939212760939</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmaiores.xlsx
+++ b/bdrmaiores.xlsx
@@ -28,91 +28,91 @@
     <t>Spread</t>
   </si>
   <si>
+    <t>MEDICAL P TR</t>
+  </si>
+  <si>
     <t>GE</t>
   </si>
   <si>
+    <t>GENERAL MOT</t>
+  </si>
+  <si>
+    <t>FORD MOTORS</t>
+  </si>
+  <si>
+    <t>HP COMPANY</t>
+  </si>
+  <si>
     <t>BNY MELLON</t>
   </si>
   <si>
-    <t>RIO TINTO</t>
-  </si>
-  <si>
-    <t>3M</t>
-  </si>
-  <si>
-    <t>HONDA MO</t>
-  </si>
-  <si>
-    <t>EXELON CORP</t>
-  </si>
-  <si>
-    <t>SIMON PROP</t>
-  </si>
-  <si>
-    <t>REALTY INCOM</t>
-  </si>
-  <si>
-    <t>MERCADOLIBRE</t>
-  </si>
-  <si>
-    <t>BANCO SANTAN</t>
+    <t>TAKE-TWO INT</t>
+  </si>
+  <si>
+    <t>BREAD FINAN</t>
+  </si>
+  <si>
+    <t>SCHWAB</t>
+  </si>
+  <si>
+    <t>SL GREEN REA</t>
+  </si>
+  <si>
+    <t>M2PW34</t>
   </si>
   <si>
     <t>GEOO34</t>
   </si>
   <si>
+    <t>GMCO34</t>
+  </si>
+  <si>
+    <t>FDMO34</t>
+  </si>
+  <si>
+    <t>HPQB34</t>
+  </si>
+  <si>
     <t>BONY34</t>
   </si>
   <si>
-    <t>RIOT34</t>
-  </si>
-  <si>
-    <t>MMMC34</t>
-  </si>
-  <si>
-    <t>HOND34</t>
-  </si>
-  <si>
-    <t>E1XC34</t>
-  </si>
-  <si>
-    <t>SIMN34</t>
-  </si>
-  <si>
-    <t>R1IN34</t>
-  </si>
-  <si>
-    <t>MELI34</t>
-  </si>
-  <si>
-    <t>B34</t>
+    <t>T1TW34</t>
+  </si>
+  <si>
+    <t>A1LL34</t>
+  </si>
+  <si>
+    <t>SCHW34</t>
+  </si>
+  <si>
+    <t>S1LG34</t>
+  </si>
+  <si>
+    <t>MPW</t>
+  </si>
+  <si>
+    <t>GM</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>HPQ</t>
   </si>
   <si>
     <t>BK</t>
   </si>
   <si>
-    <t>RIO</t>
-  </si>
-  <si>
-    <t>MMM</t>
-  </si>
-  <si>
-    <t>HMC</t>
-  </si>
-  <si>
-    <t>EXC</t>
-  </si>
-  <si>
-    <t>SPG</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>MELI</t>
-  </si>
-  <si>
-    <t>BSAC</t>
+    <t>TTWO</t>
+  </si>
+  <si>
+    <t>BFH</t>
+  </si>
+  <si>
+    <t>SCHW</t>
+  </si>
+  <si>
+    <t>SLG</t>
   </si>
 </sst>
 </file>
@@ -498,10 +498,10 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D2">
-        <v>3.021375535659899</v>
+        <v>1.723043670516972</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -512,10 +512,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>2.571720022026057</v>
+        <v>0.8962121259464766</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -529,7 +529,7 @@
         <v>25</v>
       </c>
       <c r="D4">
-        <v>1.045270644233824</v>
+        <v>0.7968437408485443</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -543,7 +543,7 @@
         <v>26</v>
       </c>
       <c r="D5">
-        <v>0.6357871595191682</v>
+        <v>0.7115149358596682</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -557,7 +557,7 @@
         <v>27</v>
       </c>
       <c r="D6">
-        <v>0.5283921482696314</v>
+        <v>0.6242022870101209</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -571,7 +571,7 @@
         <v>28</v>
       </c>
       <c r="D7">
-        <v>0.5122329534988239</v>
+        <v>0.5895872116088867</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -585,7 +585,7 @@
         <v>29</v>
       </c>
       <c r="D8">
-        <v>0.4786095141735132</v>
+        <v>0.4103863042164448</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -599,7 +599,7 @@
         <v>30</v>
       </c>
       <c r="D9">
-        <v>0.4760824743079866</v>
+        <v>0.4013751536140262</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -613,7 +613,7 @@
         <v>31</v>
       </c>
       <c r="D10">
-        <v>0.4397549025139114</v>
+        <v>0.3241060560026199</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -627,7 +627,7 @@
         <v>32</v>
       </c>
       <c r="D11">
-        <v>0.342939212760939</v>
+        <v>0.30798496209718</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmaiores.xlsx
+++ b/bdrmaiores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Nome</t>
   </si>
@@ -28,91 +28,94 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>MEDICAL P TR</t>
-  </si>
-  <si>
-    <t>GE</t>
-  </si>
-  <si>
-    <t>GENERAL MOT</t>
-  </si>
-  <si>
-    <t>FORD MOTORS</t>
-  </si>
-  <si>
-    <t>HP COMPANY</t>
-  </si>
-  <si>
-    <t>BNY MELLON</t>
-  </si>
-  <si>
-    <t>TAKE-TWO INT</t>
-  </si>
-  <si>
-    <t>BREAD FINAN</t>
-  </si>
-  <si>
-    <t>SCHWAB</t>
-  </si>
-  <si>
-    <t>SL GREEN REA</t>
-  </si>
-  <si>
-    <t>M2PW34</t>
-  </si>
-  <si>
-    <t>GEOO34</t>
-  </si>
-  <si>
-    <t>GMCO34</t>
-  </si>
-  <si>
-    <t>FDMO34</t>
-  </si>
-  <si>
-    <t>HPQB34</t>
-  </si>
-  <si>
-    <t>BONY34</t>
-  </si>
-  <si>
-    <t>T1TW34</t>
-  </si>
-  <si>
-    <t>A1LL34</t>
-  </si>
-  <si>
-    <t>SCHW34</t>
-  </si>
-  <si>
-    <t>S1LG34</t>
-  </si>
-  <si>
-    <t>MPW</t>
-  </si>
-  <si>
-    <t>GM</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>HPQ</t>
-  </si>
-  <si>
-    <t>BK</t>
-  </si>
-  <si>
-    <t>TTWO</t>
-  </si>
-  <si>
-    <t>BFH</t>
-  </si>
-  <si>
-    <t>SCHW</t>
-  </si>
-  <si>
-    <t>SLG</t>
+    <t>FIRST SOLAR</t>
+  </si>
+  <si>
+    <t>NEWMONT GOLD</t>
+  </si>
+  <si>
+    <t>STARBUCKS</t>
+  </si>
+  <si>
+    <t>ARCHER DANIE</t>
+  </si>
+  <si>
+    <t>FREEPORT</t>
+  </si>
+  <si>
+    <t>SONY GROUP</t>
+  </si>
+  <si>
+    <t>COINBASEGLOB</t>
+  </si>
+  <si>
+    <t>COCA COLA</t>
+  </si>
+  <si>
+    <t>LILLY</t>
+  </si>
+  <si>
+    <t>NEXTERA ENER</t>
+  </si>
+  <si>
+    <t>FSLR34</t>
+  </si>
+  <si>
+    <t>N1EM34</t>
+  </si>
+  <si>
+    <t>SBUB34</t>
+  </si>
+  <si>
+    <t>A1DM34</t>
+  </si>
+  <si>
+    <t>FCXO34</t>
+  </si>
+  <si>
+    <t>SNEC34</t>
+  </si>
+  <si>
+    <t>C2OI34</t>
+  </si>
+  <si>
+    <t>COCA34</t>
+  </si>
+  <si>
+    <t>LILY34</t>
+  </si>
+  <si>
+    <t>NEXT34</t>
+  </si>
+  <si>
+    <t>FSLR</t>
+  </si>
+  <si>
+    <t>NEM</t>
+  </si>
+  <si>
+    <t>SBUX</t>
+  </si>
+  <si>
+    <t>ADM</t>
+  </si>
+  <si>
+    <t>FCX</t>
+  </si>
+  <si>
+    <t>SONY</t>
+  </si>
+  <si>
+    <t>COIN</t>
+  </si>
+  <si>
+    <t>KO</t>
+  </si>
+  <si>
+    <t>LLY</t>
+  </si>
+  <si>
+    <t>NEE</t>
   </si>
 </sst>
 </file>
@@ -501,7 +504,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>1.723043670516972</v>
+        <v>7.855632420119946</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -512,10 +515,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>0.8962121259464766</v>
+        <v>0.4952912947846926</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -526,10 +529,10 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>0.7968437408485443</v>
+        <v>0.490359424133203</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -540,10 +543,10 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>0.7115149358596682</v>
+        <v>0.414709326782031</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -554,10 +557,10 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>0.6242022870101209</v>
+        <v>0.3780496048678543</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -568,10 +571,10 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>0.5895872116088867</v>
+        <v>0.3762948541261721</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -582,10 +585,10 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>0.4103863042164448</v>
+        <v>0.3442961056274427</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -596,10 +599,10 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>0.4013751536140262</v>
+        <v>0.2573431749795958</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -610,10 +613,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>0.3241060560026199</v>
+        <v>0.2503152529812098</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -624,10 +627,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>0.30798496209718</v>
+        <v>0.2436678115082032</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmaiores.xlsx
+++ b/bdrmaiores.xlsx
@@ -28,94 +28,94 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>FIRST SOLAR</t>
-  </si>
-  <si>
-    <t>NEWMONT GOLD</t>
-  </si>
-  <si>
-    <t>STARBUCKS</t>
-  </si>
-  <si>
-    <t>ARCHER DANIE</t>
-  </si>
-  <si>
-    <t>FREEPORT</t>
-  </si>
-  <si>
-    <t>SONY GROUP</t>
-  </si>
-  <si>
-    <t>COINBASEGLOB</t>
-  </si>
-  <si>
-    <t>COCA COLA</t>
-  </si>
-  <si>
-    <t>LILLY</t>
-  </si>
-  <si>
-    <t>NEXTERA ENER</t>
-  </si>
-  <si>
-    <t>FSLR34</t>
-  </si>
-  <si>
-    <t>N1EM34</t>
-  </si>
-  <si>
-    <t>SBUB34</t>
-  </si>
-  <si>
-    <t>A1DM34</t>
-  </si>
-  <si>
-    <t>FCXO34</t>
-  </si>
-  <si>
-    <t>SNEC34</t>
-  </si>
-  <si>
-    <t>C2OI34</t>
-  </si>
-  <si>
-    <t>COCA34</t>
-  </si>
-  <si>
-    <t>LILY34</t>
-  </si>
-  <si>
-    <t>NEXT34</t>
-  </si>
-  <si>
-    <t>FSLR</t>
-  </si>
-  <si>
-    <t>NEM</t>
-  </si>
-  <si>
-    <t>SBUX</t>
-  </si>
-  <si>
-    <t>ADM</t>
-  </si>
-  <si>
-    <t>FCX</t>
-  </si>
-  <si>
-    <t>SONY</t>
-  </si>
-  <si>
-    <t>COIN</t>
-  </si>
-  <si>
-    <t>KO</t>
-  </si>
-  <si>
-    <t>LLY</t>
-  </si>
-  <si>
-    <t>NEE</t>
+    <t>RIO TINTO</t>
+  </si>
+  <si>
+    <t>NETFLIX</t>
+  </si>
+  <si>
+    <t>SPOTIFY TECH</t>
+  </si>
+  <si>
+    <t>EXXON MOBIL</t>
+  </si>
+  <si>
+    <t>CATERPILLAR</t>
+  </si>
+  <si>
+    <t>JOHNSON</t>
+  </si>
+  <si>
+    <t>ATT INC</t>
+  </si>
+  <si>
+    <t>DEERE CO</t>
+  </si>
+  <si>
+    <t>VERIZON</t>
+  </si>
+  <si>
+    <t>LLOYDS BANKI</t>
+  </si>
+  <si>
+    <t>RIOT34</t>
+  </si>
+  <si>
+    <t>NFLX34</t>
+  </si>
+  <si>
+    <t>S1PO34</t>
+  </si>
+  <si>
+    <t>EXXO34</t>
+  </si>
+  <si>
+    <t>CATP34</t>
+  </si>
+  <si>
+    <t>JNJB34</t>
+  </si>
+  <si>
+    <t>ATTB34</t>
+  </si>
+  <si>
+    <t>DEEC34</t>
+  </si>
+  <si>
+    <t>VERZ34</t>
+  </si>
+  <si>
+    <t>L1YG34</t>
+  </si>
+  <si>
+    <t>RIO</t>
+  </si>
+  <si>
+    <t>NFLX</t>
+  </si>
+  <si>
+    <t>SPOT</t>
+  </si>
+  <si>
+    <t>XOM</t>
+  </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>JNJ</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>VZ</t>
+  </si>
+  <si>
+    <t>LYG</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>7.855632420119946</v>
+        <v>2.209837890502968</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -518,7 +518,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>0.4952912947846926</v>
+        <v>1.79127693544433</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -532,7 +532,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>0.490359424133203</v>
+        <v>0.8423671805576305</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -546,7 +546,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>0.414709326782031</v>
+        <v>0.5776340085753873</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -560,7 +560,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>0.3780496048678543</v>
+        <v>0.4072005721372989</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -574,7 +574,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>0.3762948541261721</v>
+        <v>0.1436904895232232</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -588,7 +588,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>0.3442961056274427</v>
+        <v>0.1372521972269141</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -602,7 +602,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>0.2573431749795958</v>
+        <v>0.1026729623002751</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -616,7 +616,7 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>0.2503152529812098</v>
+        <v>0.07747850661472455</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -630,7 +630,7 @@
         <v>33</v>
       </c>
       <c r="D11">
-        <v>0.2436678115082032</v>
+        <v>0.06512133849048496</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmaiores.xlsx
+++ b/bdrmaiores.xlsx
@@ -28,94 +28,94 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>RIO TINTO</t>
-  </si>
-  <si>
-    <t>NETFLIX</t>
-  </si>
-  <si>
     <t>SPOTIFY TECH</t>
   </si>
   <si>
-    <t>EXXON MOBIL</t>
+    <t>BREAD FINAN</t>
   </si>
   <si>
     <t>CATERPILLAR</t>
   </si>
   <si>
-    <t>JOHNSON</t>
-  </si>
-  <si>
-    <t>ATT INC</t>
-  </si>
-  <si>
-    <t>DEERE CO</t>
-  </si>
-  <si>
-    <t>VERIZON</t>
-  </si>
-  <si>
-    <t>LLOYDS BANKI</t>
-  </si>
-  <si>
-    <t>RIOT34</t>
-  </si>
-  <si>
-    <t>NFLX34</t>
+    <t>3M</t>
+  </si>
+  <si>
+    <t>HONDA MO</t>
+  </si>
+  <si>
+    <t>AMERICAN EXP</t>
+  </si>
+  <si>
+    <t>EQUINIX INC</t>
+  </si>
+  <si>
+    <t>WELLS FARGO</t>
+  </si>
+  <si>
+    <t>JPMORGAN</t>
+  </si>
+  <si>
+    <t>JD COM</t>
   </si>
   <si>
     <t>S1PO34</t>
   </si>
   <si>
-    <t>EXXO34</t>
+    <t>A1LL34</t>
   </si>
   <si>
     <t>CATP34</t>
   </si>
   <si>
-    <t>JNJB34</t>
-  </si>
-  <si>
-    <t>ATTB34</t>
-  </si>
-  <si>
-    <t>DEEC34</t>
-  </si>
-  <si>
-    <t>VERZ34</t>
-  </si>
-  <si>
-    <t>L1YG34</t>
-  </si>
-  <si>
-    <t>RIO</t>
-  </si>
-  <si>
-    <t>NFLX</t>
+    <t>MMMC34</t>
+  </si>
+  <si>
+    <t>HOND34</t>
+  </si>
+  <si>
+    <t>AXPB34</t>
+  </si>
+  <si>
+    <t>EQIX34</t>
+  </si>
+  <si>
+    <t>WFCO34</t>
+  </si>
+  <si>
+    <t>JPMC34</t>
+  </si>
+  <si>
+    <t>JDCO34</t>
   </si>
   <si>
     <t>SPOT</t>
   </si>
   <si>
-    <t>XOM</t>
+    <t>BFH</t>
   </si>
   <si>
     <t>CAT</t>
   </si>
   <si>
-    <t>JNJ</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>VZ</t>
-  </si>
-  <si>
-    <t>LYG</t>
+    <t>MMM</t>
+  </si>
+  <si>
+    <t>HMC</t>
+  </si>
+  <si>
+    <t>AXP</t>
+  </si>
+  <si>
+    <t>EQIX</t>
+  </si>
+  <si>
+    <t>WFC</t>
+  </si>
+  <si>
+    <t>JPM</t>
+  </si>
+  <si>
+    <t>JD</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>2.209837890502968</v>
+        <v>2.130761709337094</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -518,7 +518,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>1.79127693544433</v>
+        <v>1.247969309597011</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -532,7 +532,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>0.8423671805576305</v>
+        <v>0.820418442072878</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -546,7 +546,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>0.5776340085753873</v>
+        <v>0.7010593852710372</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -560,7 +560,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>0.4072005721372989</v>
+        <v>0.5460937558746082</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -574,7 +574,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>0.1436904895232232</v>
+        <v>0.4906214826354898</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -588,7 +588,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>0.1372521972269141</v>
+        <v>0.4592269182205229</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -602,7 +602,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>0.1026729623002751</v>
+        <v>0.3369332588672478</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -616,7 +616,7 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>0.07747850661472455</v>
+        <v>0.3352287024688962</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -630,7 +630,7 @@
         <v>33</v>
       </c>
       <c r="D11">
-        <v>0.06512133849048496</v>
+        <v>0.3210751430372554</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmaiores.xlsx
+++ b/bdrmaiores.xlsx
@@ -28,94 +28,94 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>SPOTIFY TECH</t>
+    <t>NASDAQ INC</t>
+  </si>
+  <si>
+    <t>APARTMENT IN</t>
+  </si>
+  <si>
+    <t>DIAGEO PL</t>
   </si>
   <si>
     <t>BREAD FINAN</t>
   </si>
   <si>
-    <t>CATERPILLAR</t>
+    <t>SL GREEN REA</t>
+  </si>
+  <si>
+    <t>UBER TECH IN</t>
   </si>
   <si>
     <t>3M</t>
   </si>
   <si>
-    <t>HONDA MO</t>
-  </si>
-  <si>
-    <t>AMERICAN EXP</t>
-  </si>
-  <si>
-    <t>EQUINIX INC</t>
-  </si>
-  <si>
-    <t>WELLS FARGO</t>
-  </si>
-  <si>
-    <t>JPMORGAN</t>
-  </si>
-  <si>
-    <t>JD COM</t>
-  </si>
-  <si>
-    <t>S1PO34</t>
+    <t>MODERNA INC</t>
+  </si>
+  <si>
+    <t>BROADCOM INC</t>
+  </si>
+  <si>
+    <t>NETFLIX</t>
+  </si>
+  <si>
+    <t>N1DA34</t>
+  </si>
+  <si>
+    <t>A1IV34</t>
+  </si>
+  <si>
+    <t>DEOP34</t>
   </si>
   <si>
     <t>A1LL34</t>
   </si>
   <si>
-    <t>CATP34</t>
+    <t>S1LG34</t>
+  </si>
+  <si>
+    <t>U1BE34</t>
   </si>
   <si>
     <t>MMMC34</t>
   </si>
   <si>
-    <t>HOND34</t>
-  </si>
-  <si>
-    <t>AXPB34</t>
-  </si>
-  <si>
-    <t>EQIX34</t>
-  </si>
-  <si>
-    <t>WFCO34</t>
-  </si>
-  <si>
-    <t>JPMC34</t>
-  </si>
-  <si>
-    <t>JDCO34</t>
-  </si>
-  <si>
-    <t>SPOT</t>
+    <t>M1RN34</t>
+  </si>
+  <si>
+    <t>AVGO34</t>
+  </si>
+  <si>
+    <t>NFLX34</t>
+  </si>
+  <si>
+    <t>NDAQ</t>
+  </si>
+  <si>
+    <t>AIV</t>
+  </si>
+  <si>
+    <t>DEO</t>
   </si>
   <si>
     <t>BFH</t>
   </si>
   <si>
-    <t>CAT</t>
+    <t>SLG</t>
+  </si>
+  <si>
+    <t>UBER</t>
   </si>
   <si>
     <t>MMM</t>
   </si>
   <si>
-    <t>HMC</t>
-  </si>
-  <si>
-    <t>AXP</t>
-  </si>
-  <si>
-    <t>EQIX</t>
-  </si>
-  <si>
-    <t>WFC</t>
-  </si>
-  <si>
-    <t>JPM</t>
-  </si>
-  <si>
-    <t>JD</t>
+    <t>MRNA</t>
+  </si>
+  <si>
+    <t>AVGO</t>
+  </si>
+  <si>
+    <t>NFLX</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>2.130761709337094</v>
+        <v>7.658526765518218</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -518,7 +518,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>1.247969309597011</v>
+        <v>0.8574792572708247</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -532,7 +532,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>0.820418442072878</v>
+        <v>0.6424431000021684</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -546,7 +546,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>0.7010593852710372</v>
+        <v>0.5741827743950125</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -560,7 +560,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>0.5460937558746082</v>
+        <v>0.4051300967330462</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -574,7 +574,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>0.4906214826354898</v>
+        <v>0.3741825181923559</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -588,7 +588,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>0.4592269182205229</v>
+        <v>0.345506323360496</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -602,7 +602,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>0.3369332588672478</v>
+        <v>0.1703867665275567</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -616,7 +616,7 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>0.3352287024688962</v>
+        <v>0.1586473415072618</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -630,7 +630,7 @@
         <v>33</v>
       </c>
       <c r="D11">
-        <v>0.3210751430372554</v>
+        <v>0.150384280252041</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmaiores.xlsx
+++ b/bdrmaiores.xlsx
@@ -28,94 +28,94 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>NASDAQ INC</t>
-  </si>
-  <si>
-    <t>APARTMENT IN</t>
-  </si>
-  <si>
-    <t>DIAGEO PL</t>
+    <t>3M</t>
+  </si>
+  <si>
+    <t>FIRST SOLAR</t>
+  </si>
+  <si>
+    <t>SPOTIFY TECH</t>
   </si>
   <si>
     <t>BREAD FINAN</t>
   </si>
   <si>
-    <t>SL GREEN REA</t>
+    <t>NEWMONT GOLD</t>
+  </si>
+  <si>
+    <t>EXELON CORP</t>
+  </si>
+  <si>
+    <t>RIO TINTO</t>
+  </si>
+  <si>
+    <t>FREEPORT</t>
   </si>
   <si>
     <t>UBER TECH IN</t>
   </si>
   <si>
-    <t>3M</t>
-  </si>
-  <si>
-    <t>MODERNA INC</t>
-  </si>
-  <si>
-    <t>BROADCOM INC</t>
-  </si>
-  <si>
-    <t>NETFLIX</t>
-  </si>
-  <si>
-    <t>N1DA34</t>
-  </si>
-  <si>
-    <t>A1IV34</t>
-  </si>
-  <si>
-    <t>DEOP34</t>
+    <t>MORGAN STAN</t>
+  </si>
+  <si>
+    <t>MMMC34</t>
+  </si>
+  <si>
+    <t>FSLR34</t>
+  </si>
+  <si>
+    <t>S1PO34</t>
   </si>
   <si>
     <t>A1LL34</t>
   </si>
   <si>
-    <t>S1LG34</t>
+    <t>N1EM34</t>
+  </si>
+  <si>
+    <t>E1XC34</t>
+  </si>
+  <si>
+    <t>RIOT34</t>
+  </si>
+  <si>
+    <t>FCXO34</t>
   </si>
   <si>
     <t>U1BE34</t>
   </si>
   <si>
-    <t>MMMC34</t>
-  </si>
-  <si>
-    <t>M1RN34</t>
-  </si>
-  <si>
-    <t>AVGO34</t>
-  </si>
-  <si>
-    <t>NFLX34</t>
-  </si>
-  <si>
-    <t>NDAQ</t>
-  </si>
-  <si>
-    <t>AIV</t>
-  </si>
-  <si>
-    <t>DEO</t>
+    <t>MSBR34</t>
+  </si>
+  <si>
+    <t>MMM</t>
+  </si>
+  <si>
+    <t>FSLR</t>
+  </si>
+  <si>
+    <t>SPOT</t>
   </si>
   <si>
     <t>BFH</t>
   </si>
   <si>
-    <t>SLG</t>
+    <t>NEM</t>
+  </si>
+  <si>
+    <t>EXC</t>
+  </si>
+  <si>
+    <t>RIO</t>
+  </si>
+  <si>
+    <t>FCX</t>
   </si>
   <si>
     <t>UBER</t>
   </si>
   <si>
-    <t>MMM</t>
-  </si>
-  <si>
-    <t>MRNA</t>
-  </si>
-  <si>
-    <t>AVGO</t>
-  </si>
-  <si>
-    <t>NFLX</t>
+    <t>MS</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>7.658526765518218</v>
+        <v>2.415753722190857</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -518,7 +518,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>0.8574792572708247</v>
+        <v>2.34655723018659</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -532,7 +532,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>0.6424431000021684</v>
+        <v>2.070902550134633</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -546,7 +546,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>0.5741827743950125</v>
+        <v>1.486585918760284</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -560,7 +560,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>0.4051300967330462</v>
+        <v>0.8500074951552961</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -574,7 +574,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>0.3741825181923559</v>
+        <v>0.7303631292725186</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -588,7 +588,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>0.345506323360496</v>
+        <v>0.6798396646117908</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -602,7 +602,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>0.1703867665275567</v>
+        <v>0.4688175193994795</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -616,7 +616,7 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>0.1586473415072618</v>
+        <v>0.4187031314850174</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -630,7 +630,7 @@
         <v>33</v>
       </c>
       <c r="D11">
-        <v>0.150384280252041</v>
+        <v>0.3865131480102661</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmaiores.xlsx
+++ b/bdrmaiores.xlsx
@@ -28,94 +28,94 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>3M</t>
+    <t>META PLAT</t>
   </si>
   <si>
     <t>FIRST SOLAR</t>
   </si>
   <si>
-    <t>SPOTIFY TECH</t>
+    <t>STARBUCKS</t>
+  </si>
+  <si>
+    <t>NETFLIX</t>
   </si>
   <si>
     <t>BREAD FINAN</t>
   </si>
   <si>
-    <t>NEWMONT GOLD</t>
-  </si>
-  <si>
-    <t>EXELON CORP</t>
-  </si>
-  <si>
-    <t>RIO TINTO</t>
-  </si>
-  <si>
-    <t>FREEPORT</t>
-  </si>
-  <si>
-    <t>UBER TECH IN</t>
-  </si>
-  <si>
-    <t>MORGAN STAN</t>
-  </si>
-  <si>
-    <t>MMMC34</t>
+    <t>WALT DISNEY</t>
+  </si>
+  <si>
+    <t>TAKE-TWO INT</t>
+  </si>
+  <si>
+    <t>ALPHABET</t>
+  </si>
+  <si>
+    <t>BAIDU INC</t>
+  </si>
+  <si>
+    <t>NVIDIA CORP</t>
+  </si>
+  <si>
+    <t>M1TA34</t>
   </si>
   <si>
     <t>FSLR34</t>
   </si>
   <si>
-    <t>S1PO34</t>
+    <t>SBUB34</t>
+  </si>
+  <si>
+    <t>NFLX34</t>
   </si>
   <si>
     <t>A1LL34</t>
   </si>
   <si>
-    <t>N1EM34</t>
-  </si>
-  <si>
-    <t>E1XC34</t>
-  </si>
-  <si>
-    <t>RIOT34</t>
-  </si>
-  <si>
-    <t>FCXO34</t>
-  </si>
-  <si>
-    <t>U1BE34</t>
-  </si>
-  <si>
-    <t>MSBR34</t>
-  </si>
-  <si>
-    <t>MMM</t>
+    <t>DISB34</t>
+  </si>
+  <si>
+    <t>T1TW34</t>
+  </si>
+  <si>
+    <t>GOGL34</t>
+  </si>
+  <si>
+    <t>BIDU34</t>
+  </si>
+  <si>
+    <t>NVDC34</t>
+  </si>
+  <si>
+    <t>META</t>
   </si>
   <si>
     <t>FSLR</t>
   </si>
   <si>
-    <t>SPOT</t>
+    <t>SBUX</t>
+  </si>
+  <si>
+    <t>NFLX</t>
   </si>
   <si>
     <t>BFH</t>
   </si>
   <si>
-    <t>NEM</t>
-  </si>
-  <si>
-    <t>EXC</t>
-  </si>
-  <si>
-    <t>RIO</t>
-  </si>
-  <si>
-    <t>FCX</t>
-  </si>
-  <si>
-    <t>UBER</t>
-  </si>
-  <si>
-    <t>MS</t>
+    <t>DIS</t>
+  </si>
+  <si>
+    <t>TTWO</t>
+  </si>
+  <si>
+    <t>GOOGL</t>
+  </si>
+  <si>
+    <t>BIDU</t>
+  </si>
+  <si>
+    <t>NVDA</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>2.415753722190857</v>
+        <v>9.891613281226483</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -518,7 +518,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>2.34655723018659</v>
+        <v>2.471949092803698</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -532,7 +532,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>2.070902550134633</v>
+        <v>0.9432594776153564</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -546,7 +546,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>1.486585918760284</v>
+        <v>0.9397694774926677</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -560,7 +560,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>0.8500074951552961</v>
+        <v>0.5247902263145079</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -574,7 +574,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>0.7303631292725186</v>
+        <v>0.3500287569944192</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -588,7 +588,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>0.6798396646117908</v>
+        <v>0.2494862692146853</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -602,7 +602,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>0.4688175193994795</v>
+        <v>0.2092384288738174</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -616,7 +616,7 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>0.4187031314850174</v>
+        <v>0.1361465199278413</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -630,7 +630,7 @@
         <v>33</v>
       </c>
       <c r="D11">
-        <v>0.3865131480102661</v>
+        <v>0.1214203660705806</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmaiores.xlsx
+++ b/bdrmaiores.xlsx
@@ -28,94 +28,94 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>META PLAT</t>
-  </si>
-  <si>
     <t>FIRST SOLAR</t>
   </si>
   <si>
-    <t>STARBUCKS</t>
-  </si>
-  <si>
-    <t>NETFLIX</t>
-  </si>
-  <si>
-    <t>BREAD FINAN</t>
-  </si>
-  <si>
-    <t>WALT DISNEY</t>
-  </si>
-  <si>
-    <t>TAKE-TWO INT</t>
-  </si>
-  <si>
-    <t>ALPHABET</t>
-  </si>
-  <si>
-    <t>BAIDU INC</t>
-  </si>
-  <si>
-    <t>NVIDIA CORP</t>
-  </si>
-  <si>
-    <t>M1TA34</t>
+    <t>RIO TINTO</t>
+  </si>
+  <si>
+    <t>BNY MELLON</t>
+  </si>
+  <si>
+    <t>SL GREEN REA</t>
+  </si>
+  <si>
+    <t>NASDAQ INC</t>
+  </si>
+  <si>
+    <t>FORD MOTORS</t>
+  </si>
+  <si>
+    <t>INTEL</t>
+  </si>
+  <si>
+    <t>LILLY</t>
+  </si>
+  <si>
+    <t>TOYOTAMO</t>
+  </si>
+  <si>
+    <t>SONY GROUP</t>
   </si>
   <si>
     <t>FSLR34</t>
   </si>
   <si>
-    <t>SBUB34</t>
-  </si>
-  <si>
-    <t>NFLX34</t>
-  </si>
-  <si>
-    <t>A1LL34</t>
-  </si>
-  <si>
-    <t>DISB34</t>
-  </si>
-  <si>
-    <t>T1TW34</t>
-  </si>
-  <si>
-    <t>GOGL34</t>
-  </si>
-  <si>
-    <t>BIDU34</t>
-  </si>
-  <si>
-    <t>NVDC34</t>
-  </si>
-  <si>
-    <t>META</t>
+    <t>RIOT34</t>
+  </si>
+  <si>
+    <t>BONY34</t>
+  </si>
+  <si>
+    <t>S1LG34</t>
+  </si>
+  <si>
+    <t>N1DA34</t>
+  </si>
+  <si>
+    <t>FDMO34</t>
+  </si>
+  <si>
+    <t>ITLC34</t>
+  </si>
+  <si>
+    <t>LILY34</t>
+  </si>
+  <si>
+    <t>TMCO34</t>
+  </si>
+  <si>
+    <t>SNEC34</t>
   </si>
   <si>
     <t>FSLR</t>
   </si>
   <si>
-    <t>SBUX</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>BFH</t>
-  </si>
-  <si>
-    <t>DIS</t>
-  </si>
-  <si>
-    <t>TTWO</t>
-  </si>
-  <si>
-    <t>GOOGL</t>
-  </si>
-  <si>
-    <t>BIDU</t>
-  </si>
-  <si>
-    <t>NVDA</t>
+    <t>RIO</t>
+  </si>
+  <si>
+    <t>BK</t>
+  </si>
+  <si>
+    <t>SLG</t>
+  </si>
+  <si>
+    <t>NDAQ</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>INTC</t>
+  </si>
+  <si>
+    <t>LLY</t>
+  </si>
+  <si>
+    <t>TM</t>
+  </si>
+  <si>
+    <t>SONY</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>9.891613281226483</v>
+        <v>2.057821373688057</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -518,7 +518,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>2.471949092803698</v>
+        <v>1.721360285766423</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -532,7 +532,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>0.9432594776153564</v>
+        <v>1.300018052337691</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -546,7 +546,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>0.9397694774926677</v>
+        <v>1.295215154823381</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -560,7 +560,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>0.5247902263145079</v>
+        <v>1.144321054336615</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -574,7 +574,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>0.3500287569944192</v>
+        <v>1.056856187671656</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -588,7 +588,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>0.2494862692146853</v>
+        <v>0.9189667614871695</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -602,7 +602,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>0.2092384288738174</v>
+        <v>0.7290041129375453</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -616,7 +616,7 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>0.1361465199278413</v>
+        <v>0.6826800977287348</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -630,7 +630,7 @@
         <v>33</v>
       </c>
       <c r="D11">
-        <v>0.1214203660705806</v>
+        <v>0.4775369968265295</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmaiores.xlsx
+++ b/bdrmaiores.xlsx
@@ -31,91 +31,91 @@
     <t>FIRST SOLAR</t>
   </si>
   <si>
-    <t>RIO TINTO</t>
-  </si>
-  <si>
-    <t>BNY MELLON</t>
-  </si>
-  <si>
-    <t>SL GREEN REA</t>
-  </si>
-  <si>
-    <t>NASDAQ INC</t>
-  </si>
-  <si>
-    <t>FORD MOTORS</t>
-  </si>
-  <si>
-    <t>INTEL</t>
-  </si>
-  <si>
-    <t>LILLY</t>
-  </si>
-  <si>
-    <t>TOYOTAMO</t>
-  </si>
-  <si>
-    <t>SONY GROUP</t>
+    <t>SPOTIFY TECH</t>
+  </si>
+  <si>
+    <t>MERCADOLIBRE</t>
+  </si>
+  <si>
+    <t>PDD HOLDING</t>
+  </si>
+  <si>
+    <t>NETFLIX</t>
+  </si>
+  <si>
+    <t>ZOETIS INC</t>
+  </si>
+  <si>
+    <t>BERKSHIRE</t>
+  </si>
+  <si>
+    <t>META PLAT</t>
+  </si>
+  <si>
+    <t>NEWMONT GOLD</t>
+  </si>
+  <si>
+    <t>TAIWANSMFAC</t>
   </si>
   <si>
     <t>FSLR34</t>
   </si>
   <si>
-    <t>RIOT34</t>
-  </si>
-  <si>
-    <t>BONY34</t>
-  </si>
-  <si>
-    <t>S1LG34</t>
-  </si>
-  <si>
-    <t>N1DA34</t>
-  </si>
-  <si>
-    <t>FDMO34</t>
-  </si>
-  <si>
-    <t>ITLC34</t>
-  </si>
-  <si>
-    <t>LILY34</t>
-  </si>
-  <si>
-    <t>TMCO34</t>
-  </si>
-  <si>
-    <t>SNEC34</t>
+    <t>S1PO34</t>
+  </si>
+  <si>
+    <t>MELI34</t>
+  </si>
+  <si>
+    <t>P1DD34</t>
+  </si>
+  <si>
+    <t>NFLX34</t>
+  </si>
+  <si>
+    <t>Z1TS34</t>
+  </si>
+  <si>
+    <t>BERK34</t>
+  </si>
+  <si>
+    <t>M1TA34</t>
+  </si>
+  <si>
+    <t>N1EM34</t>
+  </si>
+  <si>
+    <t>TSMC34</t>
   </si>
   <si>
     <t>FSLR</t>
   </si>
   <si>
-    <t>RIO</t>
-  </si>
-  <si>
-    <t>BK</t>
-  </si>
-  <si>
-    <t>SLG</t>
-  </si>
-  <si>
-    <t>NDAQ</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>INTC</t>
-  </si>
-  <si>
-    <t>LLY</t>
-  </si>
-  <si>
-    <t>TM</t>
-  </si>
-  <si>
-    <t>SONY</t>
+    <t>SPOT</t>
+  </si>
+  <si>
+    <t>MELI</t>
+  </si>
+  <si>
+    <t>PDD</t>
+  </si>
+  <si>
+    <t>NFLX</t>
+  </si>
+  <si>
+    <t>ZTS</t>
+  </si>
+  <si>
+    <t>BRK-B</t>
+  </si>
+  <si>
+    <t>META</t>
+  </si>
+  <si>
+    <t>NEM</t>
+  </si>
+  <si>
+    <t>TSM</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>2.057821373688057</v>
+        <v>8.070490915004484</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -518,7 +518,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>1.721360285766423</v>
+        <v>1.365283509843721</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -532,7 +532,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>1.300018052337691</v>
+        <v>0.921138330959792</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -546,7 +546,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>1.295215154823381</v>
+        <v>0.7217167790076928</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -560,7 +560,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>1.144321054336615</v>
+        <v>0.6448502938495935</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -574,7 +574,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>1.056856187671656</v>
+        <v>0.3869733053884374</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -588,7 +588,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>0.9189667614871695</v>
+        <v>0.3209948769035691</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -602,7 +602,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>0.7290041129375453</v>
+        <v>0.2969561024362264</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -616,7 +616,7 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>0.6826800977287348</v>
+        <v>0.2897630884017417</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -630,7 +630,7 @@
         <v>33</v>
       </c>
       <c r="D11">
-        <v>0.4775369968265295</v>
+        <v>0.2717370528507672</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmaiores.xlsx
+++ b/bdrmaiores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Nome</t>
   </si>
@@ -28,94 +28,91 @@
     <t>Spread</t>
   </si>
   <si>
+    <t>SPOTIFY TECH</t>
+  </si>
+  <si>
     <t>FIRST SOLAR</t>
   </si>
   <si>
-    <t>SPOTIFY TECH</t>
-  </si>
-  <si>
-    <t>MERCADOLIBRE</t>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>ASML HOLD</t>
+  </si>
+  <si>
+    <t>MICRON TECHN</t>
+  </si>
+  <si>
+    <t>BROADCOM INC</t>
+  </si>
+  <si>
+    <t>TAIWANSMFAC</t>
+  </si>
+  <si>
+    <t>APPLIED MATE</t>
+  </si>
+  <si>
+    <t>STARBUCKS</t>
   </si>
   <si>
     <t>PDD HOLDING</t>
   </si>
   <si>
-    <t>NETFLIX</t>
-  </si>
-  <si>
-    <t>ZOETIS INC</t>
-  </si>
-  <si>
-    <t>BERKSHIRE</t>
-  </si>
-  <si>
-    <t>META PLAT</t>
-  </si>
-  <si>
-    <t>NEWMONT GOLD</t>
-  </si>
-  <si>
-    <t>TAIWANSMFAC</t>
+    <t>S1PO34</t>
   </si>
   <si>
     <t>FSLR34</t>
   </si>
   <si>
-    <t>S1PO34</t>
-  </si>
-  <si>
-    <t>MELI34</t>
+    <t>GEOO34</t>
+  </si>
+  <si>
+    <t>ASML34</t>
+  </si>
+  <si>
+    <t>MUTC34</t>
+  </si>
+  <si>
+    <t>AVGO34</t>
+  </si>
+  <si>
+    <t>TSMC34</t>
+  </si>
+  <si>
+    <t>A1MT34</t>
+  </si>
+  <si>
+    <t>SBUB34</t>
   </si>
   <si>
     <t>P1DD34</t>
   </si>
   <si>
-    <t>NFLX34</t>
-  </si>
-  <si>
-    <t>Z1TS34</t>
-  </si>
-  <si>
-    <t>BERK34</t>
-  </si>
-  <si>
-    <t>M1TA34</t>
-  </si>
-  <si>
-    <t>N1EM34</t>
-  </si>
-  <si>
-    <t>TSMC34</t>
+    <t>SPOT</t>
   </si>
   <si>
     <t>FSLR</t>
   </si>
   <si>
-    <t>SPOT</t>
-  </si>
-  <si>
-    <t>MELI</t>
+    <t>ASML</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>AVGO</t>
+  </si>
+  <si>
+    <t>TSM</t>
+  </si>
+  <si>
+    <t>AMAT</t>
+  </si>
+  <si>
+    <t>SBUX</t>
   </si>
   <si>
     <t>PDD</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>ZTS</t>
-  </si>
-  <si>
-    <t>BRK-B</t>
-  </si>
-  <si>
-    <t>META</t>
-  </si>
-  <si>
-    <t>NEM</t>
-  </si>
-  <si>
-    <t>TSM</t>
   </si>
 </sst>
 </file>
@@ -504,7 +501,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>8.070490915004484</v>
+        <v>2.222606657684082</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -518,7 +515,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>1.365283509843721</v>
+        <v>1.996858001224609</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -529,10 +526,10 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>0.921138330959792</v>
+        <v>1.200532200768066</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -543,10 +540,10 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>0.7217167790076928</v>
+        <v>0.653190253672463</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -557,10 +554,10 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>0.6448502938495935</v>
+        <v>0.5335573760507657</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -571,10 +568,10 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>0.3869733053884374</v>
+        <v>0.4464137188263209</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -585,10 +582,10 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>0.3209948769035691</v>
+        <v>0.4201826751232147</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -599,10 +596,10 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>0.2969561024362264</v>
+        <v>0.3759112712905335</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -613,10 +610,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>0.2897630884017417</v>
+        <v>0.3264579782335204</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -627,10 +624,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>0.2717370528507672</v>
+        <v>0.3026740372024506</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmaiores.xlsx
+++ b/bdrmaiores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Nome</t>
   </si>
@@ -31,88 +31,91 @@
     <t>SPOTIFY TECH</t>
   </si>
   <si>
-    <t>FIRST SOLAR</t>
-  </si>
-  <si>
-    <t>GE</t>
-  </si>
-  <si>
-    <t>ASML HOLD</t>
-  </si>
-  <si>
-    <t>MICRON TECHN</t>
-  </si>
-  <si>
-    <t>BROADCOM INC</t>
-  </si>
-  <si>
-    <t>TAIWANSMFAC</t>
-  </si>
-  <si>
-    <t>APPLIED MATE</t>
-  </si>
-  <si>
-    <t>STARBUCKS</t>
-  </si>
-  <si>
-    <t>PDD HOLDING</t>
+    <t>JOHNSON</t>
+  </si>
+  <si>
+    <t>UBER TECH IN</t>
+  </si>
+  <si>
+    <t>PFIZER</t>
+  </si>
+  <si>
+    <t>NEXTERA ENER</t>
+  </si>
+  <si>
+    <t>META PLAT</t>
+  </si>
+  <si>
+    <t>BREAD FINAN</t>
+  </si>
+  <si>
+    <t>AMERICAN TOW</t>
+  </si>
+  <si>
+    <t>3M</t>
+  </si>
+  <si>
+    <t>EXELON CORP</t>
   </si>
   <si>
     <t>S1PO34</t>
   </si>
   <si>
-    <t>FSLR34</t>
-  </si>
-  <si>
-    <t>GEOO34</t>
-  </si>
-  <si>
-    <t>ASML34</t>
-  </si>
-  <si>
-    <t>MUTC34</t>
-  </si>
-  <si>
-    <t>AVGO34</t>
-  </si>
-  <si>
-    <t>TSMC34</t>
-  </si>
-  <si>
-    <t>A1MT34</t>
-  </si>
-  <si>
-    <t>SBUB34</t>
-  </si>
-  <si>
-    <t>P1DD34</t>
+    <t>JNJB34</t>
+  </si>
+  <si>
+    <t>U1BE34</t>
+  </si>
+  <si>
+    <t>PFIZ34</t>
+  </si>
+  <si>
+    <t>NEXT34</t>
+  </si>
+  <si>
+    <t>M1TA34</t>
+  </si>
+  <si>
+    <t>A1LL34</t>
+  </si>
+  <si>
+    <t>T1OW34</t>
+  </si>
+  <si>
+    <t>MMMC34</t>
+  </si>
+  <si>
+    <t>E1XC34</t>
   </si>
   <si>
     <t>SPOT</t>
   </si>
   <si>
-    <t>FSLR</t>
-  </si>
-  <si>
-    <t>ASML</t>
-  </si>
-  <si>
-    <t>MU</t>
-  </si>
-  <si>
-    <t>AVGO</t>
-  </si>
-  <si>
-    <t>TSM</t>
-  </si>
-  <si>
-    <t>AMAT</t>
-  </si>
-  <si>
-    <t>SBUX</t>
-  </si>
-  <si>
-    <t>PDD</t>
+    <t>JNJ</t>
+  </si>
+  <si>
+    <t>UBER</t>
+  </si>
+  <si>
+    <t>PFE</t>
+  </si>
+  <si>
+    <t>NEE</t>
+  </si>
+  <si>
+    <t>META</t>
+  </si>
+  <si>
+    <t>BFH</t>
+  </si>
+  <si>
+    <t>AMT</t>
+  </si>
+  <si>
+    <t>MMM</t>
+  </si>
+  <si>
+    <t>EXC</t>
   </si>
 </sst>
 </file>
@@ -501,7 +504,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>2.222606657684082</v>
+        <v>5.539302033397689</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -515,7 +518,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>1.996858001224609</v>
+        <v>2.059754629114181</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -526,10 +529,10 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>1.200532200768066</v>
+        <v>2.023662075635912</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -540,10 +543,10 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>0.653190253672463</v>
+        <v>1.882188941120148</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -554,10 +557,10 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>0.5335573760507657</v>
+        <v>1.563568910120011</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -568,10 +571,10 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>0.4464137188263209</v>
+        <v>1.238034423080933</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -582,10 +585,10 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>0.4201826751232147</v>
+        <v>1.059030709442141</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -596,10 +599,10 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>0.3759112712905335</v>
+        <v>1.016521741142277</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -610,10 +613,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>0.3264579782335204</v>
+        <v>0.9810841884536785</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -624,10 +627,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>0.3026740372024506</v>
+        <v>0.6241487762908946</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmaiores.xlsx
+++ b/bdrmaiores.xlsx
@@ -28,94 +28,94 @@
     <t>Spread</t>
   </si>
   <si>
+    <t>FIRST SOLAR</t>
+  </si>
+  <si>
+    <t>SL GREEN REA</t>
+  </si>
+  <si>
+    <t>QUALCOMM</t>
+  </si>
+  <si>
+    <t>ARCHER DANIE</t>
+  </si>
+  <si>
     <t>SPOTIFY TECH</t>
   </si>
   <si>
-    <t>JOHNSON</t>
-  </si>
-  <si>
-    <t>UBER TECH IN</t>
-  </si>
-  <si>
-    <t>PFIZER</t>
+    <t>NASDAQ INC</t>
+  </si>
+  <si>
+    <t>TAKE-TWO INT</t>
+  </si>
+  <si>
+    <t>BNY MELLON</t>
+  </si>
+  <si>
+    <t>BOOKING</t>
   </si>
   <si>
     <t>NEXTERA ENER</t>
   </si>
   <si>
-    <t>META PLAT</t>
-  </si>
-  <si>
-    <t>BREAD FINAN</t>
-  </si>
-  <si>
-    <t>AMERICAN TOW</t>
-  </si>
-  <si>
-    <t>3M</t>
-  </si>
-  <si>
-    <t>EXELON CORP</t>
+    <t>FSLR34</t>
+  </si>
+  <si>
+    <t>S1LG34</t>
+  </si>
+  <si>
+    <t>QCOM34</t>
+  </si>
+  <si>
+    <t>A1DM34</t>
   </si>
   <si>
     <t>S1PO34</t>
   </si>
   <si>
-    <t>JNJB34</t>
-  </si>
-  <si>
-    <t>U1BE34</t>
-  </si>
-  <si>
-    <t>PFIZ34</t>
+    <t>N1DA34</t>
+  </si>
+  <si>
+    <t>T1TW34</t>
+  </si>
+  <si>
+    <t>BONY34</t>
+  </si>
+  <si>
+    <t>BKNG34</t>
   </si>
   <si>
     <t>NEXT34</t>
   </si>
   <si>
-    <t>M1TA34</t>
-  </si>
-  <si>
-    <t>A1LL34</t>
-  </si>
-  <si>
-    <t>T1OW34</t>
-  </si>
-  <si>
-    <t>MMMC34</t>
-  </si>
-  <si>
-    <t>E1XC34</t>
+    <t>FSLR</t>
+  </si>
+  <si>
+    <t>SLG</t>
+  </si>
+  <si>
+    <t>QCOM</t>
+  </si>
+  <si>
+    <t>ADM</t>
   </si>
   <si>
     <t>SPOT</t>
   </si>
   <si>
-    <t>JNJ</t>
-  </si>
-  <si>
-    <t>UBER</t>
-  </si>
-  <si>
-    <t>PFE</t>
+    <t>NDAQ</t>
+  </si>
+  <si>
+    <t>TTWO</t>
+  </si>
+  <si>
+    <t>BK</t>
+  </si>
+  <si>
+    <t>BKNG</t>
   </si>
   <si>
     <t>NEE</t>
-  </si>
-  <si>
-    <t>META</t>
-  </si>
-  <si>
-    <t>BFH</t>
-  </si>
-  <si>
-    <t>AMT</t>
-  </si>
-  <si>
-    <t>MMM</t>
-  </si>
-  <si>
-    <t>EXC</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>5.539302033397689</v>
+        <v>7.416787602687691</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -518,7 +518,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>2.059754629114181</v>
+        <v>1.62015198577501</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -532,7 +532,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>2.023662075635912</v>
+        <v>1.541951197436902</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -546,7 +546,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>1.882188941120148</v>
+        <v>1.024750346488872</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -560,7 +560,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>1.563568910120011</v>
+        <v>0.7981989085637906</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -574,7 +574,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>1.238034423080933</v>
+        <v>0.7773989791221538</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -588,7 +588,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>1.059030709442141</v>
+        <v>0.4876871352826129</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -602,7 +602,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>1.016521741142277</v>
+        <v>0.4871861880492361</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -616,7 +616,7 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>0.9810841884536785</v>
+        <v>0.4570153641395649</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -630,7 +630,7 @@
         <v>33</v>
       </c>
       <c r="D11">
-        <v>0.6241487762908946</v>
+        <v>0.3872767375278272</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmaiores.xlsx
+++ b/bdrmaiores.xlsx
@@ -28,94 +28,94 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>FIRST SOLAR</t>
-  </si>
-  <si>
-    <t>SL GREEN REA</t>
-  </si>
-  <si>
-    <t>QUALCOMM</t>
+    <t>BNY MELLON</t>
   </si>
   <si>
     <t>ARCHER DANIE</t>
   </si>
   <si>
+    <t>EXELON CORP</t>
+  </si>
+  <si>
+    <t>HONDA MO</t>
+  </si>
+  <si>
+    <t>SONY GROUP</t>
+  </si>
+  <si>
     <t>SPOTIFY TECH</t>
   </si>
   <si>
-    <t>NASDAQ INC</t>
-  </si>
-  <si>
-    <t>TAKE-TWO INT</t>
-  </si>
-  <si>
-    <t>BNY MELLON</t>
-  </si>
-  <si>
-    <t>BOOKING</t>
-  </si>
-  <si>
     <t>NEXTERA ENER</t>
   </si>
   <si>
-    <t>FSLR34</t>
-  </si>
-  <si>
-    <t>S1LG34</t>
-  </si>
-  <si>
-    <t>QCOM34</t>
+    <t>FREEPORT</t>
+  </si>
+  <si>
+    <t>DEERE CO</t>
+  </si>
+  <si>
+    <t>3M</t>
+  </si>
+  <si>
+    <t>BONY34</t>
   </si>
   <si>
     <t>A1DM34</t>
   </si>
   <si>
+    <t>E1XC34</t>
+  </si>
+  <si>
+    <t>HOND34</t>
+  </si>
+  <si>
+    <t>SNEC34</t>
+  </si>
+  <si>
     <t>S1PO34</t>
   </si>
   <si>
-    <t>N1DA34</t>
-  </si>
-  <si>
-    <t>T1TW34</t>
-  </si>
-  <si>
-    <t>BONY34</t>
-  </si>
-  <si>
-    <t>BKNG34</t>
-  </si>
-  <si>
     <t>NEXT34</t>
   </si>
   <si>
-    <t>FSLR</t>
-  </si>
-  <si>
-    <t>SLG</t>
-  </si>
-  <si>
-    <t>QCOM</t>
+    <t>FCXO34</t>
+  </si>
+  <si>
+    <t>DEEC34</t>
+  </si>
+  <si>
+    <t>MMMC34</t>
+  </si>
+  <si>
+    <t>BK</t>
   </si>
   <si>
     <t>ADM</t>
   </si>
   <si>
+    <t>EXC</t>
+  </si>
+  <si>
+    <t>HMC</t>
+  </si>
+  <si>
+    <t>SONY</t>
+  </si>
+  <si>
     <t>SPOT</t>
   </si>
   <si>
-    <t>NDAQ</t>
-  </si>
-  <si>
-    <t>TTWO</t>
-  </si>
-  <si>
-    <t>BK</t>
-  </si>
-  <si>
-    <t>BKNG</t>
-  </si>
-  <si>
     <t>NEE</t>
+  </si>
+  <si>
+    <t>FCX</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>MMM</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>7.416787602687691</v>
+        <v>2.955386161804199</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -518,7 +518,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>1.62015198577501</v>
+        <v>2.56205659043917</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -532,7 +532,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>1.541951197436902</v>
+        <v>2.120989664505032</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -546,7 +546,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>1.024750346488872</v>
+        <v>1.567387715866062</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -560,7 +560,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>0.7981989085637906</v>
+        <v>1.383764123260335</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -574,7 +574,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>0.7773989791221538</v>
+        <v>1.121562014697702</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -588,7 +588,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>0.4876871352826129</v>
+        <v>1.061025842140225</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -602,7 +602,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>0.4871861880492361</v>
+        <v>1.047409656855791</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -616,7 +616,7 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>0.4570153641395649</v>
+        <v>0.9515757730004566</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -630,7 +630,7 @@
         <v>33</v>
       </c>
       <c r="D11">
-        <v>0.3872767375278272</v>
+        <v>0.9510572351264273</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmaiores.xlsx
+++ b/bdrmaiores.xlsx
@@ -28,94 +28,94 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>BNY MELLON</t>
+    <t>NASDAQ INC</t>
   </si>
   <si>
     <t>ARCHER DANIE</t>
   </si>
   <si>
-    <t>EXELON CORP</t>
-  </si>
-  <si>
-    <t>HONDA MO</t>
-  </si>
-  <si>
     <t>SONY GROUP</t>
   </si>
   <si>
+    <t>ORACLE</t>
+  </si>
+  <si>
     <t>SPOTIFY TECH</t>
   </si>
   <si>
-    <t>NEXTERA ENER</t>
-  </si>
-  <si>
-    <t>FREEPORT</t>
-  </si>
-  <si>
-    <t>DEERE CO</t>
-  </si>
-  <si>
-    <t>3M</t>
-  </si>
-  <si>
-    <t>BONY34</t>
+    <t>MORGAN STAN</t>
+  </si>
+  <si>
+    <t>APARTMENT IN</t>
+  </si>
+  <si>
+    <t>SL GREEN REA</t>
+  </si>
+  <si>
+    <t>BIONTECH SE</t>
+  </si>
+  <si>
+    <t>BOOKING</t>
+  </si>
+  <si>
+    <t>N1DA34</t>
   </si>
   <si>
     <t>A1DM34</t>
   </si>
   <si>
-    <t>E1XC34</t>
-  </si>
-  <si>
-    <t>HOND34</t>
-  </si>
-  <si>
     <t>SNEC34</t>
   </si>
   <si>
+    <t>ORCL34</t>
+  </si>
+  <si>
     <t>S1PO34</t>
   </si>
   <si>
-    <t>NEXT34</t>
-  </si>
-  <si>
-    <t>FCXO34</t>
-  </si>
-  <si>
-    <t>DEEC34</t>
-  </si>
-  <si>
-    <t>MMMC34</t>
-  </si>
-  <si>
-    <t>BK</t>
+    <t>MSBR34</t>
+  </si>
+  <si>
+    <t>A1IV34</t>
+  </si>
+  <si>
+    <t>S1LG34</t>
+  </si>
+  <si>
+    <t>B1NT34</t>
+  </si>
+  <si>
+    <t>BKNG34</t>
+  </si>
+  <si>
+    <t>NDAQ</t>
   </si>
   <si>
     <t>ADM</t>
   </si>
   <si>
-    <t>EXC</t>
-  </si>
-  <si>
-    <t>HMC</t>
-  </si>
-  <si>
     <t>SONY</t>
   </si>
   <si>
+    <t>ORCL</t>
+  </si>
+  <si>
     <t>SPOT</t>
   </si>
   <si>
-    <t>NEE</t>
-  </si>
-  <si>
-    <t>FCX</t>
-  </si>
-  <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>MMM</t>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>AIV</t>
+  </si>
+  <si>
+    <t>SLG</t>
+  </si>
+  <si>
+    <t>BNTX</t>
+  </si>
+  <si>
+    <t>BKNG</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>2.955386161804199</v>
+        <v>1.255601076507446</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -518,7 +518,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>2.56205659043917</v>
+        <v>1.080844905776758</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -532,7 +532,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>2.120989664505032</v>
+        <v>0.7558762942499015</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -546,7 +546,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>1.567387715866062</v>
+        <v>0.7509188245474547</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -560,7 +560,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>1.383764123260335</v>
+        <v>0.6176158849339117</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -574,7 +574,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>1.121562014697702</v>
+        <v>0.5106093530121143</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -588,7 +588,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>1.061025842140225</v>
+        <v>0.471958450355487</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -602,7 +602,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>1.047409656855791</v>
+        <v>0.4385443350984133</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -616,7 +616,7 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>0.9515757730004566</v>
+        <v>0.3944342171430435</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -630,7 +630,7 @@
         <v>33</v>
       </c>
       <c r="D11">
-        <v>0.9510572351264273</v>
+        <v>0.273847486579939</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmaiores.xlsx
+++ b/bdrmaiores.xlsx
@@ -28,94 +28,94 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>NASDAQ INC</t>
-  </si>
-  <si>
-    <t>ARCHER DANIE</t>
-  </si>
-  <si>
-    <t>SONY GROUP</t>
-  </si>
-  <si>
-    <t>ORACLE</t>
-  </si>
-  <si>
-    <t>SPOTIFY TECH</t>
-  </si>
-  <si>
-    <t>MORGAN STAN</t>
-  </si>
-  <si>
-    <t>APARTMENT IN</t>
-  </si>
-  <si>
-    <t>SL GREEN REA</t>
-  </si>
-  <si>
-    <t>BIONTECH SE</t>
-  </si>
-  <si>
-    <t>BOOKING</t>
-  </si>
-  <si>
-    <t>N1DA34</t>
-  </si>
-  <si>
-    <t>A1DM34</t>
-  </si>
-  <si>
-    <t>SNEC34</t>
-  </si>
-  <si>
-    <t>ORCL34</t>
-  </si>
-  <si>
-    <t>S1PO34</t>
-  </si>
-  <si>
-    <t>MSBR34</t>
-  </si>
-  <si>
-    <t>A1IV34</t>
-  </si>
-  <si>
-    <t>S1LG34</t>
-  </si>
-  <si>
-    <t>B1NT34</t>
-  </si>
-  <si>
-    <t>BKNG34</t>
-  </si>
-  <si>
-    <t>NDAQ</t>
-  </si>
-  <si>
-    <t>ADM</t>
-  </si>
-  <si>
-    <t>SONY</t>
-  </si>
-  <si>
-    <t>ORCL</t>
-  </si>
-  <si>
-    <t>SPOT</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>AIV</t>
-  </si>
-  <si>
-    <t>SLG</t>
-  </si>
-  <si>
-    <t>BNTX</t>
-  </si>
-  <si>
-    <t>BKNG</t>
+    <t>EXELON CORP</t>
+  </si>
+  <si>
+    <t>STARBUCKS</t>
+  </si>
+  <si>
+    <t>FREEPORT</t>
+  </si>
+  <si>
+    <t>NEXTERA ENER</t>
+  </si>
+  <si>
+    <t>MONSTER BEVE</t>
+  </si>
+  <si>
+    <t>EQUINIX INC</t>
+  </si>
+  <si>
+    <t>AMAZON</t>
+  </si>
+  <si>
+    <t>BERKSHIRE</t>
+  </si>
+  <si>
+    <t>REALTY INCOM</t>
+  </si>
+  <si>
+    <t>TRANSOCEAN</t>
+  </si>
+  <si>
+    <t>E1XC34</t>
+  </si>
+  <si>
+    <t>SBUB34</t>
+  </si>
+  <si>
+    <t>FCXO34</t>
+  </si>
+  <si>
+    <t>NEXT34</t>
+  </si>
+  <si>
+    <t>M1NS34</t>
+  </si>
+  <si>
+    <t>EQIX34</t>
+  </si>
+  <si>
+    <t>AMZO34</t>
+  </si>
+  <si>
+    <t>BERK34</t>
+  </si>
+  <si>
+    <t>R1IN34</t>
+  </si>
+  <si>
+    <t>RIGG34</t>
+  </si>
+  <si>
+    <t>EXC</t>
+  </si>
+  <si>
+    <t>SBUX</t>
+  </si>
+  <si>
+    <t>FCX</t>
+  </si>
+  <si>
+    <t>NEE</t>
+  </si>
+  <si>
+    <t>MNST</t>
+  </si>
+  <si>
+    <t>EQIX</t>
+  </si>
+  <si>
+    <t>AMZN</t>
+  </si>
+  <si>
+    <t>BRK-B</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>RIG</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>1.255601076507446</v>
+        <v>0.9522413976974349</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -518,7 +518,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>1.080844905776758</v>
+        <v>0.3542687892913818</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -532,7 +532,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>0.7558762942499015</v>
+        <v>0.2914665568787029</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -546,7 +546,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>0.7509188245474547</v>
+        <v>0.2481803039645456</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -560,7 +560,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>0.6176158849339117</v>
+        <v>0.150323490498522</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -574,7 +574,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>0.5106093530121143</v>
+        <v>0.1217513185933043</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -588,7 +588,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>0.471958450355487</v>
+        <v>0.1207962574935664</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -602,7 +602,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>0.4385443350984133</v>
+        <v>0.1086003098549497</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -616,7 +616,7 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>0.3944342171430435</v>
+        <v>0.1063223826904505</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -630,7 +630,7 @@
         <v>33</v>
       </c>
       <c r="D11">
-        <v>0.273847486579939</v>
+        <v>0.0877553056659508</v>
       </c>
     </row>
   </sheetData>
